--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.034937593919144</v>
+        <v>-3.036088916670467</v>
       </c>
       <c r="G20">
         <v>-0.07291786383376309</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.047470038834882</v>
+        <v>-3.049772684337528</v>
       </c>
       <c r="G21">
         <v>-0.08942034566521784</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.061153806501947</v>
+        <v>-3.062305129253268</v>
       </c>
       <c r="G22">
         <v>-0.1070741502479997</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.06932713342103</v>
+        <v>-3.074837574169008</v>
       </c>
       <c r="G23">
         <v>-0.1192175140827989</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.085067373582102</v>
+        <v>-3.086218696333427</v>
       </c>
       <c r="G24">
         <v>-0.1389277911595874</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.096448495746521</v>
+        <v>-3.097599818497844</v>
       </c>
       <c r="G25">
         <v>-0.1542789502397226</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.108953050505208</v>
+        <v>-3.118059417324032</v>
       </c>
       <c r="G27">
         <v>-0.1747235788298434</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.123671344856795</v>
+        <v>-3.128289216737126</v>
       </c>
       <c r="G28">
         <v>-0.1934119100971463</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.13533364602714</v>
+        <v>-3.150736926868178</v>
       </c>
       <c r="G32">
         <v>-0.2209543589303578</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.154938777765941</v>
+        <v>-3.15634885440094</v>
       </c>
       <c r="G33">
         <v>-0.2445295275848745</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.149349275355432</v>
+        <v>-3.164752556196468</v>
       </c>
       <c r="G35">
         <v>-0.2468800990057991</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.154961202888194</v>
+        <v>-3.17177456036423</v>
       </c>
       <c r="G36">
         <v>-0.2564620634542778</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.149697740782897</v>
+        <v>-3.174566334626995</v>
       </c>
       <c r="G37">
         <v>-0.2551686382646965</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.170386908851483</v>
+        <v>-3.181559959787522</v>
       </c>
       <c r="G39">
         <v>-0.2837978801647165</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.158399607264182</v>
+        <v>-3.173178683114247</v>
       </c>
       <c r="G40">
         <v>-0.2757806154931308</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.177380534012012</v>
+        <v>-3.191373738218049</v>
       </c>
       <c r="G41">
         <v>-0.2987315791566776</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.181582384909776</v>
+        <v>-3.195575589115813</v>
       </c>
       <c r="G42">
         <v>-0.306903466970158</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.182058932794854</v>
+        <v>-3.182178210893511</v>
       </c>
       <c r="G43">
         <v>-0.3113500517709535</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.169566704315239</v>
+        <v>-3.183159685670903</v>
       </c>
       <c r="G44">
         <v>-0.3028278602070547</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.205360988539105</v>
+        <v>-3.208181141809104</v>
       </c>
       <c r="G45">
         <v>-0.3425921813466375</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.159075414390642</v>
+        <v>-3.192749481960834</v>
       </c>
       <c r="G46">
         <v>-0.3002766441138904</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.182172257008531</v>
+        <v>-3.200395691119567</v>
       </c>
       <c r="G47">
         <v>-0.3273435236474962</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.183553954636298</v>
+        <v>-3.184964031271296</v>
       </c>
       <c r="G48">
         <v>-0.3326952581909794</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.140353680377357</v>
+        <v>-3.170914069050793</v>
       </c>
       <c r="G50">
         <v>-0.2974350577634719</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.16112271574252</v>
+        <v>-3.19333935405959</v>
       </c>
       <c r="G51">
         <v>-0.3221741300443512</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.161340509743922</v>
+        <v>-3.165324566640283</v>
       </c>
       <c r="G52">
         <v>-0.3263619609614694</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.147189549588814</v>
+        <v>-3.16670626426805</v>
       </c>
       <c r="G53">
         <v>-0.3161810377220777</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.149864527784782</v>
+        <v>-3.165267808625817</v>
       </c>
       <c r="G54">
         <v>-0.3228260528337623</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.134432867936512</v>
+        <v>-3.168059582888583</v>
       </c>
       <c r="G55">
         <v>-0.3113644299012097</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.137224642199278</v>
+        <v>-3.154037999675312</v>
       </c>
       <c r="G56">
         <v>-0.3181262410796921</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.12038290571601</v>
+        <v>-3.138606339827043</v>
       </c>
       <c r="G57">
         <v>-0.3052545415121402</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.305822279547967</v>
+        <v>-3.314660256527335</v>
       </c>
       <c r="G81">
         <v>-0.1015295324536907</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.350702076138035</v>
+        <v>-3.35733023067796</v>
       </c>
       <c r="G82">
         <v>-0.1733899233202187</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.368667452389855</v>
+        <v>-3.374424450610687</v>
       </c>
       <c r="G83">
         <v>-0.2183358938484998</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-3.364664830802562</v>
+        <v>-3.367895768396122</v>
       </c>
       <c r="G84">
         <v>-0.2413138665376673</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.331486714176358</v>
+        <v>-3.33681118517157</v>
       </c>
       <c r="G85">
         <v>-0.2351163441879243</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.287523457129725</v>
+        <v>-3.292872699282523</v>
       </c>
       <c r="G86">
         <v>-0.2181336814177519</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.234893293929523</v>
+        <v>-3.238807390983804</v>
       </c>
       <c r="G87">
         <v>-0.192484112494011</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.165778944333288</v>
+        <v>-3.166436068057369</v>
       </c>
       <c r="G88">
         <v>-0.1503503571742371</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.074181190401719</v>
+        <v>-3.07771351810183</v>
       </c>
       <c r="G89">
         <v>-0.08573319751912833</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.39431680106997</v>
+        <v>-3.403462648016482</v>
       </c>
       <c r="G92">
         <v>-0.07433875954806313</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.424664127185762</v>
+        <v>-3.428779909822958</v>
       </c>
       <c r="G93">
         <v>-0.1331885038634559</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.43443797238773</v>
+        <v>-3.453235465287177</v>
       </c>
       <c r="G94">
         <v>-0.1706944316380099</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.43714574059111</v>
+        <v>-3.448114041105835</v>
       </c>
       <c r="G95">
         <v>-0.2019046180409911</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.378163902128388</v>
+        <v>-3.380209903762774</v>
       </c>
       <c r="G97">
         <v>-0.1991572803504555</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.26721749389646</v>
+        <v>-3.274345801950522</v>
       </c>
       <c r="G99">
         <v>-0.1444453728907146</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-3.48054600073469</v>
+        <v>-3.484044852034426</v>
       </c>
       <c r="G103">
         <v>-0.07337400561172025</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.499166556335715</v>
+        <v>-3.511793772955028</v>
       </c>
       <c r="G105">
         <v>-0.149708992527958</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.506890734343928</v>
+        <v>-3.510859999399067</v>
       </c>
       <c r="G106">
         <v>-0.1865073577400751</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.480257568036197</v>
+        <v>-3.482863411205783</v>
       </c>
       <c r="G107">
         <v>-0.1885144355436528</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.439672751615891</v>
+        <v>-3.443640925868633</v>
       </c>
       <c r="G108">
         <v>-0.1770038063272512</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.38305997107313</v>
+        <v>-3.390580378189961</v>
       </c>
       <c r="G109">
         <v>-0.1490312698957987</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.253550262064953</v>
+        <v>-3.253807200636091</v>
       </c>
       <c r="G111">
         <v>-0.07723599220283534</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.519558457284754</v>
+        <v>-3.523966434901569</v>
       </c>
       <c r="G114">
         <v>-0.05907064782498628</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.542991800002977</v>
+        <v>-3.55029254616861</v>
       </c>
       <c r="G116">
         <v>-0.1411745478440865</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.534848206122905</v>
+        <v>-3.541638145036337</v>
       </c>
       <c r="G117">
         <v>-0.1623662326144535</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.479917383212722</v>
+        <v>-3.480636100333307</v>
       </c>
       <c r="G119">
         <v>-0.1661059670051483</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.42994532746288</v>
+        <v>-3.431651437861417</v>
       </c>
       <c r="G120">
         <v>-0.1454691899057448</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.303667698166176</v>
+        <v>-3.304415182263253</v>
       </c>
       <c r="G122">
         <v>-0.07786211790991837</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.5783817764071</v>
+        <v>-3.582113035184955</v>
       </c>
       <c r="G126">
         <v>-0.1037997119384535</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.581573569928235</v>
+        <v>-3.584759037260379</v>
       </c>
       <c r="G127">
         <v>-0.1367251129724574</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.574318496649672</v>
+        <v>-3.576956417286147</v>
       </c>
       <c r="G128">
         <v>-0.1590277087007705</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.548508852800769</v>
+        <v>-3.550782874948943</v>
       </c>
       <c r="G129">
         <v>-0.1629516723647357</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.513336123236845</v>
+        <v>-3.51683158513027</v>
       </c>
       <c r="G130">
         <v>-0.1575125503136807</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.466183948147945</v>
+        <v>-3.46775189936583</v>
       </c>
       <c r="G131">
         <v>-0.1399180442316554</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.405513365243965</v>
+        <v>-3.406829592405015</v>
       </c>
       <c r="G132">
         <v>-0.1089810688405453</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.332999994133769</v>
+        <v>-3.334430086819109</v>
       </c>
       <c r="G133">
         <v>-0.06620130524321777</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.590077612287513</v>
+        <v>-3.591117066158365</v>
       </c>
       <c r="G136">
         <v>-0.05523823864288691</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.6001496574977</v>
+        <v>-3.604199530225025</v>
       </c>
       <c r="G138">
         <v>-0.1252627668928459</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.584565987679108</v>
+        <v>-3.591832354253244</v>
       </c>
       <c r="G139">
         <v>-0.1395334839538145</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.564202489117305</v>
+        <v>-3.566919274564132</v>
       </c>
       <c r="G140">
         <v>-0.1491462269118982</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.534277541908342</v>
+        <v>-3.534303096331451</v>
       </c>
       <c r="G141">
         <v>-0.1491975212228203</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.487472879090491</v>
+        <v>-3.488656776629619</v>
       </c>
       <c r="G142">
         <v>-0.13224724528453</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.361361321444357</v>
+        <v>-3.361693720787636</v>
       </c>
       <c r="G144">
         <v>-0.06608817067816775</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.614569588322901</v>
+        <v>-3.614620966770244</v>
       </c>
       <c r="G147">
         <v>-0.0533571546570073</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.619950383737273</v>
+        <v>-3.626436992406192</v>
       </c>
       <c r="G149">
         <v>-0.1190817815068925</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.611075312917768</v>
+        <v>-3.611445529703895</v>
       </c>
       <c r="G150">
         <v>-0.140378626405143</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.554842184220333</v>
+        <v>-3.555050621115603</v>
       </c>
       <c r="G152">
         <v>-0.1444893291432214</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.508980099145281</v>
+        <v>-3.509118804928575</v>
       </c>
       <c r="G153">
         <v>-0.128799159785925</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.449783342854804</v>
+        <v>-3.452111825512828</v>
       </c>
       <c r="G154">
         <v>-0.09977431921320468</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.631121457809478</v>
+        <v>-3.632305967427921</v>
       </c>
       <c r="G158">
         <v>-0.05019011596290879</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.638457637478357</v>
+        <v>-3.639932681903296</v>
       </c>
       <c r="G159">
         <v>-0.08785050138271933</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.638303590058572</v>
+        <v>-3.638739201579023</v>
       </c>
       <c r="G160">
         <v>-0.1180206597138658</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.598020006570197</v>
+        <v>-3.602688293622485</v>
       </c>
       <c r="G162">
         <v>-0.1383854877273547</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.565614065508304</v>
+        <v>-3.570561774151418</v>
       </c>
       <c r="G163">
         <v>-0.1363037524163933</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.5231967724794</v>
+        <v>-3.523288573677846</v>
       </c>
       <c r="G164">
         <v>-0.1242106651384216</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.398993708925659</v>
+        <v>-3.40014629304635</v>
       </c>
       <c r="G166">
         <v>-0.06065601308654445</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.652878083553533</v>
+        <v>-3.653846701045347</v>
       </c>
       <c r="G171">
         <v>-0.1152946218235815</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.615687532875554</v>
+        <v>-3.618224206723761</v>
       </c>
       <c r="G173">
         <v>-0.1390833100246467</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.582547256883835</v>
+        <v>-3.582565485642089</v>
       </c>
       <c r="G174">
         <v>-0.1364076003751298</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.480809191737441</v>
+        <v>-3.481473337760865</v>
       </c>
       <c r="G176">
         <v>-0.09564877410777939</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.413430732084352</v>
+        <v>-3.414439095769947</v>
       </c>
       <c r="G177">
         <v>-0.0587348807968921</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.660130735864406</v>
+        <v>-3.660211462224339</v>
       </c>
       <c r="G180">
         <v>-0.04776724345378502</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.662724119956921</v>
+        <v>-3.664177105565324</v>
       </c>
       <c r="G182">
         <v>-0.1115310193241941</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.647216305867976</v>
+        <v>-3.650791699369308</v>
       </c>
       <c r="G183">
         <v>-0.1266475627066397</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.545370771802444</v>
+        <v>-3.546589553977225</v>
       </c>
       <c r="G186">
         <v>-0.1165967778903929</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.491218442583283</v>
+        <v>-3.491913827901804</v>
       </c>
       <c r="G187">
         <v>-0.09302964456017793</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.425039623821743</v>
+        <v>-3.425896289784562</v>
       </c>
       <c r="G188">
         <v>-0.05743602168758505</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.672303053705058</v>
+        <v>-3.672907202617076</v>
       </c>
       <c r="G191">
         <v>-0.04740887687486817</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.677074764366859</v>
+        <v>-3.679459286447214</v>
       </c>
       <c r="G192">
         <v>-0.08288062108754835</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.674019828331492</v>
+        <v>-3.674319265515693</v>
       </c>
       <c r="G193">
         <v>-0.110525718603061</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.660236792758037</v>
+        <v>-3.661415195237005</v>
       </c>
       <c r="G194">
         <v>-0.1274427165804859</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.635132273212591</v>
+        <v>-3.637584380543003</v>
       </c>
       <c r="G195">
         <v>-0.1330382305859201</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.599108604685937</v>
+        <v>-3.60213297547393</v>
       </c>
       <c r="G196">
         <v>-0.1277145956101458</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.556160635722026</v>
+        <v>-3.556561381711564</v>
       </c>
       <c r="G197">
         <v>-0.115466660197115</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.500802644217519</v>
+        <v>-3.501104921957951</v>
       </c>
       <c r="G198">
         <v>-0.09080870224348736</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.435960394796842</v>
+        <v>-3.436297411727539</v>
       </c>
       <c r="G199">
         <v>-0.05666648637369093</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.681571038988216</v>
+        <v>-3.682128376707835</v>
       </c>
       <c r="G202">
         <v>-0.04642998948722621</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.686148859551907</v>
+        <v>-3.687535923126708</v>
       </c>
       <c r="G203">
         <v>-0.08181029892826874</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.683057083583522</v>
+        <v>-3.683780518249396</v>
       </c>
       <c r="G204">
         <v>-0.1094957638955325</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.667570942964232</v>
+        <v>-3.667949197147848</v>
       </c>
       <c r="G205">
         <v>-0.1248121121535948</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.640267692695299</v>
+        <v>-3.643349315096021</v>
       </c>
       <c r="G206">
         <v>-0.1282861028203099</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.508122231032761</v>
+        <v>-3.508693314253891</v>
       </c>
       <c r="G209">
         <v>-0.08852285984812369</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.44452438992013</v>
+        <v>-3.445331569455059</v>
       </c>
       <c r="G210">
         <v>-0.05570225967114162</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.036088916670467</v>
+        <v>-3.037240239421788</v>
       </c>
       <c r="G20">
         <v>-0.07291786383376309</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.174566334626995</v>
+        <v>-3.175976411261993</v>
       </c>
       <c r="G37">
         <v>-0.2551686382646965</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.173178683114247</v>
+        <v>-3.188581963955284</v>
       </c>
       <c r="G40">
         <v>-0.2757806154931308</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.191373738218049</v>
+        <v>-3.192783814853047</v>
       </c>
       <c r="G41">
         <v>-0.2987315791566776</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.174008774336659</v>
+        <v>-3.187131600543091</v>
       </c>
       <c r="G49">
         <v>-0.3271201148070575</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.170914069050793</v>
+        <v>-3.176554375590789</v>
       </c>
       <c r="G50">
         <v>-0.2974350577634719</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.165324566640283</v>
+        <v>-3.197541204957354</v>
       </c>
       <c r="G52">
         <v>-0.3263619609614694</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.403462648016482</v>
+        <v>-3.409001472258782</v>
       </c>
       <c r="G92">
         <v>-0.07433875954806313</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.428779909822958</v>
+        <v>-3.431447279120388</v>
       </c>
       <c r="G93">
         <v>-0.1331885038634559</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.380209903762774</v>
+        <v>-3.384650183693844</v>
       </c>
       <c r="G97">
         <v>-0.1991572803504555</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.506948841736214</v>
+        <v>-3.508423163598742</v>
       </c>
       <c r="G104">
         <v>-0.1288510338171474</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.511793772955028</v>
+        <v>-3.520354655212929</v>
       </c>
       <c r="G105">
         <v>-0.149708992527958</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.482863411205783</v>
+        <v>-3.483718998858228</v>
       </c>
       <c r="G107">
         <v>-0.1885144355436528</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.443640925868633</v>
+        <v>-3.443997311101223</v>
       </c>
       <c r="G108">
         <v>-0.1770038063272512</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.390580378189961</v>
+        <v>-3.393136251082553</v>
       </c>
       <c r="G109">
         <v>-0.1490312698957987</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.326341296617284</v>
+        <v>-3.330393030492546</v>
       </c>
       <c r="G110">
         <v>-0.1213867826438577</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.253807200636091</v>
+        <v>-3.254744383637558</v>
       </c>
       <c r="G111">
         <v>-0.07723599220283534</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.523966434901569</v>
+        <v>-3.526048658719098</v>
       </c>
       <c r="G114">
         <v>-0.05907064782498628</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.55029254616861</v>
+        <v>-3.55085594255098</v>
       </c>
       <c r="G116">
         <v>-0.1411745478440865</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.431651437861417</v>
+        <v>-3.433499395317126</v>
       </c>
       <c r="G120">
         <v>-0.1454691899057448</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.372384850820371</v>
+        <v>-3.375305298264624</v>
       </c>
       <c r="G121">
         <v>-0.1172439919136746</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.56450831140762</v>
+        <v>-3.565346873152616</v>
       </c>
       <c r="G125">
         <v>-0.06019263942610431</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.550782874948943</v>
+        <v>-3.551555414150517</v>
       </c>
       <c r="G129">
         <v>-0.1629516723647357</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.406829592405015</v>
+        <v>-3.408216689634909</v>
       </c>
       <c r="G132">
         <v>-0.1089810688405453</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.334430086819109</v>
+        <v>-3.336265366012966</v>
       </c>
       <c r="G133">
         <v>-0.06620130524321777</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.602631295799541</v>
+        <v>-3.602709597914989</v>
       </c>
       <c r="G137">
         <v>-0.09776816367480157</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.591832354253244</v>
+        <v>-3.592325915648058</v>
       </c>
       <c r="G139">
         <v>-0.1395334839538145</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.566919274564132</v>
+        <v>-3.568258363703474</v>
       </c>
       <c r="G140">
         <v>-0.1491462269118982</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.534303096331451</v>
+        <v>-3.535641379663174</v>
       </c>
       <c r="G141">
         <v>-0.1491975212228203</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.488656776629619</v>
+        <v>-3.48912443673977</v>
       </c>
       <c r="G142">
         <v>-0.13224724528453</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.43181513102972</v>
+        <v>-3.433054254420542</v>
       </c>
       <c r="G143">
         <v>-0.1065657387436456</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.361693720787636</v>
+        <v>-3.363128458234246</v>
       </c>
       <c r="G144">
         <v>-0.06608817067816775</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.614620966770244</v>
+        <v>-3.615748582406905</v>
       </c>
       <c r="G147">
         <v>-0.0533571546570073</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.611445529703895</v>
+        <v>-3.618119031932657</v>
       </c>
       <c r="G150">
         <v>-0.140378626405143</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.509118804928575</v>
+        <v>-3.510311108975446</v>
       </c>
       <c r="G153">
         <v>-0.128799159785925</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.452111825512828</v>
+        <v>-3.452747943689308</v>
       </c>
       <c r="G154">
         <v>-0.09977431921320468</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.632305967427921</v>
+        <v>-3.632467260767711</v>
       </c>
       <c r="G158">
         <v>-0.05019011596290879</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.639932681903296</v>
+        <v>-3.641458522581595</v>
       </c>
       <c r="G159">
         <v>-0.08785050138271933</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.468080635602809</v>
+        <v>-3.468938907594386</v>
       </c>
       <c r="G165">
         <v>-0.09941873401276191</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.648078892134802</v>
+        <v>-3.648391487589181</v>
       </c>
       <c r="G169">
         <v>-0.04956629772044829</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.65471663296441</v>
+        <v>-3.657320573210673</v>
       </c>
       <c r="G170">
         <v>-0.08666860489225714</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.640886150698731</v>
+        <v>-3.641387127780041</v>
       </c>
       <c r="G172">
         <v>-0.1338173615056224</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.618224206723761</v>
+        <v>-3.618431639756108</v>
       </c>
       <c r="G173">
         <v>-0.1390833100246467</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.582565485642089</v>
+        <v>-3.584254477557093</v>
       </c>
       <c r="G174">
         <v>-0.1364076003751298</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.414439095769947</v>
+        <v>-3.415184877148603</v>
       </c>
       <c r="G177">
         <v>-0.0587348807968921</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.660211462224339</v>
+        <v>-3.661125053952788</v>
       </c>
       <c r="G180">
         <v>-0.04776724345378502</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.62485256912884</v>
+        <v>-3.626774638155542</v>
       </c>
       <c r="G184">
         <v>-0.1348690218564512</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.674319265515693</v>
+        <v>-3.675233466664342</v>
       </c>
       <c r="G193">
         <v>-0.110525718603061</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.667949197147848</v>
+        <v>-3.669441787289613</v>
       </c>
       <c r="G205">
         <v>-0.1248121121535948</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.608143608162343</v>
+        <v>-3.609050371530328</v>
       </c>
       <c r="G207">
         <v>-0.1269645071647052</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.160550705298704</v>
+        <v>-3.161960781933703</v>
       </c>
       <c r="G34">
         <v>-0.254111492033354</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.164752556196468</v>
+        <v>-3.166162632831467</v>
       </c>
       <c r="G35">
         <v>-0.2468800990057991</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.177358108889759</v>
+        <v>-3.178121789665747</v>
       </c>
       <c r="G38">
         <v>-0.2867990432872758</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.181559959787522</v>
+        <v>-3.184380113057521</v>
       </c>
       <c r="G39">
         <v>-0.2837978801647165</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.195575589115813</v>
+        <v>-3.196985665750812</v>
       </c>
       <c r="G42">
         <v>-0.306903466970158</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.182178210893511</v>
+        <v>-3.201187516648575</v>
       </c>
       <c r="G43">
         <v>-0.3113500517709535</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.183159685670903</v>
+        <v>-3.205389367546339</v>
       </c>
       <c r="G44">
         <v>-0.3028278602070547</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.184964031271296</v>
+        <v>-3.216556464597398</v>
       </c>
       <c r="G48">
         <v>-0.3326952581909794</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.187131600543091</v>
+        <v>-3.190575958804059</v>
       </c>
       <c r="G49">
         <v>-0.3271201148070575</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.176554375590789</v>
+        <v>-3.187103221535859</v>
       </c>
       <c r="G50">
         <v>-0.2974350577634719</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.16670626426805</v>
+        <v>-3.180699468474087</v>
       </c>
       <c r="G53">
         <v>-0.3161810377220777</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.138606339827043</v>
+        <v>-3.155419697303079</v>
       </c>
       <c r="G57">
         <v>-0.3052545415121402</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.314660256527335</v>
+        <v>-3.320804007335938</v>
       </c>
       <c r="G81">
         <v>-0.1015295324536907</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.35733023067796</v>
+        <v>-3.361833447644869</v>
       </c>
       <c r="G82">
         <v>-0.1733899233202187</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.374424450610687</v>
+        <v>-3.376474829882223</v>
       </c>
       <c r="G83">
         <v>-0.2183358938484998</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.33681118517157</v>
+        <v>-3.3370655349794</v>
       </c>
       <c r="G85">
         <v>-0.2351163441879243</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.238807390983804</v>
+        <v>-3.241838972347475</v>
       </c>
       <c r="G87">
         <v>-0.192484112494011</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.166436068057369</v>
+        <v>-3.166608013075078</v>
       </c>
       <c r="G88">
         <v>-0.1503503571742371</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.431447279120388</v>
+        <v>-3.43911252864328</v>
       </c>
       <c r="G93">
         <v>-0.1331885038634559</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.274345801950522</v>
+        <v>-3.278502416014376</v>
       </c>
       <c r="G99">
         <v>-0.1444453728907146</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.483718998858228</v>
+        <v>-3.485295511903248</v>
       </c>
       <c r="G107">
         <v>-0.1885144355436528</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.443997311101223</v>
+        <v>-3.44478978158482</v>
       </c>
       <c r="G108">
         <v>-0.1770038063272512</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.330393030492546</v>
+        <v>-3.330813995624236</v>
       </c>
       <c r="G110">
         <v>-0.1213867826438577</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.254744383637558</v>
+        <v>-3.255608016254619</v>
       </c>
       <c r="G111">
         <v>-0.07723599220283534</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.518510701689311</v>
+        <v>-3.518918828605665</v>
       </c>
       <c r="G118">
         <v>-0.1753640068312985</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.433499395317126</v>
+        <v>-3.434275912249621</v>
       </c>
       <c r="G120">
         <v>-0.1454691899057448</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.551555414150517</v>
+        <v>-3.552251047350676</v>
       </c>
       <c r="G129">
         <v>-0.1629516723647357</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.602709597914989</v>
+        <v>-3.604893142865736</v>
       </c>
       <c r="G137">
         <v>-0.09776816367480157</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.604199530225025</v>
+        <v>-3.607889149924412</v>
       </c>
       <c r="G138">
         <v>-0.1252627668928459</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.592325915648058</v>
+        <v>-3.596806518493822</v>
       </c>
       <c r="G139">
         <v>-0.1395334839538145</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.568258363703474</v>
+        <v>-3.569184181595075</v>
       </c>
       <c r="G140">
         <v>-0.1491462269118982</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.535641379663174</v>
+        <v>-3.536419451436262</v>
       </c>
       <c r="G141">
         <v>-0.1491975212228203</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.48912443673977</v>
+        <v>-3.489150396009545</v>
       </c>
       <c r="G142">
         <v>-0.13224724528453</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.363128458234246</v>
+        <v>-3.364608870239705</v>
       </c>
       <c r="G144">
         <v>-0.06608817067816775</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.615748582406905</v>
+        <v>-3.617589867200584</v>
       </c>
       <c r="G147">
         <v>-0.0533571546570073</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.62350044661586</v>
+        <v>-3.624655280125956</v>
       </c>
       <c r="G148">
         <v>-0.09245992866772346</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.58999550577496</v>
+        <v>-3.590136156912799</v>
       </c>
       <c r="G151">
         <v>-0.1494707349800919</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.452747943689308</v>
+        <v>-3.453243361829357</v>
       </c>
       <c r="G154">
         <v>-0.09977431921320468</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.632467260767711</v>
+        <v>-3.632600993004166</v>
       </c>
       <c r="G158">
         <v>-0.05019011596290879</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.641458522581595</v>
+        <v>-3.642638051721088</v>
       </c>
       <c r="G159">
         <v>-0.08785050138271933</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.638739201579023</v>
+        <v>-3.639368617781685</v>
       </c>
       <c r="G160">
         <v>-0.1180206597138658</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.624442406115453</v>
+        <v>-3.629048546142379</v>
       </c>
       <c r="G161">
         <v>-0.1344836815216794</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.602688293622485</v>
+        <v>-3.603530931925687</v>
       </c>
       <c r="G162">
         <v>-0.1383854877273547</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.40014629304635</v>
+        <v>-3.400228952407928</v>
       </c>
       <c r="G166">
         <v>-0.06065601308654445</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.648391487589181</v>
+        <v>-3.648616127823166</v>
       </c>
       <c r="G169">
         <v>-0.04956629772044829</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.641387127780041</v>
+        <v>-3.643521795797566</v>
       </c>
       <c r="G172">
         <v>-0.1338173615056224</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.537279765728142</v>
+        <v>-3.538632523183368</v>
       </c>
       <c r="G175">
         <v>-0.1216547817562792</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.661125053952788</v>
+        <v>-3.662109141693795</v>
       </c>
       <c r="G180">
         <v>-0.04776724345378502</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.664177105565324</v>
+        <v>-3.664247735708846</v>
       </c>
       <c r="G182">
         <v>-0.1115310193241941</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.491913827901804</v>
+        <v>-3.492132144394738</v>
       </c>
       <c r="G187">
         <v>-0.09302964456017793</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.672907202617076</v>
+        <v>-3.672940893973359</v>
       </c>
       <c r="G191">
         <v>-0.04740887687486817</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.675233466664342</v>
+        <v>-3.675257212303423</v>
       </c>
       <c r="G193">
         <v>-0.110525718603061</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.556561381711564</v>
+        <v>-3.557315142814651</v>
       </c>
       <c r="G197">
         <v>-0.115466660197115</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.436297411727539</v>
+        <v>-3.436488095947585</v>
       </c>
       <c r="G199">
         <v>-0.05666648637369093</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.682128376707835</v>
+        <v>-3.682169032005127</v>
       </c>
       <c r="G202">
         <v>-0.04642998948722621</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.687535923126708</v>
+        <v>-3.687827829873812</v>
       </c>
       <c r="G203">
         <v>-0.08181029892826874</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.683780518249396</v>
+        <v>-3.684077120514287</v>
       </c>
       <c r="G204">
         <v>-0.1094957638955325</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.643349315096021</v>
+        <v>-3.643377545314912</v>
       </c>
       <c r="G206">
         <v>-0.1282861028203099</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.609050371530328</v>
+        <v>-3.609640251107101</v>
       </c>
       <c r="G207">
         <v>-0.1269645071647052</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.563642348618146</v>
+        <v>-3.5645668228519</v>
       </c>
       <c r="G208">
         <v>-0.1132404885561566</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.445331569455059</v>
+        <v>-3.44543562399414</v>
       </c>
       <c r="G210">
         <v>-0.05570225967114162</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.178121789665747</v>
+        <v>-3.180178262159758</v>
       </c>
       <c r="G38">
         <v>-0.2867990432872758</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.192783814853047</v>
+        <v>-3.194193891488047</v>
       </c>
       <c r="G41">
         <v>-0.2987315791566776</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.165267808625817</v>
+        <v>-3.165384604692615</v>
       </c>
       <c r="G54">
         <v>-0.3228260528337623</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.168059582888583</v>
+        <v>-3.169469659523581</v>
       </c>
       <c r="G55">
         <v>-0.3113644299012097</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.376474829882223</v>
+        <v>-3.376562151125205</v>
       </c>
       <c r="G83">
         <v>-0.2183358938484998</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.292872699282523</v>
+        <v>-3.293998681415887</v>
       </c>
       <c r="G86">
         <v>-0.2181336814177519</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.3374858791792</v>
+        <v>-3.338244554132642</v>
       </c>
       <c r="G98">
         <v>-0.1862113399738525</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.393136251082553</v>
+        <v>-3.397365948511982</v>
       </c>
       <c r="G109">
         <v>-0.1490312698957987</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.255608016254619</v>
+        <v>-3.255867728281398</v>
       </c>
       <c r="G111">
         <v>-0.07723599220283534</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.375305298264624</v>
+        <v>-3.377453738614165</v>
       </c>
       <c r="G121">
         <v>-0.1172439919136746</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.624655280125956</v>
+        <v>-3.625031403024159</v>
       </c>
       <c r="G148">
         <v>-0.09245992866772346</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.555050621115603</v>
+        <v>-3.556480708183001</v>
       </c>
       <c r="G152">
         <v>-0.1444893291432214</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.639368617781685</v>
+        <v>-3.63945462708962</v>
       </c>
       <c r="G160">
         <v>-0.1180206597138658</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.523288573677846</v>
+        <v>-3.523700811804303</v>
       </c>
       <c r="G164">
         <v>-0.1242106651384216</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.653846701045347</v>
+        <v>-3.654307401676258</v>
       </c>
       <c r="G171">
         <v>-0.1152946218235815</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.668324326875366</v>
+        <v>-3.66865926011496</v>
       </c>
       <c r="G181">
         <v>-0.08654603035369357</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.546589553977225</v>
+        <v>-3.547188473009522</v>
       </c>
       <c r="G186">
         <v>-0.1165967778903929</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.425896289784562</v>
+        <v>-3.42604182507975</v>
       </c>
       <c r="G188">
         <v>-0.05743602168758505</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.661415195237005</v>
+        <v>-3.662320498658969</v>
       </c>
       <c r="G194">
         <v>-0.1274427165804859</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.637584380543003</v>
+        <v>-3.638213143949654</v>
       </c>
       <c r="G195">
         <v>-0.1330382305859201</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.557315142814651</v>
+        <v>-3.557593693353017</v>
       </c>
       <c r="G197">
         <v>-0.115466660197115</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.501104921957951</v>
+        <v>-3.501235843214238</v>
       </c>
       <c r="G198">
         <v>-0.09080870224348736</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.436488095947585</v>
+        <v>-3.436710890868265</v>
       </c>
       <c r="G199">
         <v>-0.05666648637369093</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.682169032005127</v>
+        <v>-3.682232371577479</v>
       </c>
       <c r="G202">
         <v>-0.04642998948722621</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.643377545314912</v>
+        <v>-3.645209398114662</v>
       </c>
       <c r="G206">
         <v>-0.1282861028203099</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.563241007546194</v>
+        <v>-2.563241007546191</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.108624468950438e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.791002561598759</v>
+        <v>-2.791002561598755</v>
       </c>
       <c r="G3">
-        <v>-0.244321964357729</v>
+        <v>-0.2443219643577255</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.771369396338343</v>
+        <v>-2.77136939633834</v>
       </c>
       <c r="G4">
-        <v>-0.241249209402477</v>
+        <v>-0.2412492094024747</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.751736231077926</v>
+        <v>-2.751736231077925</v>
       </c>
       <c r="G5">
-        <v>-0.2381764544472245</v>
+        <v>-0.2381764544472236</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.73210306581751</v>
+        <v>-2.732103065817509</v>
       </c>
       <c r="G6">
-        <v>-0.2351036994919729</v>
+        <v>-0.235103699491972</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.712469900557093</v>
       </c>
       <c r="G7">
-        <v>-0.2320309445367206</v>
+        <v>-0.2320309445367201</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.675549326555452</v>
+        <v>-2.675549326555451</v>
       </c>
       <c r="G8">
-        <v>-0.2116707808402436</v>
+        <v>-0.2116707808402423</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.638628752553811</v>
+        <v>-2.63862875255381</v>
       </c>
       <c r="G9">
-        <v>-0.1913106171437666</v>
+        <v>-0.1913106171437653</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.601708178552169</v>
       </c>
       <c r="G10">
-        <v>-0.1709504534472892</v>
+        <v>-0.1709504534472883</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.564787604550527</v>
+        <v>-2.564787604550525</v>
       </c>
       <c r="G11">
-        <v>-0.1505902897508115</v>
+        <v>-0.1505902897508092</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.51057962180766</v>
+        <v>-2.510579621807659</v>
       </c>
       <c r="G12">
-        <v>-0.1129427173131088</v>
+        <v>-0.1129427173131079</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.456371639064793</v>
+        <v>-2.456371639064792</v>
       </c>
       <c r="G13">
-        <v>-0.07529514487540584</v>
+        <v>-0.07529514487540451</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.402163656321926</v>
+        <v>-2.402163656321924</v>
       </c>
       <c r="G14">
-        <v>-0.03764757243770339</v>
+        <v>-0.03764757243770073</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.347955673579059</v>
+        <v>-2.347955673579055</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4.440892098500626e-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-2.977899877748247</v>
+        <v>-2.97789987774823</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.731947918415244e-14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.992734968166633</v>
+        <v>-2.992734968166618</v>
       </c>
       <c r="G17">
-        <v>-0.01880512733410189</v>
+        <v>-0.01880512733408768</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-3.007570058585018</v>
+        <v>-3.007570058585008</v>
       </c>
       <c r="G18">
-        <v>-0.03761025466820467</v>
+        <v>-0.03761025466819445</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-3.022405149003403</v>
+        <v>-3.022405149003395</v>
       </c>
       <c r="G19">
-        <v>-0.05641538200230611</v>
+        <v>-0.05641538200229768</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.037240239421788</v>
+        <v>-3.036088916670459</v>
       </c>
       <c r="G20">
-        <v>-0.07291786383376309</v>
+        <v>-0.07406918658507822</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.049772684337528</v>
+        <v>-3.049772684337527</v>
       </c>
       <c r="G21">
-        <v>-0.08942034566521784</v>
+        <v>-0.09172299116786276</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.062305129253268</v>
+        <v>-3.061153806501947</v>
       </c>
       <c r="G22">
-        <v>-0.1070741502479997</v>
+        <v>-0.1070741502479993</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.074837574169008</v>
+        <v>-3.073686251417683</v>
       </c>
       <c r="G23">
-        <v>-0.1192175140827989</v>
+        <v>-0.1235766320794518</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.086218696333427</v>
+        <v>-3.085067373582098</v>
       </c>
       <c r="G24">
-        <v>-0.1389277911595874</v>
+        <v>-0.1389277911595834</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.097599818497844</v>
+        <v>-3.096448495746513</v>
       </c>
       <c r="G25">
-        <v>-0.1542789502397226</v>
+        <v>-0.1542789502397146</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.107829617910937</v>
+        <v>-3.098852628033949</v>
       </c>
       <c r="G26">
-        <v>-0.1696301093198556</v>
+        <v>-0.1606531194428671</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.118059417324032</v>
+        <v>-3.110104373256528</v>
       </c>
       <c r="G27">
-        <v>-0.1747235788298434</v>
+        <v>-0.1758749015811634</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.128289216737126</v>
+        <v>-3.119182849918297</v>
       </c>
       <c r="G28">
-        <v>-0.1934119100971463</v>
+        <v>-0.1889234151586487</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.133901144269888</v>
+        <v>-3.133901144269894</v>
       </c>
       <c r="G29">
-        <v>-0.2076117464259557</v>
+        <v>-0.207611746425961</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.139513071802652</v>
+        <v>-3.139513071802656</v>
       </c>
       <c r="G30">
-        <v>-0.2171937108744366</v>
+        <v>-0.2171937108744402</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.145124999335415</v>
+        <v>-3.141787827148249</v>
       </c>
       <c r="G31">
-        <v>-0.2267756753229162</v>
+        <v>-0.2234385031357502</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.150736926868178</v>
+        <v>-3.150736926868183</v>
       </c>
       <c r="G32">
-        <v>-0.2209543589303578</v>
+        <v>-0.2363576397714007</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.15634885440094</v>
+        <v>-3.139535496924911</v>
       </c>
       <c r="G33">
-        <v>-0.2445295275848745</v>
+        <v>-0.2291262467438449</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.161960781933703</v>
+        <v>-3.161960781933707</v>
       </c>
       <c r="G34">
-        <v>-0.254111492033354</v>
+        <v>-0.2555215686683576</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.166162632831467</v>
+        <v>-3.164752556196476</v>
       </c>
       <c r="G35">
-        <v>-0.2468800990057991</v>
+        <v>-0.2622833798468429</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.17177456036423</v>
+        <v>-3.154961202888201</v>
       </c>
       <c r="G36">
-        <v>-0.2564620634542778</v>
+        <v>-0.2564620634542849</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.175976411261993</v>
+        <v>-3.159163053785965</v>
       </c>
       <c r="G37">
-        <v>-0.2551686382646965</v>
+        <v>-0.2646339512677645</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.180178262159758</v>
+        <v>-3.147185851041848</v>
       </c>
       <c r="G38">
-        <v>-0.2867990432872758</v>
+        <v>-0.2566267854393645</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.184380113057521</v>
+        <v>-3.167566755581493</v>
       </c>
       <c r="G39">
-        <v>-0.2837978801647165</v>
+        <v>-0.2809777268947262</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.188581963955284</v>
+        <v>-3.173178683114257</v>
       </c>
       <c r="G40">
-        <v>-0.2757806154931308</v>
+        <v>-0.2905596913432063</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.194193891488047</v>
+        <v>-3.18020068728202</v>
       </c>
       <c r="G41">
-        <v>-0.2987315791566776</v>
+        <v>-0.3015517324266861</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.196985665750812</v>
+        <v>-3.146135271629163</v>
       </c>
       <c r="G42">
-        <v>-0.306903466970158</v>
+        <v>-0.271456353689546</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.201187516648575</v>
+        <v>-3.150207745585087</v>
       </c>
       <c r="G43">
-        <v>-0.3113500517709535</v>
+        <v>-0.2794988645611864</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.205389367546339</v>
+        <v>-3.203979290911352</v>
       </c>
       <c r="G44">
-        <v>-0.3028278602070547</v>
+        <v>-0.3372404468031678</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.208181141809104</v>
+        <v>-3.191991989324053</v>
       </c>
       <c r="G45">
-        <v>-0.3425921813466375</v>
+        <v>-0.3292231821315852</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.192749481960834</v>
+        <v>-3.16538727853974</v>
       </c>
       <c r="G46">
-        <v>-0.3002766441138904</v>
+        <v>-0.3065885082629887</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.200395691119567</v>
+        <v>-3.167554847811537</v>
       </c>
       <c r="G47">
-        <v>-0.3273435236474962</v>
+        <v>-0.3127261144505018</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.216556464597398</v>
+        <v>-3.168936545439303</v>
       </c>
       <c r="G48">
-        <v>-0.3326952581909794</v>
+        <v>-0.3180778489939842</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.190575958804059</v>
+        <v>-3.172352524693039</v>
       </c>
       <c r="G49">
-        <v>-0.3271201148070575</v>
+        <v>-0.3254638651634369</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.187103221535859</v>
+        <v>-3.121871492382656</v>
       </c>
       <c r="G50">
-        <v>-0.2974350577634719</v>
+        <v>-0.2789528697687707</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.19333935405959</v>
+        <v>-3.177936073218566</v>
       </c>
       <c r="G51">
-        <v>-0.3221741300443512</v>
+        <v>-0.3389874875203973</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.197541204957354</v>
+        <v>-3.161327928868895</v>
       </c>
       <c r="G52">
-        <v>-0.3263619609614694</v>
+        <v>-0.3263493800864428</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.180699468474087</v>
+        <v>-3.145908849895664</v>
       </c>
       <c r="G53">
-        <v>-0.3161810377220777</v>
+        <v>-0.3149003380289286</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.165384604692615</v>
+        <v>-3.168087961895829</v>
       </c>
       <c r="G54">
-        <v>-0.3228260528337623</v>
+        <v>-0.3410494869448093</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.169469659523581</v>
+        <v>-3.152656302047558</v>
       </c>
       <c r="G55">
-        <v>-0.3113644299012097</v>
+        <v>-0.3295878640122554</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.154037999675312</v>
+        <v>-3.152627923040324</v>
       </c>
       <c r="G56">
-        <v>-0.3181262410796921</v>
+        <v>-0.3335295219207377</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.155419697303079</v>
+        <v>-3.138606339827056</v>
       </c>
       <c r="G57">
-        <v>-0.3052545415121402</v>
+        <v>-0.3234779756231858</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.139988037454809</v>
+        <v>-3.123174679978785</v>
       </c>
       <c r="G58">
-        <v>-0.3288297101666555</v>
+        <v>-0.3120163526906317</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.12455637760654</v>
+        <v>-3.124556377606552</v>
       </c>
       <c r="G59">
-        <v>-0.3173680872341036</v>
+        <v>-0.3173680872341156</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.105222655219373</v>
+        <v>-3.105222655219388</v>
       </c>
       <c r="G60">
-        <v>-0.3020044017626525</v>
+        <v>-0.3020044017626681</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.085888932832208</v>
+        <v>-3.085888932832222</v>
       </c>
       <c r="G61">
-        <v>-0.2866407162912042</v>
+        <v>-0.286640716291218</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.066555210445042</v>
+        <v>-3.066555210445055</v>
       </c>
       <c r="G62">
-        <v>-0.2712770308197544</v>
+        <v>-0.2712770308197677</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.047221488057876</v>
+        <v>-3.047221488057894</v>
       </c>
       <c r="G63">
-        <v>-0.2559133453483057</v>
+        <v>-0.255913345348323</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.027887765670709</v>
+        <v>-3.027887765670727</v>
       </c>
       <c r="G64">
-        <v>-0.2405496598768548</v>
+        <v>-0.2405496598768722</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.008554043283544</v>
+        <v>-3.008554043283559</v>
       </c>
       <c r="G65">
-        <v>-0.2251859744054057</v>
+        <v>-0.2251859744054212</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.989220320896378</v>
+        <v>-2.989220320896393</v>
       </c>
       <c r="G66">
-        <v>-0.2098222889339566</v>
+        <v>-0.2098222889339717</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.969886598509212</v>
+        <v>-2.969886598509232</v>
       </c>
       <c r="G67">
-        <v>-0.1944586034625075</v>
+        <v>-0.1944586034625271</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.950552876122046</v>
+        <v>-2.950552876122066</v>
       </c>
       <c r="G68">
-        <v>-0.1790949179910576</v>
+        <v>-0.1790949179910776</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.93121915373488</v>
+        <v>-2.931219153734898</v>
       </c>
       <c r="G69">
-        <v>-0.163731232519608</v>
+        <v>-0.1637312325196262</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.911885431347714</v>
+        <v>-2.911885431347734</v>
       </c>
       <c r="G70">
-        <v>-0.1483675470481589</v>
+        <v>-0.1483675470481789</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.892551708960548</v>
+        <v>-2.892551708960567</v>
       </c>
       <c r="G71">
-        <v>-0.1330038615767093</v>
+        <v>-0.133003861576728</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>56</v>
       </c>
       <c r="F72">
-        <v>-2.871956189347743</v>
+        <v>-2.871956189347763</v>
       </c>
       <c r="G72">
-        <v>-0.116378378879621</v>
+        <v>-0.1163783788796406</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>-2.851360669734937</v>
+        <v>-2.851360669734958</v>
       </c>
       <c r="G73">
-        <v>-0.0997528961825318</v>
+        <v>-0.09975289618255223</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>58</v>
       </c>
       <c r="F74">
-        <v>-2.830765150122133</v>
+        <v>-2.830765150122152</v>
       </c>
       <c r="G74">
-        <v>-0.08312741348544439</v>
+        <v>-0.08312741348546304</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>59</v>
       </c>
       <c r="F75">
-        <v>-2.810169630509328</v>
+        <v>-2.810169630509347</v>
       </c>
       <c r="G75">
-        <v>-0.06650193078835512</v>
+        <v>-0.06650193078837421</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>60</v>
       </c>
       <c r="F76">
-        <v>-2.789574110896522</v>
+        <v>-2.789574110896543</v>
       </c>
       <c r="G76">
-        <v>-0.04987644809126596</v>
+        <v>-0.04987644809128639</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>61</v>
       </c>
       <c r="F77">
-        <v>-2.768978591283717</v>
+        <v>-2.768978591283736</v>
       </c>
       <c r="G77">
-        <v>-0.03325096539417756</v>
+        <v>-0.03325096539419621</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>62</v>
       </c>
       <c r="F78">
-        <v>-2.748383071670911</v>
+        <v>-2.74838307167093</v>
       </c>
       <c r="G78">
-        <v>-0.01662548269708839</v>
+        <v>-0.0166254826971066</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>63</v>
       </c>
       <c r="F79">
-        <v>-2.727787552058107</v>
+        <v>-2.727787552058123</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>-1.643130076445232e-14</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-3.231273341370737</v>
+        <v>-3.231273341370725</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1.199040866595169e-14</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.320804007335938</v>
+        <v>-3.30125229830774</v>
       </c>
       <c r="G81">
-        <v>-0.1015295324536907</v>
+        <v>-0.09695955121346334</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.361833447644869</v>
+        <v>-3.349184687658532</v>
       </c>
       <c r="G82">
-        <v>-0.1733899233202187</v>
+        <v>-0.1718725348407162</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.376562151125205</v>
+        <v>-3.363811348571664</v>
       </c>
       <c r="G83">
-        <v>-0.2183358938484998</v>
+        <v>-0.2134797900303091</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-3.367895768396122</v>
+        <v>-3.363154385451329</v>
       </c>
       <c r="G84">
-        <v>-0.2413138665376673</v>
+        <v>-0.2398034211864344</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.3370655349794</v>
+        <v>-3.326721975769479</v>
       </c>
       <c r="G85">
-        <v>-0.2351163441879243</v>
+        <v>-0.2303516057810453</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.293998681415887</v>
+        <v>-3.289905564300284</v>
       </c>
       <c r="G86">
-        <v>-0.2181336814177519</v>
+        <v>-0.2205157885883109</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.241838972347475</v>
+        <v>-3.234422035938814</v>
       </c>
       <c r="G87">
-        <v>-0.192484112494011</v>
+        <v>-0.1920128545033025</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.166608013075078</v>
+        <v>-3.167813651338401</v>
       </c>
       <c r="G88">
-        <v>-0.1503503571742371</v>
+        <v>-0.1523850641793494</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.07771351810183</v>
+        <v>-3.079277791755563</v>
       </c>
       <c r="G89">
-        <v>-0.08573319751912833</v>
+        <v>-0.09082979887297238</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>171</v>
       </c>
       <c r="F90">
-        <v>-2.959880304825162</v>
+        <v>-2.959880304825194</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>-3.197442310920451e-14</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-3.347710124094492</v>
+        <v>-3.347710124094561</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>-6.927791673660977e-14</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.409001472258782</v>
+        <v>-3.392834008340357</v>
       </c>
       <c r="G92">
-        <v>-0.07433875954806313</v>
+        <v>-0.0728559668184503</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.43911252864328</v>
+        <v>-3.436625008870897</v>
       </c>
       <c r="G93">
-        <v>-0.1331885038634559</v>
+        <v>-0.1451493855485908</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.453235465287177</v>
+        <v>-3.441198014974935</v>
       </c>
       <c r="G94">
-        <v>-0.1706944316380099</v>
+        <v>-0.1774544742252142</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.448114041105835</v>
+        <v>-3.445377098781163</v>
       </c>
       <c r="G95">
-        <v>-0.2019046180409911</v>
+        <v>-0.2101359762310446</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.419097851479742</v>
+        <v>-3.41759354001667</v>
       </c>
       <c r="G96">
-        <v>-0.2115888115022082</v>
+        <v>-0.2100845000391358</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.384650183693844</v>
+        <v>-3.381485969428964</v>
       </c>
       <c r="G97">
-        <v>-0.1991572803504555</v>
+        <v>-0.202479347651032</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.338244554132642</v>
+        <v>-3.325417141990342</v>
       </c>
       <c r="G98">
-        <v>-0.1862113399738525</v>
+        <v>-0.1741426027849944</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.278502416014376</v>
+        <v>-3.280744370751781</v>
       </c>
       <c r="G99">
-        <v>-0.1444453728907146</v>
+        <v>-0.1579722497460351</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.191750915264256</v>
+        <v>-3.191750915264366</v>
       </c>
       <c r="G100">
-        <v>-0.09671087683109569</v>
+        <v>-0.09671087683120538</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>365</v>
       </c>
       <c r="F101">
-        <v>-3.066537620233559</v>
+        <v>-3.066537620233681</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>-1.221245327087672e-13</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-3.435812239234279</v>
+        <v>-3.43581223923481</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>-5.31574784190525e-13</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-3.484044852034426</v>
+        <v>-3.485383672066418</v>
       </c>
       <c r="G103">
-        <v>-0.07337400561172025</v>
+        <v>-0.07821167694344799</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.508423163598742</v>
+        <v>-3.505516605646385</v>
       </c>
       <c r="G104">
-        <v>-0.1288510338171474</v>
+        <v>-0.1274187977273185</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.520354655212929</v>
+        <v>-3.528158846742634</v>
       </c>
       <c r="G105">
-        <v>-0.149708992527958</v>
+        <v>-0.1787012829348771</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.510859999399067</v>
+        <v>-3.509693774689038</v>
       </c>
       <c r="G106">
-        <v>-0.1865073577400751</v>
+        <v>-0.1893103980851851</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.485295511903248</v>
+        <v>-3.488851581895191</v>
       </c>
       <c r="G107">
-        <v>-0.1885144355436528</v>
+        <v>-0.1971084494026472</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.44478978158482</v>
+        <v>-3.451751504425738</v>
       </c>
       <c r="G108">
-        <v>-0.1770038063272512</v>
+        <v>-0.1890825591370979</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.397365948511982</v>
+        <v>-3.398790361952063</v>
       </c>
       <c r="G109">
-        <v>-0.1490312698957987</v>
+        <v>-0.1647616607747315</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.330813995624236</v>
+        <v>-3.336397243247903</v>
       </c>
       <c r="G110">
-        <v>-0.1213867826438577</v>
+        <v>-0.1314427292744764</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.255867728281398</v>
+        <v>-3.25637929693488</v>
       </c>
       <c r="G111">
-        <v>-0.07723599220283534</v>
+        <v>-0.08006502707276159</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>665</v>
       </c>
       <c r="F112">
-        <v>-3.147240082658214</v>
+        <v>-3.147240082658058</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1.554312234475219e-13</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>-3.489556403758839</v>
+        <v>-3.489556403759594</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>-7.545075675352564e-13</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.526048658719098</v>
+        <v>-3.524102691990791</v>
       </c>
       <c r="G114">
-        <v>-0.05907064782498628</v>
+        <v>-0.06361488253102321</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.548204568862139</v>
+        <v>-3.551953768917729</v>
       </c>
       <c r="G115">
-        <v>-0.1170520380528104</v>
+        <v>-0.1208012381083998</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.55085594255098</v>
+        <v>-3.558645128505035</v>
       </c>
       <c r="G116">
-        <v>-0.1411745478440865</v>
+        <v>-0.1568278763461453</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.541638145036337</v>
+        <v>-3.556476755907696</v>
       </c>
       <c r="G117">
-        <v>-0.1623662326144535</v>
+        <v>-0.1839947823992438</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.518918828605665</v>
+        <v>-3.528966901947129</v>
       </c>
       <c r="G118">
-        <v>-0.1753640068312985</v>
+        <v>-0.1858202070891164</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.480636100333307</v>
+        <v>-3.481706409702534</v>
       </c>
       <c r="G119">
-        <v>-0.1661059670051483</v>
+        <v>-0.1678949934949596</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.434275912249621</v>
+        <v>-3.436929077921438</v>
       </c>
       <c r="G120">
-        <v>-0.1454691899057448</v>
+        <v>-0.1524529403643027</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.377453738614165</v>
+        <v>-3.380627167412335</v>
       </c>
       <c r="G121">
-        <v>-0.1172439919136746</v>
+        <v>-0.1254863085056389</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.304415182263253</v>
+        <v>-3.301843941523533</v>
       </c>
       <c r="G122">
-        <v>-0.07786211790991837</v>
+        <v>-0.0760383612672757</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>1099</v>
       </c>
       <c r="F123">
-        <v>-3.196470301605819</v>
+        <v>-3.196470301605968</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>-1.49213974509621e-13</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>-3.533873340988391</v>
+        <v>-3.533873340988846</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>-4.556355293061642e-13</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.565346873152616</v>
+        <v>-3.567150329794836</v>
       </c>
       <c r="G125">
-        <v>-0.06019263942610431</v>
+        <v>-0.06283465781332076</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.582113035184955</v>
+        <v>-3.592402502748274</v>
       </c>
       <c r="G126">
-        <v>-0.1037997119384535</v>
+        <v>-0.1178204382796277</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.584759037260379</v>
+        <v>-3.598956206381251</v>
       </c>
       <c r="G127">
-        <v>-0.1367251129724574</v>
+        <v>-0.154107749425473</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.576956417286147</v>
+        <v>-3.583877092616362</v>
       </c>
       <c r="G128">
-        <v>-0.1590277087007705</v>
+        <v>-0.1685863046674601</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.552251047350676</v>
+        <v>-3.563201433137166</v>
       </c>
       <c r="G129">
-        <v>-0.1629516723647357</v>
+        <v>-0.177644252701133</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.51683158513027</v>
+        <v>-3.520888997668727</v>
       </c>
       <c r="G130">
-        <v>-0.1575125503136807</v>
+        <v>-0.1650654247455627</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.46775189936583</v>
+        <v>-3.47162564919291</v>
       </c>
       <c r="G131">
-        <v>-0.1399180442316554</v>
+        <v>-0.1453597452766204</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.408216689634909</v>
+        <v>-3.413234474804152</v>
       </c>
       <c r="G132">
-        <v>-0.1089810688405453</v>
+        <v>-0.116702178400732</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.336265366012966</v>
+        <v>-3.335826423385702</v>
       </c>
       <c r="G133">
-        <v>-0.06620130524321777</v>
+        <v>-0.06902773449515109</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>1687</v>
       </c>
       <c r="F134">
-        <v>-3.237065081377683</v>
+        <v>-3.237065081378505</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>-8.220091274324659e-13</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>-3.564693760524187</v>
+        <v>-3.564693760524769</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>-5.81756864903582e-13</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.591117066158365</v>
+        <v>-3.593722075812217</v>
       </c>
       <c r="G136">
-        <v>-0.05523823864288691</v>
+        <v>-0.05888270216759084</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.604893142865736</v>
+        <v>-3.610873814800609</v>
       </c>
       <c r="G137">
-        <v>-0.09776816367480157</v>
+        <v>-0.1060106826758695</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.607889149924412</v>
+        <v>-3.617130967644443</v>
       </c>
       <c r="G138">
-        <v>-0.1252627668928459</v>
+        <v>-0.1422440770395883</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.596806518493822</v>
+        <v>-3.601329712825362</v>
       </c>
       <c r="G139">
-        <v>-0.1395334839538145</v>
+        <v>-0.1562972091000687</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.569184181595075</v>
+        <v>-3.583843877336907</v>
       </c>
       <c r="G140">
-        <v>-0.1491462269118982</v>
+        <v>-0.1687876151314995</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.536419451436262</v>
+        <v>-3.540535119411652</v>
       </c>
       <c r="G141">
-        <v>-0.1491975212228203</v>
+        <v>-0.1554550987261309</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.489150396009545</v>
+        <v>-3.490206734456077</v>
       </c>
       <c r="G142">
-        <v>-0.13224724528453</v>
+        <v>-0.1349811006501165</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.433054254420542</v>
+        <v>-3.436399287528165</v>
       </c>
       <c r="G143">
-        <v>-0.1065657387436456</v>
+        <v>-0.1111498952420904</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.364608870239705</v>
+        <v>-3.363222959917607</v>
       </c>
       <c r="G144">
-        <v>-0.06608817067816775</v>
+        <v>-0.06794980915141835</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>2457</v>
       </c>
       <c r="F145">
-        <v>-3.265296909246303</v>
+        <v>-3.265296909247503</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>-1.199929045014869e-12</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>-3.591296384614793</v>
+        <v>-3.591296384613464</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1.329159005081237e-12</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.617589867200584</v>
+        <v>-3.617849303141169</v>
       </c>
       <c r="G147">
-        <v>-0.0533571546570073</v>
+        <v>-0.05663686947527591</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.625031403024159</v>
+        <v>-3.635475490381431</v>
       </c>
       <c r="G148">
-        <v>-0.09245992866772346</v>
+        <v>-0.1044349724332938</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.626436992406192</v>
+        <v>-3.63789975381837</v>
       </c>
       <c r="G149">
-        <v>-0.1190817815068925</v>
+        <v>-0.1370311515879896</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.618119031932657</v>
+        <v>-3.628181098867575</v>
       </c>
       <c r="G150">
-        <v>-0.140378626405143</v>
+        <v>-0.1574844123549504</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.590136156912799</v>
+        <v>-3.604834318831892</v>
       </c>
       <c r="G151">
-        <v>-0.1494707349800919</v>
+        <v>-0.164309548037024</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.556480708183001</v>
+        <v>-3.563510954635187</v>
       </c>
       <c r="G152">
-        <v>-0.1444893291432214</v>
+        <v>-0.1531580995580752</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.510311108975446</v>
+        <v>-3.511684643069539</v>
       </c>
       <c r="G153">
-        <v>-0.128799159785925</v>
+        <v>-0.1315037037101827</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.453243361829357</v>
+        <v>-3.454607777439723</v>
       </c>
       <c r="G154">
-        <v>-0.09977431921320468</v>
+        <v>-0.104598753798124</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.382516414872092</v>
+        <v>-3.382936752164934</v>
       </c>
       <c r="G155">
-        <v>-0.06267930694824869</v>
+        <v>-0.06309964424109044</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>3429</v>
       </c>
       <c r="F156">
-        <v>-3.289665192206087</v>
+        <v>-3.289665192204814</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1.27320376464013e-12</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>-3.611255547597501</v>
+        <v>-3.611255547594426</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>3.074873689001834e-12</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.632600993004166</v>
+        <v>-3.636066245914215</v>
       </c>
       <c r="G158">
-        <v>-0.05019011596290879</v>
+        <v>-0.05513490406764587</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.642638051721088</v>
+        <v>-3.648771201750493</v>
       </c>
       <c r="G159">
-        <v>-0.08785050138271933</v>
+        <v>-0.09816406565485591</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.63945462708962</v>
+        <v>-3.650910311661273</v>
       </c>
       <c r="G160">
-        <v>-0.1180206597138658</v>
+        <v>-0.1306273813165673</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.629048546142379</v>
+        <v>-3.639289733972033</v>
       </c>
       <c r="G161">
-        <v>-0.1344836815216794</v>
+        <v>-0.1493310093782592</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.603530931925687</v>
+        <v>-3.612367353789732</v>
       </c>
       <c r="G162">
-        <v>-0.1383854877273547</v>
+        <v>-0.1527328349468895</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.570561774151418</v>
+        <v>-3.574646791147853</v>
       </c>
       <c r="G163">
-        <v>-0.1363037524163933</v>
+        <v>-0.145336478055943</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.523700811804303</v>
+        <v>-3.527229452368779</v>
       </c>
       <c r="G164">
-        <v>-0.1242106651384216</v>
+        <v>-0.1282433450277998</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.468938907594386</v>
+        <v>-3.471653954875039</v>
       </c>
       <c r="G165">
-        <v>-0.09941873401276191</v>
+        <v>-0.1029920532849922</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.400228952407928</v>
+        <v>-3.401870997600072</v>
       </c>
       <c r="G166">
-        <v>-0.06065601308654445</v>
+        <v>-0.06353330176095706</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>4631</v>
       </c>
       <c r="F167">
-        <v>-3.307947995043365</v>
+        <v>-3.307947995040268</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>3.096634060284487e-12</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>-3.628977160756556</v>
+        <v>-3.628977160755452</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>1.104005775687256e-12</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.648616127823166</v>
+        <v>-3.654252821988535</v>
       </c>
       <c r="G169">
-        <v>-0.04956629772044829</v>
+        <v>-0.05574022757418096</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.657320573210673</v>
+        <v>-3.66397441948254</v>
       </c>
       <c r="G170">
-        <v>-0.08666860489225714</v>
+        <v>-0.09592639141038717</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.654307401676258</v>
+        <v>-3.665675355172099</v>
       </c>
       <c r="G171">
-        <v>-0.1152946218235815</v>
+        <v>-0.1280918934421469</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.643521795797566</v>
+        <v>-3.651018535225889</v>
       </c>
       <c r="G172">
-        <v>-0.1338173615056224</v>
+        <v>-0.143949746032781</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.618431639756108</v>
+        <v>-3.62920732380493</v>
       </c>
       <c r="G173">
-        <v>-0.1390833100246467</v>
+        <v>-0.1526031009540225</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.584254477557093</v>
+        <v>-3.590936509107587</v>
       </c>
       <c r="G174">
-        <v>-0.1364076003751298</v>
+        <v>-0.1447968525988812</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.538632523183368</v>
+        <v>-3.541711234277605</v>
       </c>
       <c r="G175">
-        <v>-0.1216547817562792</v>
+        <v>-0.1260862503057423</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.481473337760865</v>
+        <v>-3.483825305572681</v>
       </c>
       <c r="G176">
-        <v>-0.09564877410777939</v>
+        <v>-0.09866488794301942</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.415184877148603</v>
+        <v>-3.415590294885105</v>
       </c>
       <c r="G177">
-        <v>-0.0587348807968921</v>
+        <v>-0.06089444359764501</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>6083</v>
       </c>
       <c r="F178">
-        <v>-3.324181178750617</v>
+        <v>-3.324181178747053</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>3.563371819836902e-12</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>-3.642948688299567</v>
+        <v>-3.642948688300346</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>-7.789324740770098e-13</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.662109141693795</v>
+        <v>-3.664838863974058</v>
       </c>
       <c r="G180">
-        <v>-0.04776724345378502</v>
+        <v>-0.05247537156343762</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.66865926011496</v>
+        <v>-3.674645406083787</v>
       </c>
       <c r="G181">
-        <v>-0.08654603035369357</v>
+        <v>-0.09286710956211364</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.664247735708846</v>
+        <v>-3.672574032102509</v>
       </c>
       <c r="G182">
-        <v>-0.1115310193241941</v>
+        <v>-0.1213809314697825</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.650791699369308</v>
+        <v>-3.657146068437153</v>
       </c>
       <c r="G183">
-        <v>-0.1266475627066397</v>
+        <v>-0.1365773252758169</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.626774638155542</v>
+        <v>-3.637343821420791</v>
       </c>
       <c r="G184">
-        <v>-0.1348690218564512</v>
+        <v>-0.1473602741484024</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.592944067915609</v>
+        <v>-3.597827627708394</v>
       </c>
       <c r="G185">
-        <v>-0.1335457165321667</v>
+        <v>-0.1384292763249513</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.547188473009522</v>
+        <v>-3.553055967151625</v>
       </c>
       <c r="G186">
-        <v>-0.1165967778903929</v>
+        <v>-0.1242819732395737</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.492132144394738</v>
+        <v>-3.493187050461247</v>
       </c>
       <c r="G187">
-        <v>-0.09302964456017793</v>
+        <v>-0.09499825243814208</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.42604182507975</v>
+        <v>-3.42704960701768</v>
       </c>
       <c r="G188">
-        <v>-0.05743602168758505</v>
+        <v>-0.05944600488352231</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>7813</v>
       </c>
       <c r="F189">
-        <v>-3.336979244662767</v>
+        <v>-3.336979244658423</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>4.344524739963163e-12</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>-3.655594210381071</v>
+        <v>-3.655594210382496</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>-1.425526363618701e-12</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.672940893973359</v>
+        <v>-3.676704525374014</v>
       </c>
       <c r="G191">
-        <v>-0.04740887687486817</v>
+        <v>-0.05181034854382416</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.679459286447214</v>
+        <v>-3.684664236983489</v>
       </c>
       <c r="G192">
-        <v>-0.08288062108754835</v>
+        <v>-0.09047009370417847</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.675257212303423</v>
+        <v>-3.682822018612373</v>
       </c>
       <c r="G193">
-        <v>-0.110525718603061</v>
+        <v>-0.1193279088839421</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.662320498658969</v>
+        <v>-3.669330891520856</v>
       </c>
       <c r="G194">
-        <v>-0.1274427165804859</v>
+        <v>-0.1365368153433049</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.638213143949654</v>
+        <v>-3.644041901536117</v>
       </c>
       <c r="G195">
-        <v>-0.1330382305859201</v>
+        <v>-0.1419478589094454</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.60213297547393</v>
+        <v>-3.60842191161936</v>
       </c>
       <c r="G196">
-        <v>-0.1277145956101458</v>
+        <v>-0.137027902543569</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.557593693353017</v>
+        <v>-3.561965752176421</v>
       </c>
       <c r="G197">
-        <v>-0.115466660197115</v>
+        <v>-0.1212717766515097</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.501235843214238</v>
+        <v>-3.503142789523109</v>
       </c>
       <c r="G198">
-        <v>-0.09080870224348736</v>
+        <v>-0.09314884754907737</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.436710890868265</v>
+        <v>-3.437502776930234</v>
       </c>
       <c r="G199">
-        <v>-0.05666648637369093</v>
+        <v>-0.05820886850708268</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>9841</v>
       </c>
       <c r="F200">
-        <v>-3.348562675651183</v>
+        <v>-3.348562675646026</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>5.157652083198627e-12</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>-3.665918290436639</v>
+        <v>-3.665918290433674</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>2.964739564959018e-12</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.682232371577479</v>
+        <v>-3.685092419572312</v>
       </c>
       <c r="G202">
-        <v>-0.04642998948722621</v>
+        <v>-0.04995137007132255</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.687827829873812</v>
+        <v>-3.69286396755504</v>
       </c>
       <c r="G203">
-        <v>-0.08181029892826874</v>
+        <v>-0.08852540693140165</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.684077120514287</v>
+        <v>-3.688727547378947</v>
       </c>
       <c r="G204">
-        <v>-0.1094957638955325</v>
+        <v>-0.1151662276909575</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.669441787289613</v>
+        <v>-3.674401820043802</v>
       </c>
       <c r="G205">
-        <v>-0.1248121121535948</v>
+        <v>-0.1316429892331645</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.645209398114662</v>
+        <v>-3.650324533055576</v>
       </c>
       <c r="G206">
-        <v>-0.1282861028203099</v>
+        <v>-0.1383429431805865</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.609640251107101</v>
+        <v>-3.614869480973823</v>
       </c>
       <c r="G207">
-        <v>-0.1269645071647052</v>
+        <v>-0.1336903799761855</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.5645668228519</v>
+        <v>-3.568593809348745</v>
       </c>
       <c r="G208">
-        <v>-0.1132404885561566</v>
+        <v>-0.1181919492867558</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.508693314253891</v>
+        <v>-3.510656764030751</v>
       </c>
       <c r="G209">
-        <v>-0.08852285984812369</v>
+        <v>-0.09105739284611414</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.44543562399414</v>
+        <v>-3.446394508240448</v>
       </c>
       <c r="G210">
-        <v>-0.05570225967114162</v>
+        <v>-0.05757237799145987</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>12195</v>
       </c>
       <c r="F211">
-        <v>-3.358019641371637</v>
+        <v>-3.358019641366265</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>5.371703082346357e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.036088916670459</v>
+        <v>-3.037240239421779</v>
       </c>
       <c r="G20">
         <v>-0.07406918658507822</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.061153806501947</v>
+        <v>-3.062305129253265</v>
       </c>
       <c r="G22">
         <v>-0.1070741502479993</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.098852628033949</v>
+        <v>-3.100133327727114</v>
       </c>
       <c r="G26">
         <v>-0.1606531194428671</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.139535496924911</v>
+        <v>-3.147488660590756</v>
       </c>
       <c r="G33">
         <v>-0.2291262467438449</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.154961202888201</v>
+        <v>-3.166768557658393</v>
       </c>
       <c r="G36">
         <v>-0.2564620634542849</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.159163053785965</v>
+        <v>-3.166986840509973</v>
       </c>
       <c r="G37">
         <v>-0.2646339512677645</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.147185851041848</v>
+        <v>-3.178121789665754</v>
       </c>
       <c r="G38">
         <v>-0.2566267854393645</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.167566755581493</v>
+        <v>-3.178727714492667</v>
       </c>
       <c r="G39">
         <v>-0.2809777268947262</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.173178683114257</v>
+        <v>-3.189086890847607</v>
       </c>
       <c r="G40">
         <v>-0.2905596913432063</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.146135271629163</v>
+        <v>-3.151612062211434</v>
       </c>
       <c r="G42">
         <v>-0.271456353689546</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.150207745585087</v>
+        <v>-3.176933566071869</v>
       </c>
       <c r="G43">
         <v>-0.2794988645611864</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.16538727853974</v>
+        <v>-3.186905737946059</v>
       </c>
       <c r="G46">
         <v>-0.3065885082629887</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.167554847811537</v>
+        <v>-3.177952125946729</v>
       </c>
       <c r="G47">
         <v>-0.3127261144505018</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.168936545439303</v>
+        <v>-3.178212174314628</v>
       </c>
       <c r="G48">
         <v>-0.3180778489939842</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.172352524693039</v>
+        <v>-3.176700416238692</v>
       </c>
       <c r="G49">
         <v>-0.3254638651634369</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.121871492382656</v>
+        <v>-3.163038048458731</v>
       </c>
       <c r="G50">
         <v>-0.2789528697687707</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.161327928868895</v>
+        <v>-3.179434566913131</v>
       </c>
       <c r="G52">
         <v>-0.3263493800864428</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.145908849895664</v>
+        <v>-3.154234476745204</v>
       </c>
       <c r="G53">
         <v>-0.3149003380289286</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.152656302047558</v>
+        <v>-3.161839726021661</v>
       </c>
       <c r="G55">
         <v>-0.3295878640122554</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.30125229830774</v>
+        <v>-3.314300246440736</v>
       </c>
       <c r="G81">
         <v>-0.09695955121346334</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.326721975769479</v>
+        <v>-3.336685814913305</v>
       </c>
       <c r="G85">
         <v>-0.2303516057810453</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.234422035938814</v>
+        <v>-3.238388281621968</v>
       </c>
       <c r="G87">
         <v>-0.1920128545033025</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.167813651338401</v>
+        <v>-3.170137997571151</v>
       </c>
       <c r="G88">
         <v>-0.1523850641793494</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.079277791755563</v>
+        <v>-3.079341127588406</v>
       </c>
       <c r="G89">
         <v>-0.09082979887297238</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.392834008340357</v>
+        <v>-3.400957124031009</v>
       </c>
       <c r="G92">
         <v>-0.0728559668184503</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.441198014974935</v>
+        <v>-3.44475366772961</v>
       </c>
       <c r="G94">
         <v>-0.1774544742252142</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.445377098781163</v>
+        <v>-3.446981877464456</v>
       </c>
       <c r="G95">
         <v>-0.2101359762310446</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.41759354001667</v>
+        <v>-3.427035522429484</v>
       </c>
       <c r="G96">
         <v>-0.2100845000391358</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.381485969428964</v>
+        <v>-3.388681069861232</v>
       </c>
       <c r="G97">
         <v>-0.202479347651032</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.325417141990342</v>
+        <v>-3.34719642309861</v>
       </c>
       <c r="G98">
         <v>-0.1741426027849944</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.505516605646385</v>
+        <v>-3.50886494137496</v>
       </c>
       <c r="G104">
         <v>-0.1274187977273185</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.509693774689038</v>
+        <v>-3.512105776710649</v>
       </c>
       <c r="G106">
         <v>-0.1893103980851851</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.488851581895191</v>
+        <v>-3.489116622696817</v>
       </c>
       <c r="G107">
         <v>-0.1971084494026472</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.451751504425738</v>
+        <v>-3.455432132214432</v>
       </c>
       <c r="G108">
         <v>-0.1890825591370979</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.398790361952063</v>
+        <v>-3.403021966738486</v>
       </c>
       <c r="G109">
         <v>-0.1647616607747315</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.524102691990791</v>
+        <v>-3.526000278900787</v>
       </c>
       <c r="G114">
         <v>-0.06361488253102321</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.528966901947129</v>
+        <v>-3.531048261035067</v>
       </c>
       <c r="G118">
         <v>-0.1858202070891164</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.481706409702534</v>
+        <v>-3.490412192081617</v>
       </c>
       <c r="G119">
         <v>-0.1678949934949596</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.436929077921438</v>
+        <v>-3.441504662442166</v>
       </c>
       <c r="G120">
         <v>-0.1524529403643027</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.567150329794836</v>
+        <v>-3.56816085410785</v>
       </c>
       <c r="G125">
         <v>-0.06283465781332076</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.593722075812217</v>
+        <v>-3.595040559483012</v>
       </c>
       <c r="G136">
         <v>-0.05888270216759084</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.610873814800609</v>
+        <v>-3.612148631224381</v>
       </c>
       <c r="G137">
         <v>-0.1060106826758695</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.490206734456077</v>
+        <v>-3.490481781365247</v>
       </c>
       <c r="G142">
         <v>-0.1349811006501165</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.617849303141169</v>
+        <v>-3.62059439912723</v>
       </c>
       <c r="G147">
         <v>-0.05663686947527591</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.636066245914215</v>
+        <v>-3.637767903514832</v>
       </c>
       <c r="G158">
         <v>-0.05513490406764587</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.096448495746513</v>
+        <v>-3.097599818497843</v>
       </c>
       <c r="G25">
         <v>-0.1542789502397146</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.166986840509973</v>
+        <v>-3.170194635755308</v>
       </c>
       <c r="G37">
         <v>-0.2646339512677645</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.178121789665754</v>
+        <v>-3.179402489358915</v>
       </c>
       <c r="G38">
         <v>-0.2566267854393645</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.18020068728202</v>
+        <v>-3.185591962711366</v>
       </c>
       <c r="G41">
         <v>-0.3015517324266861</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.151612062211434</v>
+        <v>-3.160594113937637</v>
       </c>
       <c r="G42">
         <v>-0.271456353689546</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.455432132214432</v>
+        <v>-3.458952283996175</v>
       </c>
       <c r="G108">
         <v>-0.1890825591370979</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.526000278900787</v>
+        <v>-3.526880257775867</v>
       </c>
       <c r="G114">
         <v>-0.06361488253102321</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.558645128505035</v>
+        <v>-3.559866867838335</v>
       </c>
       <c r="G116">
         <v>-0.1568278763461453</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.490412192081617</v>
+        <v>-3.491822583650471</v>
       </c>
       <c r="G119">
         <v>-0.1678949934949596</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.47162564919291</v>
+        <v>-3.471643623225016</v>
       </c>
       <c r="G131">
         <v>-0.1453597452766204</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-2.563241007546191</v>
       </c>
       <c r="G2">
-        <v>3.108624468950438e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.791002561598755</v>
       </c>
       <c r="G3">
-        <v>-0.2443219643577255</v>
+        <v>-0.2443219643577286</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.77136939633834</v>
       </c>
       <c r="G4">
-        <v>-0.2412492094024747</v>
+        <v>-0.2412492094024783</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.751736231077925</v>
       </c>
       <c r="G5">
-        <v>-0.2381764544472236</v>
+        <v>-0.2381764544472269</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.732103065817509</v>
       </c>
       <c r="G6">
-        <v>-0.235103699491972</v>
+        <v>-0.2351036994919748</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.712469900557093</v>
       </c>
       <c r="G7">
-        <v>-0.2320309445367201</v>
+        <v>-0.2320309445367235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.675549326555451</v>
       </c>
       <c r="G8">
-        <v>-0.2116707808402423</v>
+        <v>-0.211670780840246</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.63862875255381</v>
       </c>
       <c r="G9">
-        <v>-0.1913106171437653</v>
+        <v>-0.1913106171437691</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.601708178552169</v>
       </c>
       <c r="G10">
-        <v>-0.1709504534472883</v>
+        <v>-0.1709504534472922</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.564787604550525</v>
       </c>
       <c r="G11">
-        <v>-0.1505902897508092</v>
+        <v>-0.1505902897508132</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.510579621807659</v>
       </c>
       <c r="G12">
-        <v>-0.1129427173131079</v>
+        <v>-0.1129427173131119</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.456371639064792</v>
       </c>
       <c r="G13">
-        <v>-0.07529514487540451</v>
+        <v>-0.07529514487540873</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.402163656321924</v>
       </c>
       <c r="G14">
-        <v>-0.03764757243770073</v>
+        <v>-0.03764757243770497</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.347955673579055</v>
       </c>
       <c r="G15">
-        <v>4.440892098500626e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-2.97789987774823</v>
       </c>
       <c r="G16">
-        <v>1.731947918415244e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.992734968166618</v>
       </c>
       <c r="G17">
-        <v>-0.01880512733408768</v>
+        <v>-0.018805127334105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-3.007570058585008</v>
       </c>
       <c r="G18">
-        <v>-0.03761025466819445</v>
+        <v>-0.03761025466821044</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-3.022405149003395</v>
       </c>
       <c r="G19">
-        <v>-0.05641538200229768</v>
+        <v>-0.05641538200231366</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-3.037240239421779</v>
+        <v>-3.037240239421783</v>
       </c>
       <c r="G20">
-        <v>-0.07406918658507822</v>
+        <v>-0.07522050933641733</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-3.049772684337527</v>
+        <v>-3.049772684337525</v>
       </c>
       <c r="G21">
-        <v>-0.09172299116786276</v>
+        <v>-0.09172299116787563</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.062305129253265</v>
+        <v>-3.057946011256606</v>
       </c>
       <c r="G22">
-        <v>-0.1070741502479993</v>
+        <v>-0.1038663550026717</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.073686251417683</v>
+        <v>-3.07047845617235</v>
       </c>
       <c r="G23">
-        <v>-0.1235766320794518</v>
+        <v>-0.1203688368341322</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.085067373582098</v>
+        <v>-3.081859578336769</v>
       </c>
       <c r="G24">
-        <v>-0.1389277911595834</v>
+        <v>-0.135719995914267</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.097599818497843</v>
+        <v>-3.093111323559346</v>
       </c>
       <c r="G25">
-        <v>-0.1542789502397146</v>
+        <v>-0.1509417780525606</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.100133327727114</v>
+        <v>-3.095515455846777</v>
       </c>
       <c r="G26">
-        <v>-0.1606531194428671</v>
+        <v>-0.1573159472557069</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.110104373256528</v>
+        <v>-3.099329664769209</v>
       </c>
       <c r="G27">
-        <v>-0.1758749015811634</v>
+        <v>-0.1651001930938549</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.119182849918297</v>
+        <v>-3.1112278058508</v>
       </c>
       <c r="G28">
-        <v>-0.1889234151586487</v>
+        <v>-0.1809683710911627</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.133901144269894</v>
+        <v>-3.109272820141572</v>
       </c>
       <c r="G29">
-        <v>-0.207611746425961</v>
+        <v>-0.1829834222976494</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.139513071802656</v>
+        <v>-3.117575524002494</v>
       </c>
       <c r="G30">
-        <v>-0.2171937108744402</v>
+        <v>-0.1952561630742884</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.141787827148249</v>
+        <v>-3.123575093510595</v>
       </c>
       <c r="G31">
-        <v>-0.2234385031357502</v>
+        <v>-0.2052257694981048</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.150736926868183</v>
+        <v>-3.123424218554739</v>
       </c>
       <c r="G32">
-        <v>-0.2363576397714007</v>
+        <v>-0.2090449314579654</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.147488660590756</v>
+        <v>-3.137489236054106</v>
       </c>
       <c r="G33">
-        <v>-0.2291262467438449</v>
+        <v>-0.2270799858730483</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.161960781933707</v>
+        <v>-3.144899371047375</v>
       </c>
       <c r="G34">
-        <v>-0.2555215686683576</v>
+        <v>-0.2384601577820331</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.164752556196476</v>
+        <v>-3.141769781238411</v>
       </c>
       <c r="G35">
-        <v>-0.2622833798468429</v>
+        <v>-0.2393006048887849</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.166768557658393</v>
+        <v>-3.163560762413058</v>
       </c>
       <c r="G36">
-        <v>-0.2564620634542849</v>
+        <v>-0.265061622979148</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.170194635755308</v>
+        <v>-3.138501143829754</v>
       </c>
       <c r="G37">
-        <v>-0.2646339512677645</v>
+        <v>-0.2439720413115603</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.179402489358915</v>
+        <v>-3.158863828870198</v>
       </c>
       <c r="G38">
-        <v>-0.2566267854393645</v>
+        <v>-0.26830476326772</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.178727714492667</v>
+        <v>-3.164065434709406</v>
       </c>
       <c r="G39">
-        <v>-0.2809777268947262</v>
+        <v>-0.2774764060226442</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.189086890847607</v>
+        <v>-3.138533093026521</v>
       </c>
       <c r="G40">
-        <v>-0.2905596913432063</v>
+        <v>-0.2559141012554755</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.185591962711366</v>
+        <v>-3.142088548065266</v>
       </c>
       <c r="G41">
-        <v>-0.3015517324266861</v>
+        <v>-0.2634395932099358</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.160594113937637</v>
+        <v>-3.144404108399237</v>
       </c>
       <c r="G42">
-        <v>-0.271456353689546</v>
+        <v>-0.2697251904596232</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.176933566071869</v>
+        <v>-3.195405741141889</v>
       </c>
       <c r="G43">
-        <v>-0.2794988645611864</v>
+        <v>-0.3246968601179909</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.203979290911352</v>
+        <v>-3.205389367546354</v>
       </c>
       <c r="G44">
-        <v>-0.3372404468031678</v>
+        <v>-0.3386505234381714</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.191991989324053</v>
+        <v>-3.145081023175</v>
       </c>
       <c r="G45">
-        <v>-0.3292231821315852</v>
+        <v>-0.2823122159825338</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.186905737946059</v>
+        <v>-3.165864155613703</v>
       </c>
       <c r="G46">
-        <v>-0.3065885082629887</v>
+        <v>-0.3070653853369525</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.177952125946729</v>
+        <v>-3.115491751072413</v>
       </c>
       <c r="G47">
-        <v>-0.3127261144505018</v>
+        <v>-0.2606630177113791</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.178212174314628</v>
+        <v>-3.161553347847673</v>
       </c>
       <c r="G48">
-        <v>-0.3180778489939842</v>
+        <v>-0.3106946514023543</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.176700416238692</v>
+        <v>-3.180842330193743</v>
       </c>
       <c r="G49">
-        <v>-0.3254638651634369</v>
+        <v>-0.3339536706641411</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.163038048458731</v>
+        <v>-3.144155551695148</v>
       </c>
       <c r="G50">
-        <v>-0.2789528697687707</v>
+        <v>-0.301236929081262</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.177936073218566</v>
+        <v>-3.124878499061463</v>
       </c>
       <c r="G51">
-        <v>-0.3389874875203973</v>
+        <v>-0.2859299133632929</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.179434566913131</v>
+        <v>-3.151629474933335</v>
       </c>
       <c r="G52">
-        <v>-0.3263493800864428</v>
+        <v>-0.3166509261508808</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.154234476745204</v>
+        <v>-3.14246232661603</v>
       </c>
       <c r="G53">
-        <v>-0.3149003380289286</v>
+        <v>-0.3114538147492916</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.168087961895829</v>
+        <v>-3.082277828036958</v>
       </c>
       <c r="G54">
-        <v>-0.3410494869448093</v>
+        <v>-0.2552393530859356</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.161839726021661</v>
+        <v>-3.111298433944674</v>
       </c>
       <c r="G55">
-        <v>-0.3295878640122554</v>
+        <v>-0.2882299959093673</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.152627923040324</v>
+        <v>-3.104322573636114</v>
       </c>
       <c r="G56">
-        <v>-0.3335295219207377</v>
+        <v>-0.2852241725165241</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.138606339827056</v>
+        <v>-3.094949910370379</v>
       </c>
       <c r="G57">
-        <v>-0.3234779756231858</v>
+        <v>-0.2798215461665048</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.123174679978785</v>
+        <v>-3.059169723309764</v>
       </c>
       <c r="G58">
-        <v>-0.3120163526906317</v>
+        <v>-0.2480113960216055</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.124556377606552</v>
+        <v>-3.078559925304708</v>
       </c>
       <c r="G59">
-        <v>-0.3173680872341156</v>
+        <v>-0.2713716349322653</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.105222655219388</v>
+        <v>-3.075441312901027</v>
       </c>
       <c r="G60">
-        <v>-0.3020044017626681</v>
+        <v>-0.2722230594443005</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.085888932832222</v>
+        <v>-3.056107590513859</v>
       </c>
       <c r="G61">
-        <v>-0.286640716291218</v>
+        <v>-0.2568593739728482</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.066555210445055</v>
+        <v>-3.062653147906159</v>
       </c>
       <c r="G62">
-        <v>-0.2712770308197677</v>
+        <v>-0.267374968280864</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.047221488057894</v>
+        <v>-3.026392267519037</v>
       </c>
       <c r="G63">
-        <v>-0.255913345348323</v>
+        <v>-0.235084124809458</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.027887765670727</v>
+        <v>-3.018821843367293</v>
       </c>
       <c r="G64">
-        <v>-0.2405496598768722</v>
+        <v>-0.2314837375734301</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.008554043283559</v>
+        <v>-3.00855404328356</v>
       </c>
       <c r="G65">
-        <v>-0.2251859744054212</v>
+        <v>-0.225185974405414</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.989220320896393</v>
+        <v>-2.981416195818603</v>
       </c>
       <c r="G66">
-        <v>-0.2098222889339717</v>
+        <v>-0.2020181638561724</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>-2.969886598509232</v>
       </c>
       <c r="G67">
-        <v>-0.1944586034625271</v>
+        <v>-0.194458603462517</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.950552876122066</v>
+        <v>-2.950552876122062</v>
       </c>
       <c r="G68">
-        <v>-0.1790949179910776</v>
+        <v>-0.1790949179910633</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.931219153734898</v>
+        <v>-2.931219153734901</v>
       </c>
       <c r="G69">
-        <v>-0.1637312325196262</v>
+        <v>-0.1637312325196182</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.911885431347734</v>
+        <v>-2.909361836896453</v>
       </c>
       <c r="G70">
-        <v>-0.1483675470481789</v>
+        <v>-0.1458439525968865</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.892551708960567</v>
+        <v>-2.890028114509291</v>
       </c>
       <c r="G71">
-        <v>-0.133003861576728</v>
+        <v>-0.1304802671254397</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>56</v>
       </c>
       <c r="F72">
-        <v>-2.871956189347763</v>
+        <v>-2.870694392122122</v>
       </c>
       <c r="G72">
-        <v>-0.1163783788796406</v>
+        <v>-0.1151165816539869</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>-2.851360669734958</v>
+        <v>-2.850098872509318</v>
       </c>
       <c r="G73">
-        <v>-0.09975289618255223</v>
+        <v>-0.0984910989568995</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>58</v>
       </c>
       <c r="F74">
-        <v>-2.830765150122152</v>
+        <v>-2.830765150122153</v>
       </c>
       <c r="G74">
-        <v>-0.08312741348546304</v>
+        <v>-0.08312741348545019</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-2.810169630509347</v>
       </c>
       <c r="G75">
-        <v>-0.06650193078837421</v>
+        <v>-0.06650193078835975</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2143,7 +2143,7 @@
         <v>-2.789574110896543</v>
       </c>
       <c r="G76">
-        <v>-0.04987644809128639</v>
+        <v>-0.04987644809127165</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2166,7 +2166,7 @@
         <v>-2.768978591283736</v>
       </c>
       <c r="G77">
-        <v>-0.03325096539419621</v>
+        <v>-0.03325096539418121</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2189,7 +2189,7 @@
         <v>-2.74838307167093</v>
       </c>
       <c r="G78">
-        <v>-0.0166254826971066</v>
+        <v>-0.01662548269709088</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2212,7 +2212,7 @@
         <v>-2.727787552058123</v>
       </c>
       <c r="G79">
-        <v>-1.643130076445232e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2235,7 +2235,7 @@
         <v>-3.231273341370725</v>
       </c>
       <c r="G80">
-        <v>1.199040866595169e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.314300246440736</v>
+        <v>-3.286736375106885</v>
       </c>
       <c r="G81">
-        <v>-0.09695955121346334</v>
+        <v>-0.08244362801261662</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.349184687658532</v>
+        <v>-3.33605636400453</v>
       </c>
       <c r="G82">
-        <v>-0.1718725348407162</v>
+        <v>-0.1587442111867174</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.363811348571664</v>
+        <v>-3.343915222691476</v>
       </c>
       <c r="G83">
-        <v>-0.2134797900303091</v>
+        <v>-0.1935836641501196</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-3.363154385451329</v>
+        <v>-3.336204435827115</v>
       </c>
       <c r="G84">
-        <v>-0.2398034211864344</v>
+        <v>-0.212853471562215</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.336685814913305</v>
+        <v>-3.32216249966099</v>
       </c>
       <c r="G85">
-        <v>-0.2303516057810453</v>
+        <v>-0.2257921296725458</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.289905564300284</v>
+        <v>-3.275220930766933</v>
       </c>
       <c r="G86">
-        <v>-0.2205157885883109</v>
+        <v>-0.2058311550549461</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.238388281621968</v>
+        <v>-3.22588465812798</v>
       </c>
       <c r="G87">
-        <v>-0.1920128545033025</v>
+        <v>-0.1834754766924498</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.170137997571151</v>
+        <v>-3.166938245624121</v>
       </c>
       <c r="G88">
-        <v>-0.1523850641793494</v>
+        <v>-0.1515096584650469</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.079341127588406</v>
+        <v>-3.077966861433242</v>
       </c>
       <c r="G89">
-        <v>-0.09082979887297238</v>
+        <v>-0.08951886855062458</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2465,7 +2465,7 @@
         <v>-2.959880304825194</v>
       </c>
       <c r="G90">
-        <v>-3.197442310920451e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2488,7 +2488,7 @@
         <v>-3.347710124094561</v>
       </c>
       <c r="G91">
-        <v>-6.927791673660977e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.400957124031009</v>
+        <v>-3.395947050587605</v>
       </c>
       <c r="G92">
-        <v>-0.0728559668184503</v>
+        <v>-0.07596900906562309</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.436625008870897</v>
+        <v>-3.4186278620416</v>
       </c>
       <c r="G93">
-        <v>-0.1451493855485908</v>
+        <v>-0.1271522387192139</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.44475366772961</v>
+        <v>-3.428518596446715</v>
       </c>
       <c r="G94">
-        <v>-0.1774544742252142</v>
+        <v>-0.1647750556969094</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.446981877464456</v>
+        <v>-3.424333876336123</v>
       </c>
       <c r="G95">
-        <v>-0.2101359762310446</v>
+        <v>-0.1890927537859133</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.427035522429484</v>
+        <v>-3.426613675917179</v>
       </c>
       <c r="G96">
-        <v>-0.2100845000391358</v>
+        <v>-0.2191046359395492</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.388681069861232</v>
+        <v>-3.400233213774938</v>
       </c>
       <c r="G97">
-        <v>-0.202479347651032</v>
+        <v>-0.221226591996905</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.34719642309861</v>
+        <v>-3.336607751177247</v>
       </c>
       <c r="G98">
-        <v>-0.1741426027849944</v>
+        <v>-0.1853332119717932</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.280744370751781</v>
+        <v>-3.270204835395333</v>
       </c>
       <c r="G99">
-        <v>-0.1579722497460351</v>
+        <v>-0.1474327143894754</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.191750915264366</v>
+        <v>-3.181101761178181</v>
       </c>
       <c r="G100">
-        <v>-0.09671087683120538</v>
+        <v>-0.08606172274490403</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2718,7 +2718,7 @@
         <v>-3.066537620233681</v>
       </c>
       <c r="G101">
-        <v>-1.221245327087672e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2741,7 +2741,7 @@
         <v>-3.43581223923481</v>
       </c>
       <c r="G102">
-        <v>-5.31574784190525e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-3.485383672066418</v>
+        <v>-3.475567484599912</v>
       </c>
       <c r="G103">
-        <v>-0.07821167694344799</v>
+        <v>-0.06839548947647867</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.50886494137496</v>
+        <v>-3.50260018049341</v>
       </c>
       <c r="G104">
-        <v>-0.1274187977273185</v>
+        <v>-0.1245023725739496</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.528158846742634</v>
+        <v>-3.508328242404896</v>
       </c>
       <c r="G105">
-        <v>-0.1787012829348771</v>
+        <v>-0.1588706785968128</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.512105776710649</v>
+        <v>-3.493656921843547</v>
       </c>
       <c r="G106">
-        <v>-0.1893103980851851</v>
+        <v>-0.1732735452394376</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.489116622696817</v>
+        <v>-3.480488028112253</v>
       </c>
       <c r="G107">
-        <v>-0.1971084494026472</v>
+        <v>-0.1887448956195208</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.458952283996175</v>
+        <v>-3.449584944054045</v>
       </c>
       <c r="G108">
-        <v>-0.1890825591370979</v>
+        <v>-0.1869159987652862</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.403021966738486</v>
+        <v>-3.400328995087412</v>
       </c>
       <c r="G109">
-        <v>-0.1647616607747315</v>
+        <v>-0.1663002939100304</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.336397243247903</v>
+        <v>-3.327601216567911</v>
       </c>
       <c r="G110">
-        <v>-0.1314427292744764</v>
+        <v>-0.1226467025945023</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.25637929693488</v>
+        <v>-3.252679387715959</v>
       </c>
       <c r="G111">
-        <v>-0.08006502707276159</v>
+        <v>-0.07636511785392719</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2971,7 +2971,7 @@
         <v>-3.147240082658058</v>
       </c>
       <c r="G112">
-        <v>1.554312234475219e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2994,7 +2994,7 @@
         <v>-3.489556403759594</v>
       </c>
       <c r="G113">
-        <v>-7.545075675352564e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.526880257775867</v>
+        <v>-3.519657441223457</v>
       </c>
       <c r="G114">
-        <v>-0.06361488253102321</v>
+        <v>-0.05916963176299506</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.551953768917729</v>
+        <v>-3.543755983931747</v>
       </c>
       <c r="G115">
-        <v>-0.1208012381083998</v>
+        <v>-0.1126034531217837</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.559866867838335</v>
+        <v>-3.549143269964746</v>
       </c>
       <c r="G116">
-        <v>-0.1568278763461453</v>
+        <v>-0.1473260178052818</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.556476755907696</v>
+        <v>-3.538498028970225</v>
       </c>
       <c r="G117">
-        <v>-0.1839947823992438</v>
+        <v>-0.1660160554612604</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.531048261035067</v>
+        <v>-3.525362044875375</v>
       </c>
       <c r="G118">
-        <v>-0.1858202070891164</v>
+        <v>-0.1822153500169101</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.491822583650471</v>
+        <v>-3.49204031828064</v>
       </c>
       <c r="G119">
-        <v>-0.1678949934949596</v>
+        <v>-0.1782289020726748</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.441504662442166</v>
+        <v>-3.437048882951813</v>
       </c>
       <c r="G120">
-        <v>-0.1524529403643027</v>
+        <v>-0.1525727453943473</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.380627167412335</v>
+        <v>-3.376759012402672</v>
       </c>
       <c r="G121">
-        <v>-0.1254863085056389</v>
+        <v>-0.1216181534957053</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.301843941523533</v>
+        <v>-3.296042907710353</v>
       </c>
       <c r="G122">
-        <v>-0.0760383612672757</v>
+        <v>-0.07023732745388545</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3224,7 +3224,7 @@
         <v>-3.196470301605968</v>
       </c>
       <c r="G123">
-        <v>-1.49213974509621e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3247,7 +3247,7 @@
         <v>-3.533873340988846</v>
       </c>
       <c r="G124">
-        <v>-4.556355293061642e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.56816085410785</v>
+        <v>-3.567245084705549</v>
       </c>
       <c r="G125">
-        <v>-0.06283465781332076</v>
+        <v>-0.06292941272354158</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.592402502748274</v>
+        <v>-3.58028466457482</v>
       </c>
       <c r="G126">
-        <v>-0.1178204382796277</v>
+        <v>-0.1057026001056443</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.598956206381251</v>
+        <v>-3.586200361099347</v>
       </c>
       <c r="G127">
-        <v>-0.154107749425473</v>
+        <v>-0.1413519041430042</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.583877092616362</v>
+        <v>-3.574953589310786</v>
       </c>
       <c r="G128">
-        <v>-0.1685863046674601</v>
+        <v>-0.1596628013612817</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.563201433137166</v>
+        <v>-3.551502964742485</v>
       </c>
       <c r="G129">
-        <v>-0.177644252701133</v>
+        <v>-0.1659457843058127</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.520888997668727</v>
+        <v>-3.511686463485043</v>
       </c>
       <c r="G130">
-        <v>-0.1650654247455627</v>
+        <v>-0.1558628905612027</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.471643623225016</v>
+        <v>-3.469010899227947</v>
       </c>
       <c r="G131">
-        <v>-0.1453597452766204</v>
+        <v>-0.1427449953109461</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.413234474804152</v>
+        <v>-3.407649728182962</v>
       </c>
       <c r="G132">
-        <v>-0.116702178400732</v>
+        <v>-0.1111174317787931</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.335826423385702</v>
+        <v>-3.330464739834499</v>
       </c>
       <c r="G133">
-        <v>-0.06902773449515109</v>
+        <v>-0.0636660509431618</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3477,7 +3477,7 @@
         <v>-3.237065081378505</v>
       </c>
       <c r="G134">
-        <v>-8.220091274324659e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3500,7 +3500,7 @@
         <v>-3.564693760524769</v>
       </c>
       <c r="G135">
-        <v>-5.81756864903582e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.595040559483012</v>
+        <v>-3.593296982260147</v>
       </c>
       <c r="G136">
-        <v>-0.05888270216759084</v>
+        <v>-0.05845760861487737</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.612148631224381</v>
+        <v>-3.609168870260911</v>
       </c>
       <c r="G137">
-        <v>-0.1060106826758695</v>
+        <v>-0.1043057381354653</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.617130967644443</v>
+        <v>-3.608386216550058</v>
       </c>
       <c r="G138">
-        <v>-0.1422440770395883</v>
+        <v>-0.1334993259444364</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.601329712825362</v>
+        <v>-3.602952385849943</v>
       </c>
       <c r="G139">
-        <v>-0.1562972091000687</v>
+        <v>-0.1579198821238212</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.583843877336907</v>
+        <v>-3.570301694385128</v>
       </c>
       <c r="G140">
-        <v>-0.1687876151314995</v>
+        <v>-0.1552454321788306</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.540535119411652</v>
+        <v>-3.531992722140442</v>
       </c>
       <c r="G141">
-        <v>-0.1554550987261309</v>
+        <v>-0.1469127014539682</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.490481781365247</v>
+        <v>-3.485394100270539</v>
       </c>
       <c r="G142">
-        <v>-0.1349811006501165</v>
+        <v>-0.1301684664635647</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.436399287528165</v>
+        <v>-3.426576097412607</v>
       </c>
       <c r="G143">
-        <v>-0.1111498952420904</v>
+        <v>-0.1013267051254559</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.363222959917607</v>
+        <v>-3.35638258022287</v>
       </c>
       <c r="G144">
-        <v>-0.06794980915141835</v>
+        <v>-0.06110942945554315</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3730,7 +3730,7 @@
         <v>-3.265296909247503</v>
       </c>
       <c r="G145">
-        <v>-1.199929045014869e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3753,7 +3753,7 @@
         <v>-3.591296384613464</v>
       </c>
       <c r="G146">
-        <v>1.329159005081237e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.62059439912723</v>
+        <v>-3.616296927387828</v>
       </c>
       <c r="G147">
-        <v>-0.05663686947527591</v>
+        <v>-0.05508449372325774</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.635475490381431</v>
+        <v>-3.630141455526759</v>
       </c>
       <c r="G148">
-        <v>-0.1044349724332938</v>
+        <v>-0.09910093757994032</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.63789975381837</v>
+        <v>-3.627730626201081</v>
       </c>
       <c r="G149">
-        <v>-0.1370311515879896</v>
+        <v>-0.1268620239720128</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.628181098867575</v>
+        <v>-3.612622457505814</v>
       </c>
       <c r="G150">
-        <v>-0.1574844123549504</v>
+        <v>-0.1419257709944968</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.604834318831892</v>
+        <v>-3.586409691632794</v>
       </c>
       <c r="G151">
-        <v>-0.164309548037024</v>
+        <v>-0.1458849208392268</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.563510954635187</v>
+        <v>-3.549438654328952</v>
       </c>
       <c r="G152">
-        <v>-0.1531580995580752</v>
+        <v>-0.1390857992531354</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.511684643069539</v>
+        <v>-3.505363676563575</v>
       </c>
       <c r="G153">
-        <v>-0.1315037037101827</v>
+        <v>-0.1251827372055092</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.454607777439723</v>
+        <v>-3.446939621377647</v>
       </c>
       <c r="G154">
-        <v>-0.104598753798124</v>
+        <v>-0.09693059773733137</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.382936752164934</v>
+        <v>-3.376150585435445</v>
       </c>
       <c r="G155">
-        <v>-0.06309964424109044</v>
+        <v>-0.05631347751288074</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3983,7 +3983,7 @@
         <v>-3.289665192204814</v>
       </c>
       <c r="G156">
-        <v>1.27320376464013e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4006,7 +4006,7 @@
         <v>-3.611255547594426</v>
       </c>
       <c r="G157">
-        <v>3.074873689001834e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.637767903514832</v>
+        <v>-3.635132899968379</v>
       </c>
       <c r="G158">
-        <v>-0.05513490406764587</v>
+        <v>-0.05420155812488714</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.648771201750493</v>
+        <v>-3.644644589229323</v>
       </c>
       <c r="G159">
-        <v>-0.09816406565485591</v>
+        <v>-0.0940374531367647</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.650910311661273</v>
+        <v>-3.639742164634319</v>
       </c>
       <c r="G160">
-        <v>-0.1306273813165673</v>
+        <v>-0.1194592342926946</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.639289733972033</v>
+        <v>-3.626153492408505</v>
       </c>
       <c r="G161">
-        <v>-0.1493310093782592</v>
+        <v>-0.1361947678178148</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.612367353789732</v>
+        <v>-3.594942205644164</v>
       </c>
       <c r="G162">
-        <v>-0.1527328349468895</v>
+        <v>-0.135307686804407</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.574646791147853</v>
+        <v>-3.563867734527975</v>
       </c>
       <c r="G163">
-        <v>-0.145336478055943</v>
+        <v>-0.1345574214391529</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.527229452368779</v>
+        <v>-3.515535646916208</v>
       </c>
       <c r="G164">
-        <v>-0.1282433450277998</v>
+        <v>-0.1165495395783189</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.471653954875039</v>
+        <v>-3.462000251287395</v>
       </c>
       <c r="G165">
-        <v>-0.1029920532849922</v>
+        <v>-0.09333834970044053</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.401870997600072</v>
+        <v>-3.391280132406921</v>
       </c>
       <c r="G166">
-        <v>-0.06353330176095706</v>
+        <v>-0.05294243657089992</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4236,7 +4236,7 @@
         <v>-3.307947995040268</v>
       </c>
       <c r="G167">
-        <v>3.096634060284487e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4259,7 +4259,7 @@
         <v>-3.628977160755452</v>
       </c>
       <c r="G168">
-        <v>1.104005775687256e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.654252821988535</v>
+        <v>-3.651210880364366</v>
       </c>
       <c r="G169">
-        <v>-0.05574022757418096</v>
+        <v>-0.05269828595136117</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.66397441948254</v>
+        <v>-3.657787322415186</v>
       </c>
       <c r="G170">
-        <v>-0.09592639141038717</v>
+        <v>-0.08973929434462846</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.665675355172099</v>
+        <v>-3.652086203942026</v>
       </c>
       <c r="G171">
-        <v>-0.1280918934421469</v>
+        <v>-0.1145027422139155</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.651018535225889</v>
+        <v>-3.635556714870122</v>
       </c>
       <c r="G172">
-        <v>-0.143949746032781</v>
+        <v>-0.1284879256791016</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.62920732380493</v>
+        <v>-3.609867121786678</v>
       </c>
       <c r="G173">
-        <v>-0.1526031009540225</v>
+        <v>-0.1332628989381044</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.590936509107587</v>
+        <v>-3.573187713510263</v>
       </c>
       <c r="G174">
-        <v>-0.1447968525988812</v>
+        <v>-0.1270480570041368</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.541711234277605</v>
+        <v>-3.527247849215388</v>
       </c>
       <c r="G175">
-        <v>-0.1260862503057423</v>
+        <v>-0.1116228652463507</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.483825305572681</v>
+        <v>-3.472291313899176</v>
       </c>
       <c r="G176">
-        <v>-0.09866488794301942</v>
+        <v>-0.08713089627258619</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.415590294885105</v>
+        <v>-3.406623300931911</v>
       </c>
       <c r="G177">
-        <v>-0.06089444359764501</v>
+        <v>-0.0519274496477683</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4489,7 +4489,7 @@
         <v>-3.324181178747053</v>
       </c>
       <c r="G178">
-        <v>3.563371819836902e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4512,7 +4512,7 @@
         <v>-3.642948688300346</v>
       </c>
       <c r="G179">
-        <v>-7.789324740770098e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.664838863974058</v>
+        <v>-3.663459437617853</v>
       </c>
       <c r="G180">
-        <v>-0.05247537156343762</v>
+        <v>-0.05109594520696614</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.674645406083787</v>
+        <v>-3.66868074819943</v>
       </c>
       <c r="G181">
-        <v>-0.09286710956211364</v>
+        <v>-0.08690245167800148</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.672574032102509</v>
+        <v>-3.660799346842823</v>
       </c>
       <c r="G182">
-        <v>-0.1213809314697825</v>
+        <v>-0.1096062462108538</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.657146068437153</v>
+        <v>-3.645098777171858</v>
       </c>
       <c r="G183">
-        <v>-0.1365773252758169</v>
+        <v>-0.1245300340117925</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.637343821420791</v>
+        <v>-3.617114599857142</v>
       </c>
       <c r="G184">
-        <v>-0.1473602741484024</v>
+        <v>-0.1271310525865352</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.597827627708394</v>
+        <v>-3.581823204969828</v>
       </c>
       <c r="G185">
-        <v>-0.1384292763249513</v>
+        <v>-0.1224248535886803</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.553055967151625</v>
+        <v>-3.536281123861819</v>
       </c>
       <c r="G186">
-        <v>-0.1242819732395737</v>
+        <v>-0.1075071299525749</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.493187050461247</v>
+        <v>-3.481479119107592</v>
       </c>
       <c r="G187">
-        <v>-0.09499825243814208</v>
+        <v>-0.08329032108780665</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.42704960701768</v>
+        <v>-3.417021092213203</v>
       </c>
       <c r="G188">
-        <v>-0.05944600488352231</v>
+        <v>-0.04941749008287621</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4742,7 +4742,7 @@
         <v>-3.336979244658423</v>
       </c>
       <c r="G189">
-        <v>4.344524739963163e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4765,7 +4765,7 @@
         <v>-3.655594210382496</v>
       </c>
       <c r="G190">
-        <v>-1.425526363618701e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.676704525374014</v>
+        <v>-3.674776354170601</v>
       </c>
       <c r="G191">
-        <v>-0.05181034854382416</v>
+        <v>-0.04988217733964362</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.684664236983489</v>
+        <v>-3.679837169430309</v>
       </c>
       <c r="G192">
-        <v>-0.09047009370417847</v>
+        <v>-0.0856430261508887</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.682822018612373</v>
+        <v>-3.670700831096004</v>
       </c>
       <c r="G193">
-        <v>-0.1193279088839421</v>
+        <v>-0.1072067213681218</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.669330891520856</v>
+        <v>-3.65311320456757</v>
       </c>
       <c r="G194">
-        <v>-0.1365368153433049</v>
+        <v>-0.1203191283912264</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.644041901536117</v>
+        <v>-3.626373763347376</v>
       </c>
       <c r="G195">
-        <v>-0.1419478589094454</v>
+        <v>-0.1242797207225708</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.60842191161936</v>
+        <v>-3.590478705640571</v>
       </c>
       <c r="G196">
-        <v>-0.137027902543569</v>
+        <v>-0.119084696567304</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.561965752176421</v>
+        <v>-3.545628185532722</v>
       </c>
       <c r="G197">
-        <v>-0.1212717766515097</v>
+        <v>-0.1049342100109929</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.503142789523109</v>
+        <v>-3.491555106057012</v>
       </c>
       <c r="G198">
-        <v>-0.09314884754907737</v>
+        <v>-0.08156116408682157</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.437502776930234</v>
+        <v>-3.427484724718822</v>
       </c>
       <c r="G199">
-        <v>-0.05820886850708268</v>
+        <v>-0.04819081630016986</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4995,7 +4995,7 @@
         <v>-3.348562675646026</v>
       </c>
       <c r="G200">
-        <v>5.157652083198627e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5018,7 +5018,7 @@
         <v>-3.665918290433674</v>
       </c>
       <c r="G201">
-        <v>2.964739564959018e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.685092419572312</v>
+        <v>-3.68324960038052</v>
       </c>
       <c r="G202">
-        <v>-0.04995137007132255</v>
+        <v>-0.04810855088273547</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.69286396755504</v>
+        <v>-3.685359708562238</v>
       </c>
       <c r="G203">
-        <v>-0.08852540693140165</v>
+        <v>-0.08102114794204551</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.688727547378947</v>
+        <v>-3.677218065395681</v>
       </c>
       <c r="G204">
-        <v>-0.1151662276909575</v>
+        <v>-0.1036567457113775</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.674401820043802</v>
+        <v>-3.660481951574788</v>
       </c>
       <c r="G205">
-        <v>-0.1316429892331645</v>
+        <v>-0.1177231207680771</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.650324533055576</v>
+        <v>-3.631742003411817</v>
       </c>
       <c r="G206">
-        <v>-0.1383429431805865</v>
+        <v>-0.119760413540996</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.614869480973823</v>
+        <v>-3.597912649769929</v>
       </c>
       <c r="G207">
-        <v>-0.1336903799761855</v>
+        <v>-0.1167335487767001</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.568593809348745</v>
+        <v>-3.553243838751772</v>
       </c>
       <c r="G208">
-        <v>-0.1181919492867558</v>
+        <v>-0.1028419786944326</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.510656764030751</v>
+        <v>-3.499500935270956</v>
       </c>
       <c r="G209">
-        <v>-0.09105739284611414</v>
+        <v>-0.07990156409120852</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.446394508240448</v>
+        <v>-3.435314510741685</v>
       </c>
       <c r="G210">
-        <v>-0.05757237799145987</v>
+        <v>-0.046492380497828</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5248,7 +5248,7 @@
         <v>-3.358019641366265</v>
       </c>
       <c r="G211">
-        <v>5.371703082346357e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-3.057946011256606</v>
+        <v>-3.062305129253262</v>
       </c>
       <c r="G22">
         <v>-0.1038663550026717</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.07047845617235</v>
+        <v>-3.073686251417679</v>
       </c>
       <c r="G23">
         <v>-0.1203688368341322</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-3.093111323559346</v>
+        <v>-3.097599818497839</v>
       </c>
       <c r="G25">
         <v>-0.1509417780525606</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.095515455846777</v>
+        <v>-3.097571928340787</v>
       </c>
       <c r="G26">
         <v>-0.1573159472557069</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.099329664769209</v>
+        <v>-3.112290222692378</v>
       </c>
       <c r="G27">
         <v>-0.1651001930938549</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.1112278058508</v>
+        <v>-3.11827770017562</v>
       </c>
       <c r="G28">
         <v>-0.1809683710911627</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.109272820141572</v>
+        <v>-3.12529970434338</v>
       </c>
       <c r="G29">
         <v>-0.1829834222976494</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.117575524002494</v>
+        <v>-3.132838727428308</v>
       </c>
       <c r="G30">
         <v>-0.1952561630742884</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.123575093510595</v>
+        <v>-3.129861307059424</v>
       </c>
       <c r="G31">
         <v>-0.2052257694981048</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.123424218554739</v>
+        <v>-3.138798314754496</v>
       </c>
       <c r="G32">
         <v>-0.2090449314579654</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.137489236054106</v>
+        <v>-3.152882305271939</v>
       </c>
       <c r="G33">
         <v>-0.2270799858730483</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.144899371047375</v>
+        <v>-3.15593283341838</v>
       </c>
       <c r="G34">
         <v>-0.2384601577820331</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.141769781238411</v>
+        <v>-3.154106735800806</v>
       </c>
       <c r="G35">
         <v>-0.2393006048887849</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.138501143829754</v>
+        <v>-3.163015364488649</v>
       </c>
       <c r="G37">
         <v>-0.2439720413115603</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.164065434709406</v>
+        <v>-3.175519919247344</v>
       </c>
       <c r="G39">
         <v>-0.2774764060226442</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.138533093026521</v>
+        <v>-3.180368166004113</v>
       </c>
       <c r="G40">
         <v>-0.2559141012554755</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.142088548065266</v>
+        <v>-3.174289534833488</v>
       </c>
       <c r="G41">
         <v>-0.2634395932099358</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.144404108399237</v>
+        <v>-3.174390532768089</v>
       </c>
       <c r="G42">
         <v>-0.2697251904596232</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.145081023175</v>
+        <v>-3.191074258706326</v>
       </c>
       <c r="G45">
         <v>-0.2823122159825338</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.115491751072413</v>
+        <v>-3.166768976167509</v>
       </c>
       <c r="G47">
         <v>-0.2606630177113791</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.161553347847673</v>
+        <v>-3.165408027802204</v>
       </c>
       <c r="G48">
         <v>-0.3106946514023543</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.124878499061463</v>
+        <v>-3.186587497102925</v>
       </c>
       <c r="G51">
         <v>-0.2859299133632929</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.151629474933335</v>
+        <v>-3.151688875491074</v>
       </c>
       <c r="G52">
         <v>-0.3166509261508808</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.082277828036958</v>
+        <v>-3.12364570906453</v>
       </c>
       <c r="G54">
         <v>-0.2552393530859356</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.111298433944674</v>
+        <v>-3.117350653507664</v>
       </c>
       <c r="G55">
         <v>-0.2882299959093673</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.104322573636114</v>
+        <v>-3.134919428746289</v>
       </c>
       <c r="G56">
         <v>-0.2852241725165241</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.094949910370379</v>
+        <v>-3.125833979329375</v>
       </c>
       <c r="G57">
         <v>-0.2798215461665048</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.059169723309764</v>
+        <v>-3.088905563172096</v>
       </c>
       <c r="G58">
         <v>-0.2480113960216055</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.078559925304708</v>
+        <v>-3.112850189989865</v>
       </c>
       <c r="G59">
         <v>-0.2713716349322653</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.075441312901027</v>
+        <v>-3.078894523055742</v>
       </c>
       <c r="G60">
         <v>-0.2722230594443005</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.056107590513859</v>
+        <v>-3.06947658972893</v>
       </c>
       <c r="G61">
         <v>-0.2568593739728482</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.026392267519037</v>
+        <v>-3.047221488057893</v>
       </c>
       <c r="G63">
         <v>-0.235084124809458</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.018821843367293</v>
+        <v>-3.023985703131832</v>
       </c>
       <c r="G64">
         <v>-0.2314837375734301</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.981416195818603</v>
+        <v>-2.989220320896396</v>
       </c>
       <c r="G66">
         <v>-0.2020181638561724</v>
@@ -2002,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.909361836896453</v>
+        <v>-2.911885431347734</v>
       </c>
       <c r="G70">
         <v>-0.1458439525968865</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.890028114509291</v>
+        <v>-2.891289911734929</v>
       </c>
       <c r="G71">
         <v>-0.1304802671254397</v>
@@ -2048,7 +2048,7 @@
         <v>56</v>
       </c>
       <c r="F72">
-        <v>-2.870694392122122</v>
+        <v>-2.871956189347761</v>
       </c>
       <c r="G72">
         <v>-0.1151165816539869</v>
@@ -2071,7 +2071,7 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>-2.850098872509318</v>
+        <v>-2.851360669734956</v>
       </c>
       <c r="G73">
         <v>-0.0984910989568995</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.286736375106885</v>
+        <v>-3.304686623627517</v>
       </c>
       <c r="G81">
         <v>-0.08244362801261662</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.33605636400453</v>
+        <v>-3.343205252912985</v>
       </c>
       <c r="G82">
         <v>-0.1587442111867174</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.343915222691476</v>
+        <v>-3.353260808984121</v>
       </c>
       <c r="G83">
         <v>-0.1935836641501196</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-3.336204435827115</v>
+        <v>-3.343529085216978</v>
       </c>
       <c r="G84">
         <v>-0.212853471562215</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.275220930766933</v>
+        <v>-3.285016407825924</v>
       </c>
       <c r="G86">
         <v>-0.2058311550549461</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.22588465812798</v>
+        <v>-3.238494550791503</v>
       </c>
       <c r="G87">
         <v>-0.1834754766924498</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.395947050587605</v>
+        <v>-3.401811308633782</v>
       </c>
       <c r="G92">
         <v>-0.07596900906562309</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.4186278620416</v>
+        <v>-3.427818952172407</v>
       </c>
       <c r="G93">
         <v>-0.1271522387192139</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.428518596446715</v>
+        <v>-3.441104537219052</v>
       </c>
       <c r="G94">
         <v>-0.1647750556969094</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.424333876336123</v>
+        <v>-3.444931022837255</v>
       </c>
       <c r="G95">
         <v>-0.1890927537859133</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.270204835395333</v>
+        <v>-3.271136666724325</v>
       </c>
       <c r="G99">
         <v>-0.1474327143894754</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.181101761178181</v>
+        <v>-3.184499247475189</v>
       </c>
       <c r="G100">
         <v>-0.08606172274490403</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-3.475567484599912</v>
+        <v>-3.481788631750945</v>
       </c>
       <c r="G103">
         <v>-0.06839548947647867</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.508328242404896</v>
+        <v>-3.509913397379022</v>
       </c>
       <c r="G105">
         <v>-0.1588706785968128</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.493656921843547</v>
+        <v>-3.506165876203294</v>
       </c>
       <c r="G106">
         <v>-0.1732735452394376</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.480488028112253</v>
+        <v>-3.487689575786036</v>
       </c>
       <c r="G107">
         <v>-0.1887448956195208</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.449584944054045</v>
+        <v>-3.451363200358307</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.400328995087412</v>
+        <v>-3.401076388893235</v>
       </c>
       <c r="G109">
         <v>-0.1663002939100304</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.327601216567911</v>
+        <v>-3.33401051476334</v>
       </c>
       <c r="G110">
         <v>-0.1226467025945023</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.519657441223457</v>
+        <v>-3.525543531140494</v>
       </c>
       <c r="G114">
         <v>-0.05916963176299506</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.543755983931747</v>
+        <v>-3.546712523378747</v>
       </c>
       <c r="G115">
         <v>-0.1126034531217837</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.549143269964746</v>
+        <v>-3.557952951608451</v>
       </c>
       <c r="G116">
         <v>-0.1473260178052818</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.538498028970225</v>
+        <v>-3.547533710650981</v>
       </c>
       <c r="G117">
         <v>-0.1660160554612604</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.437048882951813</v>
+        <v>-3.439568878201723</v>
       </c>
       <c r="G120">
         <v>-0.1525727453943473</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.296042907710353</v>
+        <v>-3.296831039173977</v>
       </c>
       <c r="G122">
         <v>-0.07023732745388545</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.58028466457482</v>
+        <v>-3.584217205658122</v>
       </c>
       <c r="G126">
         <v>-0.1057026001056443</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.586200361099347</v>
+        <v>-3.591915395026394</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.574953589310786</v>
+        <v>-3.576977238362117</v>
       </c>
       <c r="G128">
         <v>-0.1596628013612817</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.551502964742485</v>
+        <v>-3.553636039509883</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.511686463485043</v>
+        <v>-3.514914831617144</v>
       </c>
       <c r="G130">
         <v>-0.1558628905612027</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.330464739834499</v>
+        <v>-3.332441544119829</v>
       </c>
       <c r="G133">
         <v>-0.0636660509431618</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.531992722140442</v>
+        <v>-3.537814281497965</v>
       </c>
       <c r="G141">
         <v>-0.1469127014539682</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.485394100270539</v>
+        <v>-3.490751663362672</v>
       </c>
       <c r="G142">
         <v>-0.1301684664635647</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.426576097412607</v>
+        <v>-3.430231245040901</v>
       </c>
       <c r="G143">
         <v>-0.1013267051254559</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.35638258022287</v>
+        <v>-3.35748994001364</v>
       </c>
       <c r="G144">
         <v>-0.06110942945554315</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.616296927387828</v>
+        <v>-3.618990597228915</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.630141455526759</v>
+        <v>-3.632401783267247</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.627730626201081</v>
+        <v>-3.630090901319487</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.612622457505814</v>
+        <v>-3.615274694076017</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.586409691632794</v>
+        <v>-3.587027152577486</v>
       </c>
       <c r="G151">
         <v>-0.1458849208392268</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.549438654328952</v>
+        <v>-3.553237224535279</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.505363676563575</v>
+        <v>-3.507175842384095</v>
       </c>
       <c r="G153">
         <v>-0.1251827372055092</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.376150585435445</v>
+        <v>-3.376656471511474</v>
       </c>
       <c r="G155">
         <v>-0.05631347751288074</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.635132899968379</v>
+        <v>-3.6368742688396</v>
       </c>
       <c r="G158">
         <v>-0.05420155812488714</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.644644589229323</v>
+        <v>-3.644844249715594</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.639742164634319</v>
+        <v>-3.642525440374336</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.594942205644164</v>
+        <v>-3.599393750084506</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.515535646916208</v>
+        <v>-3.51658666395216</v>
       </c>
       <c r="G164">
         <v>-0.1165495395783189</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.391280132406921</v>
+        <v>-3.393282041269236</v>
       </c>
       <c r="G166">
         <v>-0.05294243657089992</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.651210880364366</v>
+        <v>-3.652064071701041</v>
       </c>
       <c r="G169">
         <v>-0.05269828595136117</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.657787322415186</v>
+        <v>-3.659948418025173</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.652086203942026</v>
+        <v>-3.65456581202152</v>
       </c>
       <c r="G171">
         <v>-0.1145027422139155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.635556714870122</v>
+        <v>-3.63649018031301</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.573187713510263</v>
+        <v>-3.574442766040337</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.527247849215388</v>
+        <v>-3.527947238343799</v>
       </c>
       <c r="G175">
         <v>-0.1116228652463507</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.472291313899176</v>
+        <v>-3.472605632180272</v>
       </c>
       <c r="G176">
         <v>-0.08713089627258619</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.406623300931911</v>
+        <v>-3.406990570410211</v>
       </c>
       <c r="G177">
         <v>-0.0519274496477683</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.663459437617853</v>
+        <v>-3.664234467281588</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.66868074819943</v>
+        <v>-3.668742462440036</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.660799346842823</v>
+        <v>-3.661643363573133</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.617114599857142</v>
+        <v>-3.619419346827894</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.581823204969828</v>
+        <v>-3.583620950180054</v>
       </c>
       <c r="G185">
         <v>-0.1224248535886803</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.536281123861819</v>
+        <v>-3.53718309055535</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.481479119107592</v>
+        <v>-3.483605912562465</v>
       </c>
       <c r="G187">
         <v>-0.08329032108780665</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.417021092213203</v>
+        <v>-3.418059831777374</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.674776354170601</v>
+        <v>-3.675089869388179</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.670700831096004</v>
+        <v>-3.672395052831875</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.65311320456757</v>
+        <v>-3.653496590425868</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.626373763347376</v>
+        <v>-3.626938738338755</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.590478705640571</v>
+        <v>-3.590978534361095</v>
       </c>
       <c r="G196">
         <v>-0.119084696567304</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.491555106057012</v>
+        <v>-3.49221230342455</v>
       </c>
       <c r="G198">
         <v>-0.08156116408682157</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.427484724718822</v>
+        <v>-3.427778729008953</v>
       </c>
       <c r="G199">
         <v>-0.04819081630016986</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.68324960038052</v>
+        <v>-3.683404219317499</v>
       </c>
       <c r="G202">
         <v>-0.04810855088273547</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.685359708562238</v>
+        <v>-3.685935508373037</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.631742003411817</v>
+        <v>-3.633712069395895</v>
       </c>
       <c r="G206">
         <v>-0.119760413540996</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.435314510741685</v>
+        <v>-3.435809690027914</v>
       </c>
       <c r="G210">
         <v>-0.046492380497828</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-3.073686251417679</v>
+        <v>-3.074837574169006</v>
       </c>
       <c r="G23">
         <v>-0.1203688368341322</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.081859578336769</v>
+        <v>-3.086218696333423</v>
       </c>
       <c r="G24">
         <v>-0.135719995914267</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-3.097571928340787</v>
+        <v>-3.107829617910939</v>
       </c>
       <c r="G26">
         <v>-0.1573159472557069</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-3.112290222692378</v>
+        <v>-3.118059417324035</v>
       </c>
       <c r="G27">
         <v>-0.1651001930938549</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.11827770017562</v>
+        <v>-3.1236713448568</v>
       </c>
       <c r="G28">
         <v>-0.1809683710911627</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.12529970434338</v>
+        <v>-3.131844671775884</v>
       </c>
       <c r="G29">
         <v>-0.1829834222976494</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-3.132838727428308</v>
+        <v>-3.139513071802657</v>
       </c>
       <c r="G30">
         <v>-0.1952561630742884</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-3.129861307059424</v>
+        <v>-3.145124999335423</v>
       </c>
       <c r="G31">
         <v>-0.2052257694981048</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.138798314754496</v>
+        <v>-3.148680454374174</v>
       </c>
       <c r="G32">
         <v>-0.2090449314579654</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-3.152882305271939</v>
+        <v>-3.156348854400949</v>
       </c>
       <c r="G33">
         <v>-0.2270799858730483</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.15593283341838</v>
+        <v>-3.160550705298712</v>
       </c>
       <c r="G34">
         <v>-0.2384601577820331</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-3.154106735800806</v>
+        <v>-3.167572709466471</v>
       </c>
       <c r="G35">
         <v>-0.2393006048887849</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.163560762413058</v>
+        <v>-3.171774560364238</v>
       </c>
       <c r="G36">
         <v>-0.265061622979148</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.163015364488649</v>
+        <v>-3.175976411262003</v>
       </c>
       <c r="G37">
         <v>-0.2439720413115603</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.158863828870198</v>
+        <v>-3.180178262159763</v>
       </c>
       <c r="G38">
         <v>-0.26830476326772</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-3.175519919247344</v>
+        <v>-3.18579018969253</v>
       </c>
       <c r="G39">
         <v>-0.2774764060226442</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.180368166004113</v>
+        <v>-3.188581963955295</v>
       </c>
       <c r="G40">
         <v>-0.2559141012554755</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-3.174289534833488</v>
+        <v>-3.194193891488059</v>
       </c>
       <c r="G41">
         <v>-0.2634395932099358</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-3.174390532768089</v>
+        <v>-3.198395742385824</v>
       </c>
       <c r="G42">
         <v>-0.2697251904596232</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.195405741141889</v>
+        <v>-3.19977744001359</v>
       </c>
       <c r="G43">
         <v>-0.3246968601179909</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.191074258706326</v>
+        <v>-3.208181141809117</v>
       </c>
       <c r="G45">
         <v>-0.2823122159825338</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.165864155613703</v>
+        <v>-3.180166354389811</v>
       </c>
       <c r="G46">
         <v>-0.3070653853369525</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.166768976167509</v>
+        <v>-3.199231787493216</v>
       </c>
       <c r="G47">
         <v>-0.2606630177113791</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.165408027802204</v>
+        <v>-3.184339826280342</v>
       </c>
       <c r="G48">
         <v>-0.3106946514023543</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-3.180842330193743</v>
+        <v>-3.220758315495175</v>
       </c>
       <c r="G49">
         <v>-0.3339536706641411</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.144155551695148</v>
+        <v>-3.189383676170477</v>
       </c>
       <c r="G50">
         <v>-0.301236929081262</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.151688875491074</v>
+        <v>-3.179317770846336</v>
       </c>
       <c r="G52">
         <v>-0.3166509261508808</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.14246232661603</v>
+        <v>-3.164002907064864</v>
       </c>
       <c r="G53">
         <v>-0.3114538147492916</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.12364570906453</v>
+        <v>-3.168087961895831</v>
       </c>
       <c r="G54">
         <v>-0.2552393530859356</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.117350653507664</v>
+        <v>-3.152643721172519</v>
       </c>
       <c r="G55">
         <v>-0.2882299959093673</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.134919428746289</v>
+        <v>-3.152627923040326</v>
       </c>
       <c r="G56">
         <v>-0.2852241725165241</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.125833979329375</v>
+        <v>-3.151975339042123</v>
       </c>
       <c r="G57">
         <v>-0.2798215461665048</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.088905563172096</v>
+        <v>-3.139988037454823</v>
       </c>
       <c r="G58">
         <v>-0.2480113960216055</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.112850189989865</v>
+        <v>-3.124556377606552</v>
       </c>
       <c r="G59">
         <v>-0.2713716349322653</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.078894523055742</v>
+        <v>-3.105222655219386</v>
       </c>
       <c r="G60">
         <v>-0.2722230594443005</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.06947658972893</v>
+        <v>-3.08588893283222</v>
       </c>
       <c r="G61">
         <v>-0.2568593739728482</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.062653147906159</v>
+        <v>-3.066555210445059</v>
       </c>
       <c r="G62">
         <v>-0.267374968280864</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.023985703131832</v>
+        <v>-3.027887765670724</v>
       </c>
       <c r="G64">
         <v>-0.2314837375734301</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.891289911734929</v>
+        <v>-2.892551708960567</v>
       </c>
       <c r="G71">
         <v>-0.1304802671254397</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.304686623627517</v>
+        <v>-3.308740685661148</v>
       </c>
       <c r="G81">
         <v>-0.08244362801261662</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.343205252912985</v>
+        <v>-3.361829481115791</v>
       </c>
       <c r="G82">
         <v>-0.1587442111867174</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.353260808984121</v>
+        <v>-3.38462851348031</v>
       </c>
       <c r="G83">
         <v>-0.1935836641501196</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-3.343529085216978</v>
+        <v>-3.361525338348633</v>
       </c>
       <c r="G84">
         <v>-0.212853471562215</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.32216249966099</v>
+        <v>-3.329604919310752</v>
       </c>
       <c r="G85">
         <v>-0.2257921296725458</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.285016407825924</v>
+        <v>-3.294181008040878</v>
       </c>
       <c r="G86">
         <v>-0.2058311550549461</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.238494550791503</v>
+        <v>-3.24245275237227</v>
       </c>
       <c r="G87">
         <v>-0.1834754766924498</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.166938245624121</v>
+        <v>-3.16934638709593</v>
       </c>
       <c r="G88">
         <v>-0.1515096584650469</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.401811308633782</v>
+        <v>-3.407583622036351</v>
       </c>
       <c r="G92">
         <v>-0.07596900906562309</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.427818952172407</v>
+        <v>-3.441862792427939</v>
       </c>
       <c r="G93">
         <v>-0.1271522387192139</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.441104537219052</v>
+        <v>-3.449057862828091</v>
       </c>
       <c r="G94">
         <v>-0.1647750556969094</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.444931022837255</v>
+        <v>-3.463446714426212</v>
       </c>
       <c r="G95">
         <v>-0.1890927537859133</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.426613675917179</v>
+        <v>-3.438447729642274</v>
       </c>
       <c r="G96">
         <v>-0.2191046359395492</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.400233213774938</v>
+        <v>-3.408477220061477</v>
       </c>
       <c r="G97">
         <v>-0.221226591996905</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.336607751177247</v>
+        <v>-3.345664232817219</v>
       </c>
       <c r="G98">
         <v>-0.1853332119717932</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.271136666724325</v>
+        <v>-3.278589661508707</v>
       </c>
       <c r="G99">
         <v>-0.1474327143894754</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.184499247475189</v>
+        <v>-3.191750915264368</v>
       </c>
       <c r="G100">
         <v>-0.08606172274490403</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.50260018049341</v>
+        <v>-3.507385378780688</v>
       </c>
       <c r="G104">
         <v>-0.1245023725739496</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.509913397379022</v>
+        <v>-3.512671387526732</v>
       </c>
       <c r="G105">
         <v>-0.1588706785968128</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.506165876203294</v>
+        <v>-3.511617738984432</v>
       </c>
       <c r="G106">
         <v>-0.1732735452394376</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.487689575786036</v>
+        <v>-3.492194608629767</v>
       </c>
       <c r="G107">
         <v>-0.1887448956195208</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.451363200358307</v>
+        <v>-3.454151431462957</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.401076388893235</v>
+        <v>-3.403003174993025</v>
       </c>
       <c r="G109">
         <v>-0.1663002939100304</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.33401051476334</v>
+        <v>-3.337792523283967</v>
       </c>
       <c r="G110">
         <v>-0.1226467025945023</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.252679387715959</v>
+        <v>-3.254468085314206</v>
       </c>
       <c r="G111">
         <v>-0.07636511785392719</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.525543531140494</v>
+        <v>-3.530024423105069</v>
       </c>
       <c r="G114">
         <v>-0.05916963176299506</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.546712523378747</v>
+        <v>-3.551351387092928</v>
       </c>
       <c r="G115">
         <v>-0.1126034531217837</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.557952951608451</v>
+        <v>-3.559360054499963</v>
       </c>
       <c r="G116">
         <v>-0.1473260178052818</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.547533710650981</v>
+        <v>-3.553275620643342</v>
       </c>
       <c r="G117">
         <v>-0.1660160554612604</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.525362044875375</v>
+        <v>-3.533364998764425</v>
       </c>
       <c r="G118">
         <v>-0.1822153500169101</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.49204031828064</v>
+        <v>-3.500632984990073</v>
       </c>
       <c r="G119">
         <v>-0.1782289020726748</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.439568878201723</v>
+        <v>-3.447201709007445</v>
       </c>
       <c r="G120">
         <v>-0.1525727453943473</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.376759012402672</v>
+        <v>-3.381872592191481</v>
       </c>
       <c r="G121">
         <v>-0.1216181534957053</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.296831039173977</v>
+        <v>-3.304214849129697</v>
       </c>
       <c r="G122">
         <v>-0.07023732745388545</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.567245084705549</v>
+        <v>-3.568038739141522</v>
       </c>
       <c r="G125">
         <v>-0.06292941272354158</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.584217205658122</v>
+        <v>-3.587744679768577</v>
       </c>
       <c r="G126">
         <v>-0.1057026001056443</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.591915395026394</v>
+        <v>-3.595768758865329</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.576977238362117</v>
+        <v>-3.589219997587994</v>
       </c>
       <c r="G128">
         <v>-0.1596628013612817</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.553636039509883</v>
+        <v>-3.563351863010789</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.514914831617144</v>
+        <v>-3.526873198727701</v>
       </c>
       <c r="G130">
         <v>-0.1558628905612027</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.469010899227947</v>
+        <v>-3.478116458038564</v>
       </c>
       <c r="G131">
         <v>-0.1427449953109461</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.407649728182962</v>
+        <v>-3.412872959626577</v>
       </c>
       <c r="G132">
         <v>-0.1111174317787931</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.332441544119829</v>
+        <v>-3.335024735037095</v>
       </c>
       <c r="G133">
         <v>-0.0636660509431618</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.593296982260147</v>
+        <v>-3.596654125559561</v>
       </c>
       <c r="G136">
         <v>-0.05845760861487737</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.609168870260911</v>
+        <v>-3.611794805617069</v>
       </c>
       <c r="G137">
         <v>-0.1043057381354653</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.608386216550058</v>
+        <v>-3.613171719522013</v>
       </c>
       <c r="G138">
         <v>-0.1334993259444364</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.602952385849943</v>
+        <v>-3.612669629626544</v>
       </c>
       <c r="G139">
         <v>-0.1579198821238212</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.570301694385128</v>
+        <v>-3.582301255950159</v>
       </c>
       <c r="G140">
         <v>-0.1552454321788306</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.537814281497965</v>
+        <v>-3.554852134860904</v>
       </c>
       <c r="G141">
         <v>-0.1469127014539682</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.490751663362672</v>
+        <v>-3.504367203980358</v>
       </c>
       <c r="G142">
         <v>-0.1301684664635647</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.430231245040901</v>
+        <v>-3.439801387576286</v>
       </c>
       <c r="G143">
         <v>-0.1013267051254559</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.35748994001364</v>
+        <v>-3.367652146589238</v>
       </c>
       <c r="G144">
         <v>-0.06110942945554315</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.618990597228915</v>
+        <v>-3.620088982644755</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.632401783267247</v>
+        <v>-3.636444531301638</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.630090901319487</v>
+        <v>-3.640793682156705</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.615274694076017</v>
+        <v>-3.630597738556407</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.587027152577486</v>
+        <v>-3.606883191810213</v>
       </c>
       <c r="G151">
         <v>-0.1458849208392268</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.553237224535279</v>
+        <v>-3.569309448101849</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.507175842384095</v>
+        <v>-3.523687848075992</v>
       </c>
       <c r="G153">
         <v>-0.1251827372055092</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.446939621377647</v>
+        <v>-3.457569927260804</v>
       </c>
       <c r="G154">
         <v>-0.09693059773733137</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.376656471511474</v>
+        <v>-3.386610986009253</v>
       </c>
       <c r="G155">
         <v>-0.05631347751288074</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.6368742688396</v>
+        <v>-3.638867878011204</v>
       </c>
       <c r="G158">
         <v>-0.05420155812488714</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.644844249715594</v>
+        <v>-3.650310193496958</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.642525440374336</v>
+        <v>-3.655165881137822</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.626153492408505</v>
+        <v>-3.644795729929751</v>
       </c>
       <c r="G161">
         <v>-0.1361947678178148</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.599393750084506</v>
+        <v>-3.622423535095442</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.563867734527975</v>
+        <v>-3.58561681049506</v>
       </c>
       <c r="G163">
         <v>-0.1345574214391529</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.51658666395216</v>
+        <v>-3.530650288464662</v>
       </c>
       <c r="G164">
         <v>-0.1165495395783189</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.462000251287395</v>
+        <v>-3.472505963866745</v>
       </c>
       <c r="G165">
         <v>-0.09333834970044053</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.393282041269236</v>
+        <v>-3.404109092308625</v>
       </c>
       <c r="G166">
         <v>-0.05294243657089992</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.652064071701041</v>
+        <v>-3.65316996447408</v>
       </c>
       <c r="G169">
         <v>-0.05269828595136117</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.659948418025173</v>
+        <v>-3.667953355227468</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.65456581202152</v>
+        <v>-3.669480757653198</v>
       </c>
       <c r="G171">
         <v>-0.1145027422139155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.63649018031301</v>
+        <v>-3.662842411099027</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.609867121786678</v>
+        <v>-3.635261251748638</v>
       </c>
       <c r="G173">
         <v>-0.1332628989381044</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.574442766040337</v>
+        <v>-3.596856620482297</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.527947238343799</v>
+        <v>-3.545644036104455</v>
       </c>
       <c r="G175">
         <v>-0.1116228652463507</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.472605632180272</v>
+        <v>-3.485066444501304</v>
       </c>
       <c r="G176">
         <v>-0.08713089627258619</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.406990570410211</v>
+        <v>-3.417819696198888</v>
       </c>
       <c r="G177">
         <v>-0.0519274496477683</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.664234467281588</v>
+        <v>-3.666708727290143</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.668742462440036</v>
+        <v>-3.677601946326233</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.661643363573133</v>
+        <v>-3.677732539760361</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.645098777171858</v>
+        <v>-3.667091882604479</v>
       </c>
       <c r="G183">
         <v>-0.1245300340117925</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.619419346827894</v>
+        <v>-3.64413181541423</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.583620950180054</v>
+        <v>-3.607821206513041</v>
       </c>
       <c r="G185">
         <v>-0.1224248535886803</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.53718309055535</v>
+        <v>-3.555663589615599</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.483605912562465</v>
+        <v>-3.494751408404368</v>
       </c>
       <c r="G187">
         <v>-0.08329032108780665</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.418059831777374</v>
+        <v>-3.429630506479737</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.675089869388179</v>
+        <v>-3.677621181168572</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.679837169430309</v>
+        <v>-3.689716603712566</v>
       </c>
       <c r="G192">
         <v>-0.0856430261508887</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.672395052831875</v>
+        <v>-3.69172456024225</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.653496590425868</v>
+        <v>-3.679214905547041</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.626938738338755</v>
+        <v>-3.652983292794469</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.590978534361095</v>
+        <v>-3.616856413706743</v>
       </c>
       <c r="G196">
         <v>-0.119084696567304</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.545628185532722</v>
+        <v>-3.566305265202362</v>
       </c>
       <c r="G197">
         <v>-0.1049342100109929</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.49221230342455</v>
+        <v>-3.50393204074598</v>
       </c>
       <c r="G198">
         <v>-0.08156116408682157</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.427778729008953</v>
+        <v>-3.439384557014623</v>
       </c>
       <c r="G199">
         <v>-0.04819081630016986</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.683404219317499</v>
+        <v>-3.687252570886743</v>
       </c>
       <c r="G202">
         <v>-0.04810855088273547</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.685935508373037</v>
+        <v>-3.69824074727198</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.677218065395681</v>
+        <v>-3.697848009955548</v>
       </c>
       <c r="G204">
         <v>-0.1036567457113775</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.660481951574788</v>
+        <v>-3.684313369368108</v>
       </c>
       <c r="G205">
         <v>-0.1177231207680771</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.633712069395895</v>
+        <v>-3.659103725647463</v>
       </c>
       <c r="G206">
         <v>-0.119760413540996</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.597912649769929</v>
+        <v>-3.62383874320135</v>
       </c>
       <c r="G207">
         <v>-0.1167335487767001</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.553243838751772</v>
+        <v>-3.574393347550454</v>
       </c>
       <c r="G208">
         <v>-0.1028419786944326</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.499500935270956</v>
+        <v>-3.511169419601352</v>
       </c>
       <c r="G209">
         <v>-0.07990156409120852</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.435809690027914</v>
+        <v>-3.447776083538979</v>
       </c>
       <c r="G210">
         <v>-0.046492380497828</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-3.086218696333423</v>
+        <v>-3.087370019084748</v>
       </c>
       <c r="G24">
         <v>-0.135719995914267</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-3.1236713448568</v>
+        <v>-3.12828921673713</v>
       </c>
       <c r="G28">
         <v>-0.1809683710911627</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-3.131844671775884</v>
+        <v>-3.133901144269894</v>
       </c>
       <c r="G29">
         <v>-0.1829834222976494</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-3.148680454374174</v>
+        <v>-3.150736926868183</v>
       </c>
       <c r="G32">
         <v>-0.2090449314579654</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-3.160550705298712</v>
+        <v>-3.161960781933712</v>
       </c>
       <c r="G34">
         <v>-0.2384601577820331</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-3.180178262159763</v>
+        <v>-3.181588338794763</v>
       </c>
       <c r="G38">
         <v>-0.26830476326772</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-3.188581963955295</v>
+        <v>-3.189992040590294</v>
       </c>
       <c r="G40">
         <v>-0.2559141012554755</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-3.19977744001359</v>
+        <v>-3.202597593283588</v>
       </c>
       <c r="G43">
         <v>-0.3246968601179909</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.180166354389811</v>
+        <v>-3.194159558595846</v>
       </c>
       <c r="G46">
         <v>-0.3070653853369525</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-3.199231787493216</v>
+        <v>-3.215174766969645</v>
       </c>
       <c r="G47">
         <v>-0.2606630177113791</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.184339826280342</v>
+        <v>-3.18715997955034</v>
       </c>
       <c r="G48">
         <v>-0.3106946514023543</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.189383676170477</v>
+        <v>-3.19195765643184</v>
       </c>
       <c r="G50">
         <v>-0.301236929081262</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.186587497102925</v>
+        <v>-3.194749430694602</v>
       </c>
       <c r="G51">
         <v>-0.2859299133632929</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.179317770846336</v>
+        <v>-3.214354562433405</v>
       </c>
       <c r="G52">
         <v>-0.3166509261508808</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.164002907064864</v>
+        <v>-3.1821095451091</v>
       </c>
       <c r="G53">
         <v>-0.3114538147492916</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.152643721172519</v>
+        <v>-3.18628301699963</v>
       </c>
       <c r="G55">
         <v>-0.2882299959093673</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.152627923040326</v>
+        <v>-3.17085135715136</v>
       </c>
       <c r="G56">
         <v>-0.2852241725165241</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.308740685661148</v>
+        <v>-3.311622516534244</v>
       </c>
       <c r="G81">
         <v>-0.08244362801261662</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.361829481115791</v>
+        <v>-3.364374510355558</v>
       </c>
       <c r="G82">
         <v>-0.1587442111867174</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.38462851348031</v>
+        <v>-3.388847020426648</v>
       </c>
       <c r="G83">
         <v>-0.1935836641501196</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-3.361525338348633</v>
+        <v>-3.380438653880619</v>
       </c>
       <c r="G84">
         <v>-0.212853471562215</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.329604919310752</v>
+        <v>-3.34052531769443</v>
       </c>
       <c r="G85">
         <v>-0.2257921296725458</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.294181008040878</v>
+        <v>-3.29593202578861</v>
       </c>
       <c r="G86">
         <v>-0.2058311550549461</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.16934638709593</v>
+        <v>-3.169576204225263</v>
       </c>
       <c r="G88">
         <v>-0.1515096584650469</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.407583622036351</v>
+        <v>-3.411328268727623</v>
       </c>
       <c r="G92">
         <v>-0.07596900906562309</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.441862792427939</v>
+        <v>-3.447413319751786</v>
       </c>
       <c r="G93">
         <v>-0.1271522387192139</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.449057862828091</v>
+        <v>-3.455342016166051</v>
       </c>
       <c r="G94">
         <v>-0.1647750556969094</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.463446714426212</v>
+        <v>-3.466667505285854</v>
       </c>
       <c r="G95">
         <v>-0.1890927537859133</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.438447729642274</v>
+        <v>-3.443359580770089</v>
       </c>
       <c r="G96">
         <v>-0.2191046359395492</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.408477220061477</v>
+        <v>-3.410876240705369</v>
       </c>
       <c r="G97">
         <v>-0.221226591996905</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.345664232817219</v>
+        <v>-3.348640728027694</v>
       </c>
       <c r="G98">
         <v>-0.1853332119717932</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.278589661508707</v>
+        <v>-3.281491283054691</v>
       </c>
       <c r="G99">
         <v>-0.1474327143894754</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-3.481788631750945</v>
+        <v>-3.483980092655456</v>
       </c>
       <c r="G103">
         <v>-0.06839548947647867</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.507385378780688</v>
+        <v>-3.508348672838914</v>
       </c>
       <c r="G104">
         <v>-0.1245023725739496</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.512671387526732</v>
+        <v>-3.51562877974288</v>
       </c>
       <c r="G105">
         <v>-0.1588706785968128</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.511617738984432</v>
+        <v>-3.51438910820059</v>
       </c>
       <c r="G106">
         <v>-0.1732735452394376</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.492194608629767</v>
+        <v>-3.497901544930906</v>
       </c>
       <c r="G107">
         <v>-0.1887448956195208</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.454151431462957</v>
+        <v>-3.45642856531793</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.403003174993025</v>
+        <v>-3.40399425219154</v>
       </c>
       <c r="G109">
         <v>-0.1663002939100304</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.337792523283967</v>
+        <v>-3.338303325157084</v>
       </c>
       <c r="G110">
         <v>-0.1226467025945023</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.254468085314206</v>
+        <v>-3.254875451349846</v>
       </c>
       <c r="G111">
         <v>-0.07636511785392719</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.530024423105069</v>
+        <v>-3.53389926994342</v>
       </c>
       <c r="G114">
         <v>-0.05916963176299506</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.551351387092928</v>
+        <v>-3.555021073366003</v>
       </c>
       <c r="G115">
         <v>-0.1126034531217837</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.559360054499963</v>
+        <v>-3.561333998712417</v>
       </c>
       <c r="G116">
         <v>-0.1473260178052818</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.553275620643342</v>
+        <v>-3.557280297221444</v>
       </c>
       <c r="G117">
         <v>-0.1660160554612604</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.533364998764425</v>
+        <v>-3.534148750371032</v>
       </c>
       <c r="G118">
         <v>-0.1822153500169101</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.500632984990073</v>
+        <v>-3.501774220308993</v>
       </c>
       <c r="G119">
         <v>-0.1782289020726748</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.447201709007445</v>
+        <v>-3.450039053641922</v>
       </c>
       <c r="G120">
         <v>-0.1525727453943473</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.381872592191481</v>
+        <v>-3.382950290804686</v>
       </c>
       <c r="G121">
         <v>-0.1216181534957053</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.304214849129697</v>
+        <v>-3.304295681548265</v>
       </c>
       <c r="G122">
         <v>-0.07023732745388545</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.568038739141522</v>
+        <v>-3.571108431704015</v>
       </c>
       <c r="G125">
         <v>-0.06292941272354158</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.587744679768577</v>
+        <v>-3.588553562470554</v>
       </c>
       <c r="G126">
         <v>-0.1057026001056443</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.595768758865329</v>
+        <v>-3.59692315390874</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.589219997587994</v>
+        <v>-3.590369769702707</v>
       </c>
       <c r="G128">
         <v>-0.1596628013612817</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.563351863010789</v>
+        <v>-3.565602464532584</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.526873198727701</v>
+        <v>-3.53030825589324</v>
       </c>
       <c r="G130">
         <v>-0.1558628905612027</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.478116458038564</v>
+        <v>-3.479167105616105</v>
       </c>
       <c r="G131">
         <v>-0.1427449953109461</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.412872959626577</v>
+        <v>-3.413332562263576</v>
       </c>
       <c r="G132">
         <v>-0.1111174317787931</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.335024735037095</v>
+        <v>-3.335415454975907</v>
       </c>
       <c r="G133">
         <v>-0.0636660509431618</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.596654125559561</v>
+        <v>-3.597418610859475</v>
       </c>
       <c r="G136">
         <v>-0.05845760861487737</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.611794805617069</v>
+        <v>-3.616318582851569</v>
       </c>
       <c r="G137">
         <v>-0.1043057381354653</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.613171719522013</v>
+        <v>-3.617965243942504</v>
       </c>
       <c r="G138">
         <v>-0.1334993259444364</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.612669629626544</v>
+        <v>-3.613654550752135</v>
       </c>
       <c r="G139">
         <v>-0.1579198821238212</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.582301255950159</v>
+        <v>-3.583520445155998</v>
       </c>
       <c r="G140">
         <v>-0.1552454321788306</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.554852134860904</v>
+        <v>-3.55586773154011</v>
       </c>
       <c r="G141">
         <v>-0.1469127014539682</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.504367203980358</v>
+        <v>-3.505708110746911</v>
       </c>
       <c r="G142">
         <v>-0.1301684664635647</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.439801387576286</v>
+        <v>-3.44065786973906</v>
       </c>
       <c r="G143">
         <v>-0.1013267051254559</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.367652146589238</v>
+        <v>-3.367724458211546</v>
       </c>
       <c r="G144">
         <v>-0.06110942945554315</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.620088982644755</v>
+        <v>-3.620563747279826</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.636444531301638</v>
+        <v>-3.637423272258824</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.640793682156705</v>
+        <v>-3.641359536485421</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.630597738556407</v>
+        <v>-3.63177374549046</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.606883191810213</v>
+        <v>-3.608336112453513</v>
       </c>
       <c r="G151">
         <v>-0.1458849208392268</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.569309448101849</v>
+        <v>-3.572365185240318</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.523687848075992</v>
+        <v>-3.525332816345022</v>
       </c>
       <c r="G153">
         <v>-0.1251827372055092</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.457569927260804</v>
+        <v>-3.45816437968011</v>
       </c>
       <c r="G154">
         <v>-0.09693059773733137</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.386610986009253</v>
+        <v>-3.387075016642637</v>
       </c>
       <c r="G155">
         <v>-0.05631347751288074</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.638867878011204</v>
+        <v>-3.641163044890422</v>
       </c>
       <c r="G158">
         <v>-0.05420155812488714</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.650310193496958</v>
+        <v>-3.653415322298228</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.655165881137822</v>
+        <v>-3.658026471980685</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.644795729929751</v>
+        <v>-3.646266799484331</v>
       </c>
       <c r="G161">
         <v>-0.1361947678178148</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.622423535095442</v>
+        <v>-3.624035075649522</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.58561681049506</v>
+        <v>-3.588909896122948</v>
       </c>
       <c r="G163">
         <v>-0.1345574214391529</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.530650288464662</v>
+        <v>-3.531096947512444</v>
       </c>
       <c r="G164">
         <v>-0.1165495395783189</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.472505963866745</v>
+        <v>-3.473077165357489</v>
       </c>
       <c r="G165">
         <v>-0.09333834970044053</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.404109092308625</v>
+        <v>-3.404731352861566</v>
       </c>
       <c r="G166">
         <v>-0.05294243657089992</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.65316996447408</v>
+        <v>-3.654082357887288</v>
       </c>
       <c r="G169">
         <v>-0.05269828595136117</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.667953355227468</v>
+        <v>-3.668746245682907</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.669480757653198</v>
+        <v>-3.671195289487139</v>
       </c>
       <c r="G171">
         <v>-0.1145027422139155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.662842411099027</v>
+        <v>-3.664792840949056</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.635261251748638</v>
+        <v>-3.637672124528692</v>
       </c>
       <c r="G173">
         <v>-0.1332628989381044</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.596856620482297</v>
+        <v>-3.598506112228528</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.545644036104455</v>
+        <v>-3.546628324161679</v>
       </c>
       <c r="G175">
         <v>-0.1116228652463507</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.485066444501304</v>
+        <v>-3.48534452759285</v>
       </c>
       <c r="G176">
         <v>-0.08713089627258619</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.417819696198888</v>
+        <v>-3.419107685378437</v>
       </c>
       <c r="G177">
         <v>-0.0519274496477683</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.666708727290143</v>
+        <v>-3.669101837013419</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.677601946326233</v>
+        <v>-3.680189309933286</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.677732539760361</v>
+        <v>-3.681372624165619</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.667091882604479</v>
+        <v>-3.670359408408433</v>
       </c>
       <c r="G183">
         <v>-0.1245300340117925</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.64413181541423</v>
+        <v>-3.647696516663646</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.607821206513041</v>
+        <v>-3.610745524609876</v>
       </c>
       <c r="G185">
         <v>-0.1224248535886803</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.555663589615599</v>
+        <v>-3.556712763049551</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.494751408404368</v>
+        <v>-3.495190291354969</v>
       </c>
       <c r="G187">
         <v>-0.08329032108780665</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.429630506479737</v>
+        <v>-3.431007797499183</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.677621181168572</v>
+        <v>-3.678062444949003</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.689716603712566</v>
+        <v>-3.690866314525367</v>
       </c>
       <c r="G192">
         <v>-0.0856430261508887</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.69172456024225</v>
+        <v>-3.693537979766068</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.679214905547041</v>
+        <v>-3.68316440080256</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.652983292794469</v>
+        <v>-3.657037778344221</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.616856413706743</v>
+        <v>-3.620742440572214</v>
       </c>
       <c r="G196">
         <v>-0.119084696567304</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.566305265202362</v>
+        <v>-3.568198783152333</v>
       </c>
       <c r="G197">
         <v>-0.1049342100109929</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.50393204074598</v>
+        <v>-3.504173091162955</v>
       </c>
       <c r="G198">
         <v>-0.08156116408682157</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.439384557014623</v>
+        <v>-3.440684727665591</v>
       </c>
       <c r="G199">
         <v>-0.04819081630016986</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.687252570886743</v>
+        <v>-3.688976903388025</v>
       </c>
       <c r="G202">
         <v>-0.04810855088273547</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.69824074727198</v>
+        <v>-3.699170357304413</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.697848009955548</v>
+        <v>-3.701061670416574</v>
       </c>
       <c r="G204">
         <v>-0.1036567457113775</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.684313369368108</v>
+        <v>-3.68936878145468</v>
       </c>
       <c r="G205">
         <v>-0.1177231207680771</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.659103725647463</v>
+        <v>-3.665487094588836</v>
       </c>
       <c r="G206">
         <v>-0.119760413540996</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.62383874320135</v>
+        <v>-3.629229504177753</v>
       </c>
       <c r="G207">
         <v>-0.1167335487767001</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.574393347550454</v>
+        <v>-3.577397289823722</v>
       </c>
       <c r="G208">
         <v>-0.1028419786944326</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.511169419601352</v>
+        <v>-3.511328444793042</v>
       </c>
       <c r="G209">
         <v>-0.07990156409120852</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.447776083538979</v>
+        <v>-3.44914339448307</v>
       </c>
       <c r="G210">
         <v>-0.046492380497828</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-3.171774560364238</v>
+        <v>-3.173184636999236</v>
       </c>
       <c r="G36">
         <v>-0.265061622979148</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-3.175976411262003</v>
+        <v>-3.177386487897</v>
       </c>
       <c r="G37">
         <v>-0.2439720413115603</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-3.194159558595846</v>
+        <v>-3.212382992706881</v>
       </c>
       <c r="G46">
         <v>-0.3070653853369525</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.18715997955034</v>
+        <v>-3.203973337026376</v>
       </c>
       <c r="G48">
         <v>-0.3106946514023543</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.151975339042123</v>
+        <v>-3.155419697303091</v>
       </c>
       <c r="G57">
         <v>-0.2798215461665048</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.311622516534244</v>
+        <v>-3.316092789636273</v>
       </c>
       <c r="G81">
         <v>-0.08244362801261662</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.364374510355558</v>
+        <v>-3.381794704216141</v>
       </c>
       <c r="G82">
         <v>-0.1587442111867174</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.388847020426648</v>
+        <v>-3.392869782092052</v>
       </c>
       <c r="G83">
         <v>-0.1935836641501196</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.34052531769443</v>
+        <v>-3.342457257915623</v>
       </c>
       <c r="G85">
         <v>-0.2257921296725458</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.29593202578861</v>
+        <v>-3.298955093121141</v>
       </c>
       <c r="G86">
         <v>-0.2058311550549461</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.411328268727623</v>
+        <v>-3.412708445954544</v>
       </c>
       <c r="G92">
         <v>-0.07596900906562309</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.447413319751786</v>
+        <v>-3.451595247904272</v>
       </c>
       <c r="G93">
         <v>-0.1271522387192139</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.455342016166051</v>
+        <v>-3.458492633803256</v>
       </c>
       <c r="G94">
         <v>-0.1647750556969094</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.466667505285854</v>
+        <v>-3.467466120557006</v>
       </c>
       <c r="G95">
         <v>-0.1890927537859133</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.443359580770089</v>
+        <v>-3.447685555031152</v>
       </c>
       <c r="G96">
         <v>-0.2191046359395492</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.410876240705369</v>
+        <v>-3.412860972476139</v>
       </c>
       <c r="G97">
         <v>-0.221226591996905</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.348640728027694</v>
+        <v>-3.353535959500713</v>
       </c>
       <c r="G98">
         <v>-0.1853332119717932</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-3.483980092655456</v>
+        <v>-3.485844258734137</v>
       </c>
       <c r="G103">
         <v>-0.06839548947647867</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.508348672838914</v>
+        <v>-3.509851497843896</v>
       </c>
       <c r="G104">
         <v>-0.1245023725739496</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.51562877974288</v>
+        <v>-3.51626499118221</v>
       </c>
       <c r="G105">
         <v>-0.1588706785968128</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.51438910820059</v>
+        <v>-3.514512032281587</v>
       </c>
       <c r="G106">
         <v>-0.1732735452394376</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.497901544930906</v>
+        <v>-3.498010617612611</v>
       </c>
       <c r="G107">
         <v>-0.1887448956195208</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.45642856531793</v>
+        <v>-3.457656971003336</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.40399425219154</v>
+        <v>-3.404898379276659</v>
       </c>
       <c r="G109">
         <v>-0.1663002939100304</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.338303325157084</v>
+        <v>-3.339027229940546</v>
       </c>
       <c r="G110">
         <v>-0.1226467025945023</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.53389926994342</v>
+        <v>-3.53436558848816</v>
       </c>
       <c r="G114">
         <v>-0.05916963176299506</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.555021073366003</v>
+        <v>-3.556119160211405</v>
       </c>
       <c r="G115">
         <v>-0.1126034531217837</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.561333998712417</v>
+        <v>-3.565991146620921</v>
       </c>
       <c r="G116">
         <v>-0.1473260178052818</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.557280297221444</v>
+        <v>-3.557733576351332</v>
       </c>
       <c r="G117">
         <v>-0.1660160554612604</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.534148750371032</v>
+        <v>-3.535489687694378</v>
       </c>
       <c r="G118">
         <v>-0.1822153500169101</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.501774220308993</v>
+        <v>-3.503143721240535</v>
       </c>
       <c r="G119">
         <v>-0.1782289020726748</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.450039053641922</v>
+        <v>-3.451270864404327</v>
       </c>
       <c r="G120">
         <v>-0.1525727453943473</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.382950290804686</v>
+        <v>-3.383371974098544</v>
       </c>
       <c r="G121">
         <v>-0.1216181534957053</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.304295681548265</v>
+        <v>-3.308375010446601</v>
       </c>
       <c r="G122">
         <v>-0.07023732745388545</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.588553562470554</v>
+        <v>-3.589745002532008</v>
       </c>
       <c r="G126">
         <v>-0.1057026001056443</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.59692315390874</v>
+        <v>-3.597577530379171</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.590369769702707</v>
+        <v>-3.590498756069038</v>
       </c>
       <c r="G128">
         <v>-0.1596628013612817</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.565602464532584</v>
+        <v>-3.566679056121674</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.479167105616105</v>
+        <v>-3.479958864813696</v>
       </c>
       <c r="G131">
         <v>-0.1427449953109461</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.413332562263576</v>
+        <v>-3.41337555771902</v>
       </c>
       <c r="G132">
         <v>-0.1111174317787931</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.597418610859475</v>
+        <v>-3.597989392437671</v>
       </c>
       <c r="G136">
         <v>-0.05845760861487737</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.616318582851569</v>
+        <v>-3.617184669431007</v>
       </c>
       <c r="G137">
         <v>-0.1043057381354653</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.617965243942504</v>
+        <v>-3.619547148821543</v>
       </c>
       <c r="G138">
         <v>-0.1334993259444364</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.583520445155998</v>
+        <v>-3.584495536100158</v>
       </c>
       <c r="G140">
         <v>-0.1552454321788306</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.55586773154011</v>
+        <v>-3.555969564258606</v>
       </c>
       <c r="G141">
         <v>-0.1469127014539682</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.44065786973906</v>
+        <v>-3.441090153128938</v>
       </c>
       <c r="G143">
         <v>-0.1013267051254559</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.367724458211546</v>
+        <v>-3.367760614022703</v>
       </c>
       <c r="G144">
         <v>-0.06110942945554315</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.620563747279826</v>
+        <v>-3.620991426609411</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.637423272258824</v>
+        <v>-3.63793675659767</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.641359536485421</v>
+        <v>-3.641822656225763</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.63177374549046</v>
+        <v>-3.632383177115432</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.608336112453513</v>
+        <v>-3.608581473458075</v>
       </c>
       <c r="G151">
         <v>-0.1458849208392268</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.572365185240318</v>
+        <v>-3.57238633815176</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.525332816345022</v>
+        <v>-3.525655682106249</v>
       </c>
       <c r="G153">
         <v>-0.1251827372055092</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.641163044890422</v>
+        <v>-3.641398929657917</v>
       </c>
       <c r="G158">
         <v>-0.05420155812488714</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.653415322298228</v>
+        <v>-3.653686066867707</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.658026471980685</v>
+        <v>-3.658465972374073</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.646266799484331</v>
+        <v>-3.646965758244847</v>
       </c>
       <c r="G161">
         <v>-0.1361947678178148</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.624035075649522</v>
+        <v>-3.624386416978961</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.588909896122948</v>
+        <v>-3.588941221250712</v>
       </c>
       <c r="G163">
         <v>-0.1345574214391529</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.531096947512444</v>
+        <v>-3.531142483697916</v>
       </c>
       <c r="G164">
         <v>-0.1165495395783189</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.404731352861566</v>
+        <v>-3.404788900795925</v>
       </c>
       <c r="G166">
         <v>-0.05294243657089992</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.654082357887288</v>
+        <v>-3.654158095627746</v>
       </c>
       <c r="G169">
         <v>-0.05269828595136117</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.668746245682907</v>
+        <v>-3.669429580762423</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.664792840949056</v>
+        <v>-3.664880502630551</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.637672124528692</v>
+        <v>-3.63786710167953</v>
       </c>
       <c r="G173">
         <v>-0.1332628989381044</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.598506112228528</v>
+        <v>-3.598775263419678</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.419107685378437</v>
+        <v>-3.419136892949703</v>
       </c>
       <c r="G177">
         <v>-0.0519274496477683</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.669101837013419</v>
+        <v>-3.66947609542432</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.680189309933286</v>
+        <v>-3.680713260431035</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.681372624165619</v>
+        <v>-3.681998373154479</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.670359408408433</v>
+        <v>-3.670656490542501</v>
       </c>
       <c r="G183">
         <v>-0.1245300340117925</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.647696516663646</v>
+        <v>-3.647742935026204</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.610745524609876</v>
+        <v>-3.610832343075922</v>
       </c>
       <c r="G185">
         <v>-0.1224248535886803</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.556712763049551</v>
+        <v>-3.556771373392866</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.431007797499183</v>
+        <v>-3.431053278020368</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.678062444949003</v>
+        <v>-3.678151682054811</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.690866314525367</v>
+        <v>-3.691236985669116</v>
       </c>
       <c r="G192">
         <v>-0.0856430261508887</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.693537979766068</v>
+        <v>-3.693611685012829</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.68316440080256</v>
+        <v>-3.68332914483351</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.657037778344221</v>
+        <v>-3.657712031904083</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.620742440572214</v>
+        <v>-3.620961370763965</v>
       </c>
       <c r="G196">
         <v>-0.119084696567304</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.568198783152333</v>
+        <v>-3.568213524201684</v>
       </c>
       <c r="G197">
         <v>-0.1049342100109929</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.504173091162955</v>
+        <v>-3.504233681281225</v>
       </c>
       <c r="G198">
         <v>-0.08156116408682157</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.440684727665591</v>
+        <v>-3.440784386905626</v>
       </c>
       <c r="G199">
         <v>-0.04819081630016986</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.688976903388025</v>
+        <v>-3.689086025510707</v>
       </c>
       <c r="G202">
         <v>-0.04810855088273547</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.699170357304413</v>
+        <v>-3.699182252890036</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.701061670416574</v>
+        <v>-3.701182718333088</v>
       </c>
       <c r="G204">
         <v>-0.1036567457113775</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.68936878145468</v>
+        <v>-3.689635114011596</v>
       </c>
       <c r="G205">
         <v>-0.1177231207680771</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.665487094588836</v>
+        <v>-3.665865649676608</v>
       </c>
       <c r="G206">
         <v>-0.119760413540996</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.629229504177753</v>
+        <v>-3.629391635440581</v>
       </c>
       <c r="G207">
         <v>-0.1167335487767001</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.577397289823722</v>
+        <v>-3.57746712689195</v>
       </c>
       <c r="G208">
         <v>-0.1028419786944326</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.511328444793042</v>
+        <v>-3.511339789175298</v>
       </c>
       <c r="G209">
         <v>-0.07990156409120852</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.44914339448307</v>
+        <v>-3.449201670713005</v>
       </c>
       <c r="G210">
         <v>-0.046492380497828</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.1821095451091</v>
+        <v>-3.198922902585136</v>
       </c>
       <c r="G53">
         <v>-0.3114538147492916</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.316092789636273</v>
+        <v>-3.327640192104464</v>
       </c>
       <c r="G81">
         <v>-0.08244362801261662</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.298955093121141</v>
+        <v>-3.299994096957456</v>
       </c>
       <c r="G86">
         <v>-0.2058311550549461</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.451595247904272</v>
+        <v>-3.453603784045682</v>
       </c>
       <c r="G93">
         <v>-0.1271522387192139</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.458492633803256</v>
+        <v>-3.463403201509025</v>
       </c>
       <c r="G94">
         <v>-0.1647750556969094</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.447685555031152</v>
+        <v>-3.450663696603289</v>
       </c>
       <c r="G96">
         <v>-0.2191046359395492</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.412860972476139</v>
+        <v>-3.413483197100721</v>
       </c>
       <c r="G97">
         <v>-0.221226591996905</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.281491283054691</v>
+        <v>-3.282164789739481</v>
       </c>
       <c r="G99">
         <v>-0.1474327143894754</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-3.485844258734137</v>
+        <v>-3.485977844941663</v>
       </c>
       <c r="G103">
         <v>-0.06839548947647867</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.509851497843896</v>
+        <v>-3.510239999703563</v>
       </c>
       <c r="G104">
         <v>-0.1245023725739496</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.51626499118221</v>
+        <v>-3.516783692460023</v>
       </c>
       <c r="G105">
         <v>-0.1588706785968128</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.457656971003336</v>
+        <v>-3.457780347426351</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.404898379276659</v>
+        <v>-3.405569290476524</v>
       </c>
       <c r="G109">
         <v>-0.1663002939100304</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.254875451349846</v>
+        <v>-3.257305602079493</v>
       </c>
       <c r="G111">
         <v>-0.07636511785392719</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.556119160211405</v>
+        <v>-3.556896460212787</v>
       </c>
       <c r="G115">
         <v>-0.1126034531217837</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.565991146620921</v>
+        <v>-3.567334832884862</v>
       </c>
       <c r="G116">
         <v>-0.1473260178052818</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.557733576351332</v>
+        <v>-3.55796525615279</v>
       </c>
       <c r="G117">
         <v>-0.1660160554612604</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.503143721240535</v>
+        <v>-3.503482099627429</v>
       </c>
       <c r="G119">
         <v>-0.1782289020726748</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.451270864404327</v>
+        <v>-3.451322751969195</v>
       </c>
       <c r="G120">
         <v>-0.1525727453943473</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.571108431704015</v>
+        <v>-3.57115142715946</v>
       </c>
       <c r="G125">
         <v>-0.06292941272354158</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.589745002532008</v>
+        <v>-3.590131114670567</v>
       </c>
       <c r="G126">
         <v>-0.1057026001056443</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.597577530379171</v>
+        <v>-3.598145915938715</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.566679056121674</v>
+        <v>-3.56767391744701</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.53030825589324</v>
+        <v>-3.530705506591441</v>
       </c>
       <c r="G130">
         <v>-0.1558628905612027</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.41337555771902</v>
+        <v>-3.413460342790071</v>
       </c>
       <c r="G132">
         <v>-0.1111174317787931</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.335415454975907</v>
+        <v>-3.335700475398246</v>
       </c>
       <c r="G133">
         <v>-0.0636660509431618</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.617184669431007</v>
+        <v>-3.617214190527196</v>
       </c>
       <c r="G137">
         <v>-0.1043057381354653</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.619547148821543</v>
+        <v>-3.620304539420393</v>
       </c>
       <c r="G138">
         <v>-0.1334993259444364</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.613654550752135</v>
+        <v>-3.613871582094641</v>
       </c>
       <c r="G139">
         <v>-0.1579198821238212</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.584495536100158</v>
+        <v>-3.584980870705848</v>
       </c>
       <c r="G140">
         <v>-0.1552454321788306</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.441090153128938</v>
+        <v>-3.441261808053579</v>
       </c>
       <c r="G143">
         <v>-0.1013267051254559</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.367760614022703</v>
+        <v>-3.367796769833858</v>
       </c>
       <c r="G144">
         <v>-0.06110942945554315</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.620991426609411</v>
+        <v>-3.621145779879464</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.63793675659767</v>
+        <v>-3.638235166928663</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.641822656225763</v>
+        <v>-3.642011758636716</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.632383177115432</v>
+        <v>-3.633077608132028</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.608581473458075</v>
+        <v>-3.609020955849423</v>
       </c>
       <c r="G151">
         <v>-0.1458849208392268</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.57238633815176</v>
+        <v>-3.572566922343085</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.387075016642637</v>
+        <v>-3.387146873501332</v>
       </c>
       <c r="G155">
         <v>-0.05631347751288074</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.641398929657917</v>
+        <v>-3.641635548608094</v>
       </c>
       <c r="G158">
         <v>-0.05420155812488714</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.653686066867707</v>
+        <v>-3.653908783294461</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.658465972374073</v>
+        <v>-3.658805230162877</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.646965758244847</v>
+        <v>-3.647026648459919</v>
       </c>
       <c r="G161">
         <v>-0.1361947678178148</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.624386416978961</v>
+        <v>-3.624725731966203</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.588941221250712</v>
+        <v>-3.589076331756782</v>
       </c>
       <c r="G163">
         <v>-0.1345574214391529</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.473077165357489</v>
+        <v>-3.473139881391923</v>
       </c>
       <c r="G165">
         <v>-0.09333834970044053</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.404788900795925</v>
+        <v>-3.40480808344071</v>
       </c>
       <c r="G166">
         <v>-0.05294243657089992</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.669429580762423</v>
+        <v>-3.670016661723575</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.671195289487139</v>
+        <v>-3.671354718592705</v>
       </c>
       <c r="G171">
         <v>-0.1145027422139155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.664880502630551</v>
+        <v>-3.665051631899314</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.63786710167953</v>
+        <v>-3.637902873502643</v>
       </c>
       <c r="G173">
         <v>-0.1332628989381044</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.598775263419678</v>
+        <v>-3.598982164511553</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.66947609542432</v>
+        <v>-3.669494662769343</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.680713260431035</v>
+        <v>-3.680806594518833</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.681998373154479</v>
+        <v>-3.682193907392781</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.647742935026204</v>
+        <v>-3.647780069716251</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.556771373392866</v>
+        <v>-3.556786993928756</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.431053278020368</v>
+        <v>-3.431064648150665</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.678151682054811</v>
+        <v>-3.678375207658295</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.691236985669116</v>
+        <v>-3.691393348306712</v>
       </c>
       <c r="G192">
         <v>-0.0856430261508887</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.693611685012829</v>
+        <v>-3.693641167111534</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.68332914483351</v>
+        <v>-3.683358626932215</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.657712031904083</v>
+        <v>-3.65781740846097</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.568213524201684</v>
+        <v>-3.568243006300385</v>
       </c>
       <c r="G197">
         <v>-0.1049342100109929</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.504233681281225</v>
+        <v>-3.504289240415493</v>
       </c>
       <c r="G198">
         <v>-0.08156116408682157</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.440784386905626</v>
+        <v>-3.440895505174159</v>
       </c>
       <c r="G199">
         <v>-0.04819081630016986</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.689086025510707</v>
+        <v>-3.68921718968012</v>
       </c>
       <c r="G202">
         <v>-0.04810855088273547</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.699182252890036</v>
+        <v>-3.699223887439717</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.689635114011596</v>
+        <v>-3.689658905182839</v>
       </c>
       <c r="G205">
         <v>-0.1177231207680771</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.665865649676608</v>
+        <v>-3.665883493055043</v>
       </c>
       <c r="G206">
         <v>-0.119760413540996</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.57746712689195</v>
+        <v>-3.577479022477573</v>
       </c>
       <c r="G208">
         <v>-0.1028419786944326</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.511339789175298</v>
+        <v>-3.511388683587265</v>
       </c>
       <c r="G209">
         <v>-0.07990156409120852</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-3.203973337026376</v>
+        <v>-3.217966541232412</v>
       </c>
       <c r="G48">
         <v>-0.3106946514023543</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.168087961895831</v>
+        <v>-3.184901319371865</v>
       </c>
       <c r="G54">
         <v>-0.2552393530859356</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.381794704216141</v>
+        <v>-3.383892353462677</v>
       </c>
       <c r="G82">
         <v>-0.1587442111867174</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.392869782092052</v>
+        <v>-3.395075855376537</v>
       </c>
       <c r="G83">
         <v>-0.1935836641501196</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.342457257915623</v>
+        <v>-3.34461566601101</v>
       </c>
       <c r="G85">
         <v>-0.2257921296725458</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.453603784045682</v>
+        <v>-3.455782576543748</v>
       </c>
       <c r="G93">
         <v>-0.1271522387192139</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.463403201509025</v>
+        <v>-3.463641027706129</v>
       </c>
       <c r="G94">
         <v>-0.1647750556969094</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.467466120557006</v>
+        <v>-3.47026340825325</v>
       </c>
       <c r="G95">
         <v>-0.1890927537859133</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.413483197100721</v>
+        <v>-3.414441429097143</v>
       </c>
       <c r="G97">
         <v>-0.221226591996905</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.353535959500713</v>
+        <v>-3.354952245840063</v>
       </c>
       <c r="G98">
         <v>-0.1853332119717932</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.282164789739481</v>
+        <v>-3.283419372238978</v>
       </c>
       <c r="G99">
         <v>-0.1474327143894754</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.510239999703563</v>
+        <v>-3.510478416696268</v>
       </c>
       <c r="G104">
         <v>-0.1245023725739496</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.516783692460023</v>
+        <v>-3.517953010544967</v>
       </c>
       <c r="G105">
         <v>-0.1588706785968128</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.514512032281587</v>
+        <v>-3.515901542708337</v>
       </c>
       <c r="G106">
         <v>-0.1732735452394376</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.498010617612611</v>
+        <v>-3.500298418403576</v>
       </c>
       <c r="G107">
         <v>-0.1887448956195208</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.457780347426351</v>
+        <v>-3.460769408737029</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.53436558848816</v>
+        <v>-3.535025828079518</v>
       </c>
       <c r="G114">
         <v>-0.05916963176299506</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.556896460212787</v>
+        <v>-3.556962459606175</v>
       </c>
       <c r="G115">
         <v>-0.1126034531217837</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.55796525615279</v>
+        <v>-3.558509049232436</v>
       </c>
       <c r="G117">
         <v>-0.1660160554612604</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.535489687694378</v>
+        <v>-3.535867239887116</v>
       </c>
       <c r="G118">
         <v>-0.1822153500169101</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.383371974098544</v>
+        <v>-3.383496005481415</v>
       </c>
       <c r="G121">
         <v>-0.1216181534957053</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.57115142715946</v>
+        <v>-3.571194422614904</v>
       </c>
       <c r="G125">
         <v>-0.06292941272354158</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.590131114670567</v>
+        <v>-3.590472725827151</v>
       </c>
       <c r="G126">
         <v>-0.1057026001056443</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.598145915938715</v>
+        <v>-3.599089536617858</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.590498756069038</v>
+        <v>-3.590584746979925</v>
       </c>
       <c r="G128">
         <v>-0.1596628013612817</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.56767391744701</v>
+        <v>-3.56813264265643</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.479958864813696</v>
+        <v>-3.480445284066207</v>
       </c>
       <c r="G131">
         <v>-0.1427449953109461</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.335700475398246</v>
+        <v>-3.335846195576047</v>
       </c>
       <c r="G133">
         <v>-0.0636660509431618</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.597989392437671</v>
+        <v>-3.598566250434555</v>
       </c>
       <c r="G136">
         <v>-0.05845760861487737</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.620304539420393</v>
+        <v>-3.62075715800116</v>
       </c>
       <c r="G138">
         <v>-0.1334993259444364</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.613871582094641</v>
+        <v>-3.614051444498013</v>
       </c>
       <c r="G139">
         <v>-0.1579198821238212</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.555969564258606</v>
+        <v>-3.556087648643358</v>
       </c>
       <c r="G141">
         <v>-0.1469127014539682</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.441261808053579</v>
+        <v>-3.441580948804297</v>
       </c>
       <c r="G143">
         <v>-0.1013267051254559</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.621145779879464</v>
+        <v>-3.621435143849728</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.638235166928663</v>
+        <v>-3.638327218841327</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.642011758636716</v>
+        <v>-3.642117523193925</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.633077608132028</v>
+        <v>-3.633131798975815</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.572566922343085</v>
+        <v>-3.572898787294152</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.525655682106249</v>
+        <v>-3.525851690266701</v>
       </c>
       <c r="G153">
         <v>-0.1251827372055092</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.387146873501332</v>
+        <v>-3.387172780421134</v>
       </c>
       <c r="G155">
         <v>-0.05631347751288074</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.653908783294461</v>
+        <v>-3.654415461983596</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.658805230162877</v>
+        <v>-3.65882265276721</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.624725731966203</v>
+        <v>-3.624924163427005</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.531142483697916</v>
+        <v>-3.531228584481779</v>
       </c>
       <c r="G164">
         <v>-0.1165495395783189</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.654158095627746</v>
+        <v>-3.654170019568785</v>
       </c>
       <c r="G169">
         <v>-0.05269828595136117</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.670016661723575</v>
+        <v>-3.670052433546688</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.671354718592705</v>
+        <v>-3.671488501228291</v>
       </c>
       <c r="G171">
         <v>-0.1145027422139155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.665051631899314</v>
+        <v>-3.665229838599058</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.637902873502643</v>
+        <v>-3.637950569266795</v>
       </c>
       <c r="G173">
         <v>-0.1332628989381044</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.598982164511553</v>
+        <v>-3.59904288925128</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.546628324161679</v>
+        <v>-3.546751757666287</v>
       </c>
       <c r="G175">
         <v>-0.1116228652463507</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.669494662769343</v>
+        <v>-3.669609867527701</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.680806594518833</v>
+        <v>-3.680885172541259</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.682193907392781</v>
+        <v>-3.68227201762564</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.670656490542501</v>
+        <v>-3.670684341560036</v>
       </c>
       <c r="G183">
         <v>-0.1245300340117925</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.647780069716251</v>
+        <v>-3.647894739199831</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.556786993928756</v>
+        <v>-3.556804700922433</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.431064648150665</v>
+        <v>-3.431076018280961</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.678375207658295</v>
+        <v>-3.678463616520293</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.691393348306712</v>
+        <v>-3.691534286841902</v>
       </c>
       <c r="G192">
         <v>-0.0856430261508887</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.693641167111534</v>
+        <v>-3.693655908160885</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.683358626932215</v>
+        <v>-3.683634335772867</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.65781740846097</v>
+        <v>-3.657861631609027</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.620961370763965</v>
+        <v>-3.620984455772561</v>
       </c>
       <c r="G196">
         <v>-0.119084696567304</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.568243006300385</v>
+        <v>-3.568272488399088</v>
       </c>
       <c r="G197">
         <v>-0.1049342100109929</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.699223887439717</v>
+        <v>-3.699352975209326</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.701182718333088</v>
+        <v>-3.701218405089955</v>
       </c>
       <c r="G204">
         <v>-0.1036567457113775</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.689658905182839</v>
+        <v>-3.689782830692199</v>
       </c>
       <c r="G205">
         <v>-0.1177231207680771</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.511388683587265</v>
+        <v>-3.511400027969522</v>
       </c>
       <c r="G209">
         <v>-0.07990156409120852</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.449201670713005</v>
+        <v>-3.449239220742715</v>
       </c>
       <c r="G210">
         <v>-0.046492380497828</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-3.205389367546354</v>
+        <v>-3.206799444181351</v>
       </c>
       <c r="G44">
         <v>-0.3386505234381714</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-3.208181141809117</v>
+        <v>-3.209591218444118</v>
       </c>
       <c r="G45">
         <v>-0.2823122159825338</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-3.19195765643184</v>
+        <v>-3.223550089757942</v>
       </c>
       <c r="G50">
         <v>-0.301236929081262</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-3.194749430694602</v>
+        <v>-3.226341864020707</v>
       </c>
       <c r="G51">
         <v>-0.2859299133632929</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-3.214354562433405</v>
+        <v>-3.229133638283471</v>
       </c>
       <c r="G52">
         <v>-0.3166509261508808</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.198922902585136</v>
+        <v>-3.217146336696169</v>
       </c>
       <c r="G53">
         <v>-0.3114538147492916</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.184901319371865</v>
+        <v>-3.2017146768479</v>
       </c>
       <c r="G54">
         <v>-0.2552393530859356</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-3.327640192104464</v>
+        <v>-3.346376550581282</v>
       </c>
       <c r="G81">
         <v>-0.08244362801261662</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-3.383892353462677</v>
+        <v>-3.390412083964656</v>
       </c>
       <c r="G82">
         <v>-0.1587442111867174</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-3.395075855376537</v>
+        <v>-3.400858494119914</v>
       </c>
       <c r="G83">
         <v>-0.1935836641501196</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-3.380438653880619</v>
+        <v>-3.385058172577313</v>
       </c>
       <c r="G84">
         <v>-0.212853471562215</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-3.34461566601101</v>
+        <v>-3.358867812671553</v>
       </c>
       <c r="G85">
         <v>-0.2257921296725458</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-3.299994096957456</v>
+        <v>-3.323150665129971</v>
       </c>
       <c r="G86">
         <v>-0.2058311550549461</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-3.24245275237227</v>
+        <v>-3.254031234515312</v>
       </c>
       <c r="G87">
         <v>-0.1834754766924498</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-3.169576204225263</v>
+        <v>-3.173450656128138</v>
       </c>
       <c r="G88">
         <v>-0.1515096584650469</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-3.077966861433242</v>
+        <v>-3.079467799254104</v>
       </c>
       <c r="G89">
         <v>-0.08951886855062458</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-3.412708445954544</v>
+        <v>-3.435121590036689</v>
       </c>
       <c r="G92">
         <v>-0.07596900906562309</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-3.455782576543748</v>
+        <v>-3.476134744936997</v>
       </c>
       <c r="G93">
         <v>-0.1271522387192139</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-3.463641027706129</v>
+        <v>-3.499937344937792</v>
       </c>
       <c r="G94">
         <v>-0.1647750556969094</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-3.47026340825325</v>
+        <v>-3.507223093128693</v>
       </c>
       <c r="G95">
         <v>-0.1890927537859133</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-3.450663696603289</v>
+        <v>-3.487569036546394</v>
       </c>
       <c r="G96">
         <v>-0.2191046359395492</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-3.414441429097143</v>
+        <v>-3.450296227054411</v>
       </c>
       <c r="G97">
         <v>-0.221226591996905</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-3.354952245840063</v>
+        <v>-3.383770308076794</v>
       </c>
       <c r="G98">
         <v>-0.1853332119717932</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-3.283419372238978</v>
+        <v>-3.292353145717887</v>
       </c>
       <c r="G99">
         <v>-0.1474327143894754</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-3.485977844941663</v>
+        <v>-3.520009958178731</v>
       </c>
       <c r="G103">
         <v>-0.06839548947647867</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-3.510478416696268</v>
+        <v>-3.555456197634888</v>
       </c>
       <c r="G104">
         <v>-0.1245023725739496</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-3.517953010544967</v>
+        <v>-3.571213448440229</v>
       </c>
       <c r="G105">
         <v>-0.1588706785968128</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-3.515901542708337</v>
+        <v>-3.563680012309287</v>
       </c>
       <c r="G106">
         <v>-0.1732735452394376</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-3.500298418403576</v>
+        <v>-3.537671234341154</v>
       </c>
       <c r="G107">
         <v>-0.1887448956195208</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.460769408737029</v>
+        <v>-3.492621859105395</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.405569290476524</v>
+        <v>-3.428483775593861</v>
       </c>
       <c r="G109">
         <v>-0.1663002939100304</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.339027229940546</v>
+        <v>-3.350970152897967</v>
       </c>
       <c r="G110">
         <v>-0.1226467025945023</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.257305602079493</v>
+        <v>-3.258498600038136</v>
       </c>
       <c r="G111">
         <v>-0.07636511785392719</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-3.535025828079518</v>
+        <v>-3.561441234999713</v>
       </c>
       <c r="G114">
         <v>-0.05916963176299506</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-3.556962459606175</v>
+        <v>-3.596457130478383</v>
       </c>
       <c r="G115">
         <v>-0.1126034531217837</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.567334832884862</v>
+        <v>-3.61395424878778</v>
       </c>
       <c r="G116">
         <v>-0.1473260178052818</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-3.558509049232436</v>
+        <v>-3.611581857620827</v>
       </c>
       <c r="G117">
         <v>-0.1660160554612604</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.535867239887116</v>
+        <v>-3.588096510605501</v>
       </c>
       <c r="G118">
         <v>-0.1822153500169101</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.503482099627429</v>
+        <v>-3.543053006215779</v>
       </c>
       <c r="G119">
         <v>-0.1782289020726748</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.451322751969195</v>
+        <v>-3.479938474915214</v>
       </c>
       <c r="G120">
         <v>-0.1525727453943473</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.383496005481415</v>
+        <v>-3.404747227695209</v>
       </c>
       <c r="G121">
         <v>-0.1216181534957053</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.308375010446601</v>
+        <v>-3.309567466726047</v>
       </c>
       <c r="G122">
         <v>-0.07023732745388545</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-3.571194422614904</v>
+        <v>-3.603633701674299</v>
       </c>
       <c r="G125">
         <v>-0.06292941272354158</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-3.590472725827151</v>
+        <v>-3.633595315254041</v>
       </c>
       <c r="G126">
         <v>-0.1057026001056443</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.599089536617858</v>
+        <v>-3.647786744280726</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.590584746979925</v>
+        <v>-3.639343491996382</v>
       </c>
       <c r="G128">
         <v>-0.1596628013612817</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.56813264265643</v>
+        <v>-3.611648645276802</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.530705506591441</v>
+        <v>-3.566065272752695</v>
       </c>
       <c r="G130">
         <v>-0.1558628905612027</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.480445284066207</v>
+        <v>-3.504169106570375</v>
       </c>
       <c r="G131">
         <v>-0.1427449953109461</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.413460342790071</v>
+        <v>-3.43039418076205</v>
       </c>
       <c r="G132">
         <v>-0.1111174317787931</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.335846195576047</v>
+        <v>-3.343200634906486</v>
       </c>
       <c r="G133">
         <v>-0.0636660509431618</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.598566250434555</v>
+        <v>-3.628597995717426</v>
       </c>
       <c r="G136">
         <v>-0.05845760861487737</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.617214190527196</v>
+        <v>-3.657244825031758</v>
       </c>
       <c r="G137">
         <v>-0.1043057381354653</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.62075715800116</v>
+        <v>-3.671349806927445</v>
       </c>
       <c r="G138">
         <v>-0.1334993259444364</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.614051444498013</v>
+        <v>-3.663960399829639</v>
       </c>
       <c r="G139">
         <v>-0.1579198821238212</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.584980870705848</v>
+        <v>-3.636301172014854</v>
       </c>
       <c r="G140">
         <v>-0.1552454321788306</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.556087648643358</v>
+        <v>-3.59129686709689</v>
       </c>
       <c r="G141">
         <v>-0.1469127014539682</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.505708110746911</v>
+        <v>-3.530669665833261</v>
       </c>
       <c r="G142">
         <v>-0.1301684664635647</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.441580948804297</v>
+        <v>-3.45862438636013</v>
       </c>
       <c r="G143">
         <v>-0.1013267051254559</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.367796769833858</v>
+        <v>-3.372098767043833</v>
       </c>
       <c r="G144">
         <v>-0.06110942945554315</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.621435143849728</v>
+        <v>-3.653522909296032</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.638327218841327</v>
+        <v>-3.678466205346917</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.642117523193925</v>
+        <v>-3.69003320976123</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.633131798975815</v>
+        <v>-3.679508644539837</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.609020955849423</v>
+        <v>-3.651026265702303</v>
       </c>
       <c r="G151">
         <v>-0.1458849208392268</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.572898787294152</v>
+        <v>-3.605796704641904</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.525851690266701</v>
+        <v>-3.545831926400007</v>
       </c>
       <c r="G153">
         <v>-0.1251827372055092</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.45816437968011</v>
+        <v>-3.474688083899361</v>
       </c>
       <c r="G154">
         <v>-0.09693059773733137</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.387172780421134</v>
+        <v>-3.392899699789125</v>
       </c>
       <c r="G155">
         <v>-0.05631347751288074</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.641635548608094</v>
+        <v>-3.669508263422132</v>
       </c>
       <c r="G158">
         <v>-0.05420155812488714</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.654415461983596</v>
+        <v>-3.69360288522447</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.65882265276721</v>
+        <v>-3.704345297926025</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.647026648459919</v>
+        <v>-3.693724885187034</v>
       </c>
       <c r="G161">
         <v>-0.1361947678178148</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.624924163427005</v>
+        <v>-3.666027597235246</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.589076331756782</v>
+        <v>-3.621863113637593</v>
       </c>
       <c r="G163">
         <v>-0.1345574214391529</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.531228584481779</v>
+        <v>-3.561668729517023</v>
       </c>
       <c r="G164">
         <v>-0.1165495395783189</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.473139881391923</v>
+        <v>-3.492373876331519</v>
       </c>
       <c r="G165">
         <v>-0.09333834970044053</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.40480808344071</v>
+        <v>-3.411517128213375</v>
       </c>
       <c r="G166">
         <v>-0.05294243657089992</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.654170019568785</v>
+        <v>-3.685335275268046</v>
       </c>
       <c r="G169">
         <v>-0.05269828595136117</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.670052433546688</v>
+        <v>-3.706557895154997</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.671488501228291</v>
+        <v>-3.715521867279732</v>
       </c>
       <c r="G171">
         <v>-0.1145027422139155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.665229838599058</v>
+        <v>-3.703998200123845</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.637950569266795</v>
+        <v>-3.675450307186651</v>
       </c>
       <c r="G173">
         <v>-0.1332628989381044</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.59904288925128</v>
+        <v>-3.630985534087508</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.546751757666287</v>
+        <v>-3.571991554490325</v>
       </c>
       <c r="G175">
         <v>-0.1116228652463507</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.48534452759285</v>
+        <v>-3.503005852977148</v>
       </c>
       <c r="G176">
         <v>-0.08713089627258619</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.419136892949703</v>
+        <v>-3.424859438971547</v>
       </c>
       <c r="G177">
         <v>-0.0519274496477683</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.669609867527701</v>
+        <v>-3.69613571111312</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.680885172541259</v>
+        <v>-3.716567887516254</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.68227201762564</v>
+        <v>-3.724752463089372</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.670684341560036</v>
+        <v>-3.71294549342367</v>
       </c>
       <c r="G183">
         <v>-0.1245300340117925</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.647894739199831</v>
+        <v>-3.68508408307939</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.610832343075922</v>
+        <v>-3.641237101576034</v>
       </c>
       <c r="G185">
         <v>-0.1224248535886803</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.556804700922433</v>
+        <v>-3.582784309966356</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.495190291354969</v>
+        <v>-3.51497134444751</v>
       </c>
       <c r="G187">
         <v>-0.08329032108780665</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.431076018280961</v>
+        <v>-3.437390249708752</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.678463616520293</v>
+        <v>-3.706975436092137</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.691534286841902</v>
+        <v>-3.725534547929304</v>
       </c>
       <c r="G192">
         <v>-0.0856430261508887</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.693655908160885</v>
+        <v>-3.731886820719709</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.683634335772867</v>
+        <v>-3.719606922546133</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.657861631609027</v>
+        <v>-3.690988038200021</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.620984455772561</v>
+        <v>-3.648022230543787</v>
       </c>
       <c r="G196">
         <v>-0.119084696567304</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.568272488399088</v>
+        <v>-3.590175377571621</v>
       </c>
       <c r="G197">
         <v>-0.1049342100109929</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.504289240415493</v>
+        <v>-3.522840734462941</v>
       </c>
       <c r="G198">
         <v>-0.08156116408682157</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.440895505174159</v>
+        <v>-3.446176991636912</v>
       </c>
       <c r="G199">
         <v>-0.04819081630016986</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.68921718968012</v>
+        <v>-3.714818669084385</v>
       </c>
       <c r="G202">
         <v>-0.04810855088273547</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.699352975209326</v>
+        <v>-3.732692674570675</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.701218405089955</v>
+        <v>-3.738022796925615</v>
       </c>
       <c r="G204">
         <v>-0.1036567457113775</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.689782830692199</v>
+        <v>-3.725696204525273</v>
       </c>
       <c r="G205">
         <v>-0.1177231207680771</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.665883493055043</v>
+        <v>-3.697813399117424</v>
       </c>
       <c r="G206">
         <v>-0.119760413540996</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.629391635440581</v>
+        <v>-3.654923866186364</v>
       </c>
       <c r="G207">
         <v>-0.1167335487767001</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.577479022477573</v>
+        <v>-3.598479676051884</v>
       </c>
       <c r="G208">
         <v>-0.1028419786944326</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.511400027969522</v>
+        <v>-3.530987063775228</v>
       </c>
       <c r="G209">
         <v>-0.07990156409120852</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.449239220742715</v>
+        <v>-3.455238735908447</v>
       </c>
       <c r="G210">
         <v>-0.046492380497828</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.492621859105395</v>
+        <v>-3.492730931787098</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.543053006215779</v>
+        <v>-3.543191121403907</v>
       </c>
       <c r="G119">
         <v>-0.1782289020726748</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.404747227695209</v>
+        <v>-3.404953942499201</v>
       </c>
       <c r="G121">
         <v>-0.1216181534957053</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.647786744280726</v>
+        <v>-3.647857612088354</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.639343491996382</v>
+        <v>-3.639395972150841</v>
       </c>
       <c r="G128">
         <v>-0.1596628013612817</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.611648645276802</v>
+        <v>-3.611724794870495</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.566065272752695</v>
+        <v>-3.566151263663583</v>
       </c>
       <c r="G130">
         <v>-0.1558628905612027</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.504169106570375</v>
+        <v>-3.504318125768628</v>
       </c>
       <c r="G131">
         <v>-0.1427449953109461</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.43039418076205</v>
+        <v>-3.430417491321879</v>
       </c>
       <c r="G132">
         <v>-0.1111174317787931</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.628597995717426</v>
+        <v>-3.628716080102175</v>
       </c>
       <c r="G136">
         <v>-0.05845760861487737</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-3.657244825031758</v>
+        <v>-3.657303867224134</v>
       </c>
       <c r="G137">
         <v>-0.1043057381354653</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.671349806927445</v>
+        <v>-3.671419232789009</v>
       </c>
       <c r="G138">
         <v>-0.1334993259444364</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.663960399829639</v>
+        <v>-3.664084996500608</v>
       </c>
       <c r="G139">
         <v>-0.1579198821238212</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.636301172014854</v>
+        <v>-3.636596382976734</v>
       </c>
       <c r="G140">
         <v>-0.1552454321788306</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.59129686709689</v>
+        <v>-3.591476729500262</v>
       </c>
       <c r="G141">
         <v>-0.1469127014539682</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.530669665833261</v>
+        <v>-3.530897627124008</v>
       </c>
       <c r="G142">
         <v>-0.1301684664635647</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.45862438636013</v>
+        <v>-3.45864039161631</v>
       </c>
       <c r="G143">
         <v>-0.1013267051254559</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.653522909296032</v>
+        <v>-3.653607520941796</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.678466205346917</v>
+        <v>-3.678702391040513</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.69003320976123</v>
+        <v>-3.690217313586561</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.679508644539837</v>
+        <v>-3.679804785300021</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.651026265702303</v>
+        <v>-3.651481770839137</v>
       </c>
       <c r="G151">
         <v>-0.1458849208392268</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.605796704641904</v>
+        <v>-3.606071692490646</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.545831926400007</v>
+        <v>-3.545997229058659</v>
       </c>
       <c r="G153">
         <v>-0.1251827372055092</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.392899699789125</v>
+        <v>-3.392925606708925</v>
       </c>
       <c r="G155">
         <v>-0.05631347751288074</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.669508263422132</v>
+        <v>-3.66958760436521</v>
       </c>
       <c r="G158">
         <v>-0.05420155812488714</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.69360288522447</v>
+        <v>-3.693769699414355</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.704345297926025</v>
+        <v>-3.7046750765251</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.693724885187034</v>
+        <v>-3.694201672354913</v>
       </c>
       <c r="G161">
         <v>-0.1361947678178148</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.666027597235246</v>
+        <v>-3.666387706294155</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.621863113637593</v>
+        <v>-3.622099503601993</v>
       </c>
       <c r="G163">
         <v>-0.1345574214391529</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.561668729517023</v>
+        <v>-3.562030950426045</v>
       </c>
       <c r="G164">
         <v>-0.1165495395783189</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.492373876331519</v>
+        <v>-3.492403749953132</v>
       </c>
       <c r="G165">
         <v>-0.09333834970044053</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.411517128213375</v>
+        <v>-3.411593858792519</v>
       </c>
       <c r="G166">
         <v>-0.05294243657089992</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.685335275268046</v>
+        <v>-3.685526058324657</v>
       </c>
       <c r="G169">
         <v>-0.05269828595136117</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.706557895154997</v>
+        <v>-3.706747775825622</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.715521867279732</v>
+        <v>-3.716021148306587</v>
       </c>
       <c r="G171">
         <v>-0.1145027422139155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.703998200123845</v>
+        <v>-3.704644772784487</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.675450307186651</v>
+        <v>-3.675920700576325</v>
       </c>
       <c r="G173">
         <v>-0.1332628989381044</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.630985534087508</v>
+        <v>-3.63151350259678</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.571991554490325</v>
+        <v>-3.572270629092502</v>
       </c>
       <c r="G175">
         <v>-0.1116228652463507</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.503005852977148</v>
+        <v>-3.503110190017537</v>
       </c>
       <c r="G176">
         <v>-0.08713089627258619</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.424859438971547</v>
+        <v>-3.424959069451642</v>
       </c>
       <c r="G177">
         <v>-0.0519274496477683</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.69613571111312</v>
+        <v>-3.69653064484642</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.716567887516254</v>
+        <v>-3.716832885874572</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.724752463089372</v>
+        <v>-3.725424347558904</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.71294549342367</v>
+        <v>-3.713558418422848</v>
       </c>
       <c r="G183">
         <v>-0.1245300340117925</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.68508408307939</v>
+        <v>-3.685705973635007</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.641237101576034</v>
+        <v>-3.641702145552976</v>
       </c>
       <c r="G185">
         <v>-0.1224248535886803</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.582784309966356</v>
+        <v>-3.583068167812554</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.51497134444751</v>
+        <v>-3.515079750357395</v>
       </c>
       <c r="G187">
         <v>-0.08329032108780665</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.437390249708752</v>
+        <v>-3.43754309466952</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.706975436092137</v>
+        <v>-3.707381225551768</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.725534547929304</v>
+        <v>-3.72594084590389</v>
       </c>
       <c r="G192">
         <v>-0.0856430261508887</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.731886820719709</v>
+        <v>-3.732884460109084</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.719606922546133</v>
+        <v>-3.720735135689131</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.690988038200021</v>
+        <v>-3.691627655951687</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.648022230543787</v>
+        <v>-3.648630711885487</v>
       </c>
       <c r="G196">
         <v>-0.119084696567304</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.590175377571621</v>
+        <v>-3.590528087031461</v>
       </c>
       <c r="G197">
         <v>-0.1049342100109929</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.522840734462941</v>
+        <v>-3.523045565764262</v>
       </c>
       <c r="G198">
         <v>-0.08156116408682157</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.446176991636912</v>
+        <v>-3.446432565259212</v>
       </c>
       <c r="G199">
         <v>-0.04819081630016986</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.714818669084385</v>
+        <v>-3.715309911671926</v>
       </c>
       <c r="G202">
         <v>-0.04810855088273547</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.732692674570675</v>
+        <v>-3.733220376036649</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.738022796925615</v>
+        <v>-3.739466234368109</v>
       </c>
       <c r="G204">
         <v>-0.1036567457113775</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.725696204525273</v>
+        <v>-3.726772322972509</v>
       </c>
       <c r="G205">
         <v>-0.1177231207680771</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.697813399117424</v>
+        <v>-3.698684724670323</v>
       </c>
       <c r="G206">
         <v>-0.119760413540996</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.654923866186364</v>
+        <v>-3.655499790460122</v>
       </c>
       <c r="G207">
         <v>-0.1167335487767001</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.598479676051884</v>
+        <v>-3.598963889852991</v>
       </c>
       <c r="G208">
         <v>-0.1028419786944326</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.530987063775228</v>
+        <v>-3.531305557809439</v>
       </c>
       <c r="G209">
         <v>-0.07990156409120852</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.455238735908447</v>
+        <v>-3.455421568267355</v>
       </c>
       <c r="G210">
         <v>-0.046492380497828</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AuCu_data.xlsx
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-3.492730931787098</v>
+        <v>-3.492840004468801</v>
       </c>
       <c r="G108">
         <v>-0.1869159987652862</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-3.61395424878778</v>
+        <v>-3.614000677678043</v>
       </c>
       <c r="G116">
         <v>-0.1473260178052818</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-3.588096510605501</v>
+        <v>-3.588162236288749</v>
       </c>
       <c r="G118">
         <v>-0.1822153500169101</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.543191121403907</v>
+        <v>-3.543263237198651</v>
       </c>
       <c r="G119">
         <v>-0.1782289020726748</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.479938474915214</v>
+        <v>-3.479983524882067</v>
       </c>
       <c r="G120">
         <v>-0.1525727453943473</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.404953942499201</v>
+        <v>-3.406085596359135</v>
       </c>
       <c r="G121">
         <v>-0.1216181534957053</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-3.647857612088354</v>
+        <v>-3.647900607543808</v>
       </c>
       <c r="G127">
         <v>-0.1413519041430042</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-3.639395972150841</v>
+        <v>-3.639553412614205</v>
       </c>
       <c r="G128">
         <v>-0.1596628013612817</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.611724794870495</v>
+        <v>-3.612022132871948</v>
       </c>
       <c r="G129">
         <v>-0.1659457843058127</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.566151263663583</v>
+        <v>-3.566323245485358</v>
       </c>
       <c r="G130">
         <v>-0.1558628905612027</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.504318125768628</v>
+        <v>-3.504413779687622</v>
       </c>
       <c r="G131">
         <v>-0.1427449953109461</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.430417491321879</v>
+        <v>-3.430440801881705</v>
       </c>
       <c r="G132">
         <v>-0.1111174317787931</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-3.628716080102175</v>
+        <v>-3.628775122294549</v>
       </c>
       <c r="G136">
         <v>-0.05845760861487737</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-3.671419232789009</v>
+        <v>-3.671448753885201</v>
       </c>
       <c r="G138">
         <v>-0.1334993259444364</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-3.664084996500608</v>
+        <v>-3.664327677556314</v>
       </c>
       <c r="G139">
         <v>-0.1579198821238212</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.636596382976734</v>
+        <v>-3.636773509553865</v>
       </c>
       <c r="G140">
         <v>-0.1552454321788306</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.591476729500262</v>
+        <v>-3.591804197384572</v>
       </c>
       <c r="G141">
         <v>-0.1469127014539682</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.530897627124008</v>
+        <v>-3.531087859839843</v>
       </c>
       <c r="G142">
         <v>-0.1301684664635647</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-3.653607520941796</v>
+        <v>-3.653797897144757</v>
       </c>
       <c r="G147">
         <v>-0.05508449372325774</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-3.678702391040513</v>
+        <v>-3.678851629309854</v>
       </c>
       <c r="G148">
         <v>-0.09910093757994032</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-3.690217313586561</v>
+        <v>-3.690449995612417</v>
       </c>
       <c r="G149">
         <v>-0.1268620239720128</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-3.679804785300021</v>
+        <v>-3.680169051078346</v>
       </c>
       <c r="G150">
         <v>-0.1419257709944968</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.651481770839137</v>
+        <v>-3.651963446069394</v>
       </c>
       <c r="G151">
         <v>-0.1458849208392268</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.606071692490646</v>
+        <v>-3.606325527427947</v>
       </c>
       <c r="G152">
         <v>-0.1390857992531354</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.545997229058659</v>
+        <v>-3.546231460831508</v>
       </c>
       <c r="G153">
         <v>-0.1251827372055092</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-3.66958760436521</v>
+        <v>-3.669838205387291</v>
       </c>
       <c r="G158">
         <v>-0.05420155812488714</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-3.693769699414355</v>
+        <v>-3.694071102814475</v>
       </c>
       <c r="G159">
         <v>-0.0940374531367647</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-3.7046750765251</v>
+        <v>-3.704925677547218</v>
       </c>
       <c r="G160">
         <v>-0.1194592342926946</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.694201672354913</v>
+        <v>-3.694753317216479</v>
       </c>
       <c r="G161">
         <v>-0.1361947678178148</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.666387706294155</v>
+        <v>-3.666747945263424</v>
       </c>
       <c r="G162">
         <v>-0.135307686804407</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.622099503601993</v>
+        <v>-3.622585043082307</v>
       </c>
       <c r="G163">
         <v>-0.1345574214391529</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.562030950426045</v>
+        <v>-3.562381645920668</v>
       </c>
       <c r="G164">
         <v>-0.1165495395783189</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.492403749953132</v>
+        <v>-3.492452806219533</v>
       </c>
       <c r="G165">
         <v>-0.09333834970044053</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.411593858792519</v>
+        <v>-3.411632224082091</v>
       </c>
       <c r="G166">
         <v>-0.05294243657089992</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-3.685526058324657</v>
+        <v>-3.685871852614759</v>
       </c>
       <c r="G169">
         <v>-0.05269828595136117</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-3.706747775825622</v>
+        <v>-3.707143655202093</v>
       </c>
       <c r="G170">
         <v>-0.08973929434462846</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-3.716021148306587</v>
+        <v>-3.716729513263694</v>
       </c>
       <c r="G171">
         <v>-0.1145027422139155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.704644772784487</v>
+        <v>-3.705105724275715</v>
       </c>
       <c r="G172">
         <v>-0.1284879256791016</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.675920700576325</v>
+        <v>-3.676508561391405</v>
       </c>
       <c r="G173">
         <v>-0.1332628989381044</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.63151350259678</v>
+        <v>-3.632002384179336</v>
       </c>
       <c r="G174">
         <v>-0.1270480570041368</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.572270629092502</v>
+        <v>-3.572700129306551</v>
       </c>
       <c r="G175">
         <v>-0.1116228652463507</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.503110190017537</v>
+        <v>-3.503282319397788</v>
       </c>
       <c r="G176">
         <v>-0.08713089627258619</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.424959069451642</v>
+        <v>-3.425215578972913</v>
       </c>
       <c r="G177">
         <v>-0.0519274496477683</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-3.69653064484642</v>
+        <v>-3.696919340292315</v>
       </c>
       <c r="G180">
         <v>-0.05109594520696614</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-3.716832885874572</v>
+        <v>-3.717340888373164</v>
       </c>
       <c r="G181">
         <v>-0.08690245167800148</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-3.725424347558904</v>
+        <v>-3.726026937678553</v>
       </c>
       <c r="G182">
         <v>-0.1096062462108538</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.713558418422848</v>
+        <v>-3.714611569330443</v>
       </c>
       <c r="G183">
         <v>-0.1245300340117925</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.685705973635007</v>
+        <v>-3.686355522703738</v>
       </c>
       <c r="G184">
         <v>-0.1271310525865352</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.641702145552976</v>
+        <v>-3.642243179612685</v>
       </c>
       <c r="G185">
         <v>-0.1224248535886803</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.583068167812554</v>
+        <v>-3.583519446167932</v>
       </c>
       <c r="G186">
         <v>-0.1075071299525749</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.515079750357395</v>
+        <v>-3.515243703322305</v>
       </c>
       <c r="G187">
         <v>-0.08329032108780665</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.43754309466952</v>
+        <v>-3.437779260212818</v>
       </c>
       <c r="G188">
         <v>-0.04941749008287621</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-3.707381225551768</v>
+        <v>-3.707796567421688</v>
       </c>
       <c r="G191">
         <v>-0.04988217733964362</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-3.72594084590389</v>
+        <v>-3.726372254880172</v>
       </c>
       <c r="G192">
         <v>-0.0856430261508887</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-3.732884460109084</v>
+        <v>-3.733905161437678</v>
       </c>
       <c r="G193">
         <v>-0.1072067213681218</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.720735135689131</v>
+        <v>-3.721612665631862</v>
       </c>
       <c r="G194">
         <v>-0.1203191283912264</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.691627655951687</v>
+        <v>-3.692519306036897</v>
       </c>
       <c r="G195">
         <v>-0.1242797207225708</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.648630711885487</v>
+        <v>-3.649199608391641</v>
       </c>
       <c r="G196">
         <v>-0.119084696567304</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.590528087031461</v>
+        <v>-3.590993113139054</v>
       </c>
       <c r="G197">
         <v>-0.1049342100109929</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.523045565764262</v>
+        <v>-3.523289123088715</v>
       </c>
       <c r="G198">
         <v>-0.08156116408682157</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.446432565259212</v>
+        <v>-3.446765916788085</v>
       </c>
       <c r="G199">
         <v>-0.04819081630016986</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-3.715309911671926</v>
+        <v>-3.715920809513067</v>
       </c>
       <c r="G202">
         <v>-0.04810855088273547</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-3.733220376036649</v>
+        <v>-3.733835408990646</v>
       </c>
       <c r="G203">
         <v>-0.08102114794204551</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-3.739466234368109</v>
+        <v>-3.740709715482785</v>
       </c>
       <c r="G204">
         <v>-0.1036567457113775</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.726772322972509</v>
+        <v>-3.728109599267695</v>
       </c>
       <c r="G205">
         <v>-0.1177231207680771</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.698684724670323</v>
+        <v>-3.699796665928557</v>
       </c>
       <c r="G206">
         <v>-0.119760413540996</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.655499790460122</v>
+        <v>-3.656332596897959</v>
       </c>
       <c r="G207">
         <v>-0.1167335487767001</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.598963889852991</v>
+        <v>-3.599525738394106</v>
       </c>
       <c r="G208">
         <v>-0.1028419786944326</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.531305557809439</v>
+        <v>-3.531630501194114</v>
       </c>
       <c r="G209">
         <v>-0.07990156409120852</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.455421568267355</v>
+        <v>-3.455653002830529</v>
       </c>
       <c r="G210">
         <v>-0.046492380497828</v>
